--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygit\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C1F7B-C326-4C81-A8BF-8580DA540A26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2AC23-11A7-4A31-9216-04B5BC3A9FA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,6 +616,9 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,9 +668,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,16 +1218,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -1274,11 +1274,11 @@
       <c r="F3" s="26">
         <v>5</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="49">
         <f>SUM(F3:F10)</f>
         <v>41</v>
       </c>
-      <c r="H3" s="39" t="str">
+      <c r="H3" s="40" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1302,8 +1302,8 @@
       <c r="F4" s="26">
         <v>1</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="40"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
@@ -1324,8 +1324,8 @@
       <c r="F5" s="26">
         <v>5</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
@@ -1346,8 +1346,8 @@
       <c r="F6" s="26">
         <v>5</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="40"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
@@ -1368,8 +1368,8 @@
       <c r="F7" s="26">
         <v>10</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="41"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
@@ -1390,8 +1390,8 @@
       <c r="F8" s="26">
         <v>5</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="42" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1414,8 +1414,8 @@
       <c r="F9" s="26">
         <v>5</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="43"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
@@ -1436,8 +1436,8 @@
       <c r="F10" s="26">
         <v>5</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
@@ -1515,7 +1515,7 @@
       <c r="G13" s="35">
         <v>10</v>
       </c>
-      <c r="H13" s="39" t="str">
+      <c r="H13" s="40" t="str">
         <f xml:space="preserve"> IF(G13:G14&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="G14" s="36">
         <v>10</v>
       </c>
-      <c r="H14" s="41"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
@@ -1590,11 +1590,11 @@
       <c r="F16" s="26">
         <v>5</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="50">
         <f>SUM(F16:F18)</f>
         <v>11</v>
       </c>
-      <c r="H16" s="46" t="str">
+      <c r="H16" s="47" t="str">
         <f xml:space="preserve"> IF(G16&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1618,8 +1618,8 @@
       <c r="F17" s="26">
         <v>1</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="47"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:8" ht="15.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
@@ -1640,8 +1640,8 @@
       <c r="F18" s="26">
         <v>5</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
@@ -1662,11 +1662,11 @@
       <c r="F19" s="26">
         <v>1</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="53">
         <f>11</f>
         <v>11</v>
       </c>
-      <c r="H19" s="46" t="str">
+      <c r="H19" s="47" t="str">
         <f xml:space="preserve"> IF(G19&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1691,8 +1691,8 @@
         <f t="shared" ref="F20:F181" si="0">IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
@@ -1854,10 +1854,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="46">
         <v>10</v>
       </c>
-      <c r="H26" s="46" t="str">
+      <c r="H26" s="47" t="str">
         <f xml:space="preserve"> IF(G26&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1882,8 +1882,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="47"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
@@ -1892,7 +1892,7 @@
       <c r="B28" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -6975,16 +6975,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B355C8E5-1BEE-4ED7-B3E5-6E364C95459F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B9F729-ECAF-4404-AE1A-CCA03C56E769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -639,6 +639,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,7 +1175,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="72" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1957,7 @@
       <c r="G32" s="49"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:6" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -1974,8 +1977,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="52">
+        <f>SUM(F33:F34)</f>
+        <v>6</v>
+      </c>
+      <c r="H33" s="35" t="str">
+        <f xml:space="preserve"> IF(G33&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>32</v>
       </c>
@@ -1995,8 +2006,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="G34" s="52"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -2006,8 +2019,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H35" s="20" t="str">
+        <f xml:space="preserve"> IF(G35&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>34</v>
       </c>
@@ -2017,8 +2034,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H36" s="20" t="str">
+        <f xml:space="preserve"> IF(G36&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>35</v>
       </c>
@@ -2028,8 +2049,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H37" s="20" t="str">
+        <f xml:space="preserve"> IF(G37&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>36</v>
       </c>
@@ -2039,8 +2064,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H38" s="20" t="str">
+        <f xml:space="preserve"> IF(G38&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>37</v>
       </c>
@@ -2050,8 +2079,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H39" s="20" t="str">
+        <f xml:space="preserve"> IF(G39&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>38</v>
       </c>
@@ -2061,8 +2094,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H40" s="20" t="str">
+        <f xml:space="preserve"> IF(G40&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>39</v>
       </c>
@@ -2072,8 +2109,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H41" s="20" t="str">
+        <f xml:space="preserve"> IF(G41&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>40</v>
       </c>
@@ -2083,8 +2124,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H42" s="20" t="str">
+        <f xml:space="preserve"> IF(G42&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -2094,8 +2139,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H43" s="20" t="str">
+        <f xml:space="preserve"> IF(G43&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>42</v>
       </c>
@@ -2105,8 +2154,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H44" s="20" t="str">
+        <f xml:space="preserve"> IF(G44&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>43</v>
       </c>
@@ -2116,8 +2169,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H45" s="20" t="str">
+        <f xml:space="preserve"> IF(G45&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>44</v>
       </c>
@@ -2127,8 +2184,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H46" s="20" t="str">
+        <f xml:space="preserve"> IF(G46&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>45</v>
       </c>
@@ -2138,8 +2199,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H47" s="20" t="str">
+        <f xml:space="preserve"> IF(G47&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>46</v>
       </c>
@@ -2149,8 +2214,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H48" s="20" t="str">
+        <f xml:space="preserve"> IF(G48&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>47</v>
       </c>
@@ -2160,8 +2229,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H49" s="20" t="str">
+        <f xml:space="preserve"> IF(G49&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>48</v>
       </c>
@@ -2171,8 +2244,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H50" s="20" t="str">
+        <f xml:space="preserve"> IF(G50&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>49</v>
       </c>
@@ -2182,8 +2259,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H51" s="20" t="str">
+        <f xml:space="preserve"> IF(G51&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>50</v>
       </c>
@@ -2193,8 +2274,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H52" s="20" t="str">
+        <f xml:space="preserve"> IF(G52&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>51</v>
       </c>
@@ -2204,8 +2289,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H53" s="20" t="str">
+        <f xml:space="preserve"> IF(G53&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>52</v>
       </c>
@@ -2215,8 +2304,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H54" s="20" t="str">
+        <f xml:space="preserve"> IF(G54&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>53</v>
       </c>
@@ -2226,8 +2319,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H55" s="20" t="str">
+        <f xml:space="preserve"> IF(G55&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>54</v>
       </c>
@@ -2237,8 +2334,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H56" s="20" t="str">
+        <f xml:space="preserve"> IF(G56&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>55</v>
       </c>
@@ -2248,8 +2349,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H57" s="20" t="str">
+        <f xml:space="preserve"> IF(G57&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>56</v>
       </c>
@@ -2259,8 +2364,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H58" s="20" t="str">
+        <f xml:space="preserve"> IF(G58&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>57</v>
       </c>
@@ -2270,8 +2379,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H59" s="20" t="str">
+        <f xml:space="preserve"> IF(G59&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>58</v>
       </c>
@@ -2281,8 +2394,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H60" s="20" t="str">
+        <f xml:space="preserve"> IF(G60&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>59</v>
       </c>
@@ -2292,8 +2409,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H61" s="20" t="str">
+        <f xml:space="preserve"> IF(G61&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>60</v>
       </c>
@@ -2303,8 +2424,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H62" s="20" t="str">
+        <f xml:space="preserve"> IF(G62&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>61</v>
       </c>
@@ -2314,8 +2439,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="H63" s="20" t="str">
+        <f xml:space="preserve"> IF(G63&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>62</v>
       </c>
@@ -2325,6 +2454,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H64" s="20" t="str">
+        <f xml:space="preserve"> IF(G64&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
@@ -6909,7 +7042,9 @@
       <c r="A1000" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="H28:H32"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H3:H7"/>
@@ -6923,7 +7058,7 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G32"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H28 H33:H1048576">
+  <conditionalFormatting sqref="H1:H2 H28 H33 H35:H1048576">
     <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
@@ -6943,7 +7078,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B9F729-ECAF-4404-AE1A-CCA03C56E769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4DF21D-8398-4CA2-9167-D6589EF95424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="78">
   <si>
     <t>Bug Log</t>
   </si>
@@ -224,9 +224,6 @@
     <t>JM &amp; ST</t>
   </si>
   <si>
-    <t>Unresolved</t>
-  </si>
-  <si>
     <t>Bootstrap succesful but error are not reported when the pre-requisite course has yet to be attempted</t>
   </si>
   <si>
@@ -249,6 +246,24 @@
   </si>
   <si>
     <t>Incorrect error messages displayed</t>
+  </si>
+  <si>
+    <t>JSON Start</t>
+  </si>
+  <si>
+    <t>Redirected to login.php</t>
+  </si>
+  <si>
+    <t>Round 2 was started when round 1 was already started</t>
+  </si>
+  <si>
+    <t>JSON Stop</t>
+  </si>
+  <si>
+    <t>Invalid offset in processBids() function</t>
+  </si>
+  <si>
+    <t>Undefined variable: UpdateStatusOK</t>
   </si>
 </sst>
 </file>
@@ -490,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -587,32 +602,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,9 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,11 +1177,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="72" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="20" customWidth="1"/>
     <col min="2" max="2" width="8.36328125" style="20" customWidth="1"/>
@@ -1186,22 +1189,22 @@
     <col min="4" max="4" width="74.54296875" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="20" customWidth="1"/>
     <col min="6" max="6" width="6.36328125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="34.54296875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="34.54296875" style="34" customWidth="1"/>
     <col min="9" max="16384" width="14.453125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -1225,11 +1228,11 @@
       <c r="G2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -1248,16 +1251,16 @@
       <c r="F3" s="26">
         <v>5</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="42">
         <f>SUM(F3:F10)</f>
         <v>41</v>
       </c>
-      <c r="H3" s="37" t="str">
+      <c r="H3" s="40" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -1276,8 +1279,8 @@
       <c r="F4" s="26">
         <v>1</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="38"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
@@ -1298,8 +1301,8 @@
       <c r="F5" s="26">
         <v>5</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
@@ -1320,8 +1323,8 @@
       <c r="F6" s="26">
         <v>5</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
@@ -1342,8 +1345,8 @@
       <c r="F7" s="26">
         <v>10</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
@@ -1364,8 +1367,8 @@
       <c r="F8" s="26">
         <v>5</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1388,8 +1391,8 @@
       <c r="F9" s="26">
         <v>5</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="41"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
@@ -1410,10 +1413,10 @@
       <c r="F10" s="26">
         <v>5</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="1:8" ht="44.35" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
         <v>9</v>
       </c>
@@ -1432,16 +1435,16 @@
       <c r="F11" s="26">
         <v>10</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="42">
         <f>SUM(F11:F17)</f>
         <v>56</v>
       </c>
-      <c r="H11" s="34" t="str">
+      <c r="H11" s="35" t="str">
         <f xml:space="preserve"> IF(G11&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
         <v>10</v>
       </c>
@@ -1460,13 +1463,13 @@
       <c r="F12" s="26">
         <v>10</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="34" t="str">
+      <c r="G12" s="43"/>
+      <c r="H12" s="35" t="str">
         <f xml:space="preserve"> IF(G12&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
         <v>11</v>
       </c>
@@ -1485,8 +1488,8 @@
       <c r="F13" s="26">
         <v>10</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="43" t="str">
+      <c r="G13" s="43"/>
+      <c r="H13" s="40" t="str">
         <f xml:space="preserve"> IF(G13:G14&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
@@ -1510,10 +1513,10 @@
       <c r="F14" s="26">
         <v>10</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="43"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
         <v>13</v>
       </c>
@@ -1532,13 +1535,13 @@
       <c r="F15" s="26">
         <v>10</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="34" t="str">
+      <c r="G15" s="43"/>
+      <c r="H15" s="35" t="str">
         <f xml:space="preserve"> IF(G15&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="30">
         <v>14</v>
       </c>
@@ -1557,8 +1560,8 @@
       <c r="F16" s="26">
         <v>5</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="43" t="str">
+      <c r="G16" s="43"/>
+      <c r="H16" s="40" t="str">
         <f xml:space="preserve"> IF(G16&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
@@ -1582,10 +1585,10 @@
       <c r="F17" s="26">
         <v>1</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="43"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31">
         <v>16</v>
       </c>
@@ -1604,12 +1607,12 @@
       <c r="F18" s="26">
         <v>5</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="43">
         <v>6</v>
       </c>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -1628,13 +1631,13 @@
       <c r="F19" s="26">
         <v>1</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="43" t="str">
+      <c r="G19" s="43"/>
+      <c r="H19" s="40" t="str">
         <f xml:space="preserve"> IF(G19&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>18</v>
       </c>
@@ -1654,13 +1657,13 @@
         <f t="shared" ref="F20:F181" si="0">IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="46">
         <f>SUM(F20:F32)</f>
         <v>79</v>
       </c>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19">
         <v>19</v>
       </c>
@@ -1680,13 +1683,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="34" t="str">
+      <c r="G21" s="46"/>
+      <c r="H21" s="35" t="str">
         <f xml:space="preserve"> IF(G21&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>20</v>
       </c>
@@ -1706,13 +1709,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="34" t="str">
+      <c r="G22" s="46"/>
+      <c r="H22" s="35" t="str">
         <f xml:space="preserve"> IF(G22&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19">
         <v>21</v>
       </c>
@@ -1732,13 +1735,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="34" t="str">
+      <c r="G23" s="46"/>
+      <c r="H23" s="35" t="str">
         <f xml:space="preserve"> IF(G23&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
         <v>22</v>
       </c>
@@ -1758,13 +1761,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="34" t="str">
+      <c r="G24" s="46"/>
+      <c r="H24" s="35" t="str">
         <f xml:space="preserve"> IF(G24&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19">
         <v>23</v>
       </c>
@@ -1784,13 +1787,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="34" t="str">
+      <c r="G25" s="46"/>
+      <c r="H25" s="35" t="str">
         <f xml:space="preserve"> IF(G25&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
         <v>24</v>
       </c>
@@ -1810,8 +1813,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="43" t="str">
+      <c r="G26" s="46"/>
+      <c r="H26" s="40" t="str">
         <f xml:space="preserve"> IF(G26&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
@@ -1836,8 +1839,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19">
@@ -1850,7 +1853,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>24</v>
@@ -1859,8 +1862,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="35" t="str">
+      <c r="G28" s="46"/>
+      <c r="H28" s="38" t="str">
         <f xml:space="preserve"> IF(G28&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>24</v>
@@ -1885,8 +1888,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="35"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
@@ -1899,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>27</v>
@@ -1908,8 +1911,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19">
@@ -1922,7 +1925,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>24</v>
@@ -1931,8 +1934,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="35"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19">
@@ -1945,7 +1948,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>24</v>
@@ -1954,8 +1957,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="35"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
@@ -1965,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>70</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>71</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>27</v>
@@ -1977,11 +1980,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="37">
         <f>SUM(F33:F34)</f>
         <v>6</v>
       </c>
-      <c r="H33" s="35" t="str">
+      <c r="H33" s="38" t="str">
         <f xml:space="preserve"> IF(G33&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
@@ -1994,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>24</v>
@@ -2006,70 +2009,117 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="35"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" ht="44.35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="str">
+      <c r="B35" s="24">
+        <v>3</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H35" s="20" t="str">
+        <v>10</v>
+      </c>
+      <c r="G35" s="36">
+        <v>10</v>
+      </c>
+      <c r="H35" s="34" t="str">
         <f xml:space="preserve"> IF(G35&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+        <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>34</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19" t="str">
+      <c r="B36" s="24">
+        <v>3</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H36" s="20" t="str">
+        <v>5</v>
+      </c>
+      <c r="G36" s="37">
+        <v>15</v>
+      </c>
+      <c r="H36" s="38" t="str">
         <f xml:space="preserve"> IF(G36&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+        <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>35</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19" t="str">
+      <c r="B37" s="24">
+        <v>3</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H37" s="20" t="str">
-        <f xml:space="preserve"> IF(G37&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>36</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="str">
+      <c r="B38" s="24">
+        <v>3</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H38" s="20" t="str">
+        <v>10</v>
+      </c>
+      <c r="G38" s="36">
+        <v>10</v>
+      </c>
+      <c r="H38" s="34" t="str">
         <f xml:space="preserve"> IF(G38&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+        <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>37</v>
       </c>
@@ -2079,12 +2129,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H39" s="20" t="str">
+      <c r="H39" s="34" t="str">
         <f xml:space="preserve"> IF(G39&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>38</v>
       </c>
@@ -2094,12 +2144,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H40" s="20" t="str">
+      <c r="H40" s="34" t="str">
         <f xml:space="preserve"> IF(G40&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>39</v>
       </c>
@@ -2109,12 +2159,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H41" s="20" t="str">
+      <c r="H41" s="34" t="str">
         <f xml:space="preserve"> IF(G41&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>40</v>
       </c>
@@ -2124,12 +2174,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H42" s="20" t="str">
+      <c r="H42" s="34" t="str">
         <f xml:space="preserve"> IF(G42&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -2139,12 +2189,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H43" s="20" t="str">
+      <c r="H43" s="34" t="str">
         <f xml:space="preserve"> IF(G43&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>42</v>
       </c>
@@ -2154,12 +2204,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H44" s="20" t="str">
+      <c r="H44" s="34" t="str">
         <f xml:space="preserve"> IF(G44&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>43</v>
       </c>
@@ -2169,12 +2219,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H45" s="20" t="str">
+      <c r="H45" s="34" t="str">
         <f xml:space="preserve"> IF(G45&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>44</v>
       </c>
@@ -2184,12 +2234,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H46" s="20" t="str">
+      <c r="H46" s="34" t="str">
         <f xml:space="preserve"> IF(G46&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>45</v>
       </c>
@@ -2199,12 +2249,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H47" s="20" t="str">
+      <c r="H47" s="34" t="str">
         <f xml:space="preserve"> IF(G47&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>46</v>
       </c>
@@ -2214,12 +2264,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H48" s="20" t="str">
+      <c r="H48" s="34" t="str">
         <f xml:space="preserve"> IF(G48&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>47</v>
       </c>
@@ -2229,12 +2279,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H49" s="20" t="str">
+      <c r="H49" s="34" t="str">
         <f xml:space="preserve"> IF(G49&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>48</v>
       </c>
@@ -2244,12 +2294,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H50" s="20" t="str">
+      <c r="H50" s="34" t="str">
         <f xml:space="preserve"> IF(G50&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>49</v>
       </c>
@@ -2259,12 +2309,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H51" s="20" t="str">
+      <c r="H51" s="34" t="str">
         <f xml:space="preserve"> IF(G51&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>50</v>
       </c>
@@ -2274,12 +2324,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H52" s="20" t="str">
+      <c r="H52" s="34" t="str">
         <f xml:space="preserve"> IF(G52&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>51</v>
       </c>
@@ -2289,12 +2339,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H53" s="20" t="str">
+      <c r="H53" s="34" t="str">
         <f xml:space="preserve"> IF(G53&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>52</v>
       </c>
@@ -2304,12 +2354,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H54" s="20" t="str">
+      <c r="H54" s="34" t="str">
         <f xml:space="preserve"> IF(G54&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>53</v>
       </c>
@@ -2319,12 +2369,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H55" s="20" t="str">
+      <c r="H55" s="34" t="str">
         <f xml:space="preserve"> IF(G55&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>54</v>
       </c>
@@ -2334,12 +2384,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H56" s="20" t="str">
+      <c r="H56" s="34" t="str">
         <f xml:space="preserve"> IF(G56&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>55</v>
       </c>
@@ -2349,12 +2399,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H57" s="20" t="str">
+      <c r="H57" s="34" t="str">
         <f xml:space="preserve"> IF(G57&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>56</v>
       </c>
@@ -2364,12 +2414,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H58" s="20" t="str">
+      <c r="H58" s="34" t="str">
         <f xml:space="preserve"> IF(G58&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>57</v>
       </c>
@@ -2379,12 +2429,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H59" s="20" t="str">
+      <c r="H59" s="34" t="str">
         <f xml:space="preserve"> IF(G59&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>58</v>
       </c>
@@ -2394,12 +2444,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H60" s="20" t="str">
+      <c r="H60" s="34" t="str">
         <f xml:space="preserve"> IF(G60&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>59</v>
       </c>
@@ -2409,12 +2459,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H61" s="20" t="str">
+      <c r="H61" s="34" t="str">
         <f xml:space="preserve"> IF(G61&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>60</v>
       </c>
@@ -2424,12 +2474,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H62" s="20" t="str">
+      <c r="H62" s="34" t="str">
         <f xml:space="preserve"> IF(G62&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>61</v>
       </c>
@@ -2439,12 +2489,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H63" s="20" t="str">
+      <c r="H63" s="34" t="str">
         <f xml:space="preserve"> IF(G63&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>62</v>
       </c>
@@ -2454,12 +2504,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H64" s="20" t="str">
+      <c r="H64" s="34" t="str">
         <f xml:space="preserve"> IF(G64&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>63</v>
       </c>
@@ -2470,7 +2520,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>64</v>
       </c>
@@ -2481,7 +2531,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>65</v>
       </c>
@@ -2492,7 +2542,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>66</v>
       </c>
@@ -2503,7 +2553,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -2514,7 +2564,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>68</v>
       </c>
@@ -2525,7 +2575,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>69</v>
       </c>
@@ -2536,7 +2586,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>70</v>
       </c>
@@ -2547,7 +2597,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>71</v>
       </c>
@@ -2558,7 +2608,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>72</v>
       </c>
@@ -2569,7 +2619,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>73</v>
       </c>
@@ -2580,7 +2630,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>74</v>
       </c>
@@ -2591,7 +2641,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>75</v>
       </c>
@@ -2602,7 +2652,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>76</v>
       </c>
@@ -2613,7 +2663,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>77</v>
       </c>
@@ -2624,7 +2674,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>78</v>
       </c>
@@ -2635,7 +2685,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>79</v>
       </c>
@@ -2646,7 +2696,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>80</v>
       </c>
@@ -2657,7 +2707,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>81</v>
       </c>
@@ -2668,7 +2718,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>82</v>
       </c>
@@ -2679,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>83</v>
       </c>
@@ -2690,7 +2740,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>84</v>
       </c>
@@ -2701,7 +2751,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>85</v>
       </c>
@@ -2712,7 +2762,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>86</v>
       </c>
@@ -2723,7 +2773,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>87</v>
       </c>
@@ -2734,7 +2784,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>88</v>
       </c>
@@ -2745,7 +2795,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>89</v>
       </c>
@@ -2756,7 +2806,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>90</v>
       </c>
@@ -2767,7 +2817,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>91</v>
       </c>
@@ -2778,7 +2828,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>92</v>
       </c>
@@ -2789,7 +2839,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>93</v>
       </c>
@@ -2800,7 +2850,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>94</v>
       </c>
@@ -2811,7 +2861,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>95</v>
       </c>
@@ -2822,7 +2872,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>96</v>
       </c>
@@ -2833,7 +2883,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>97</v>
       </c>
@@ -2844,7 +2894,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>98</v>
       </c>
@@ -2855,7 +2905,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>99</v>
       </c>
@@ -2866,7 +2916,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>100</v>
       </c>
@@ -2877,7 +2927,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>101</v>
       </c>
@@ -2888,7 +2938,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>102</v>
       </c>
@@ -2899,7 +2949,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>103</v>
       </c>
@@ -2910,7 +2960,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>104</v>
       </c>
@@ -2921,7 +2971,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>105</v>
       </c>
@@ -2932,7 +2982,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>106</v>
       </c>
@@ -2943,7 +2993,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>107</v>
       </c>
@@ -2954,7 +3004,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>108</v>
       </c>
@@ -2965,7 +3015,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>109</v>
       </c>
@@ -2976,7 +3026,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>110</v>
       </c>
@@ -2987,7 +3037,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>111</v>
       </c>
@@ -2998,7 +3048,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>112</v>
       </c>
@@ -3009,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>113</v>
       </c>
@@ -3020,7 +3070,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>114</v>
       </c>
@@ -3031,7 +3081,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>115</v>
       </c>
@@ -3042,7 +3092,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>116</v>
       </c>
@@ -3053,7 +3103,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>117</v>
       </c>
@@ -3064,7 +3114,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>118</v>
       </c>
@@ -3075,7 +3125,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>119</v>
       </c>
@@ -3086,7 +3136,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>120</v>
       </c>
@@ -3097,7 +3147,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>121</v>
       </c>
@@ -3108,7 +3158,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>122</v>
       </c>
@@ -3119,7 +3169,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>123</v>
       </c>
@@ -3130,7 +3180,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>124</v>
       </c>
@@ -3141,7 +3191,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>125</v>
       </c>
@@ -3152,7 +3202,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>126</v>
       </c>
@@ -3163,7 +3213,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>127</v>
       </c>
@@ -3174,7 +3224,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>128</v>
       </c>
@@ -3185,7 +3235,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>129</v>
       </c>
@@ -3196,7 +3246,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>130</v>
       </c>
@@ -3207,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>131</v>
       </c>
@@ -3218,7 +3268,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>132</v>
       </c>
@@ -3229,7 +3279,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>133</v>
       </c>
@@ -3240,7 +3290,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>134</v>
       </c>
@@ -3251,7 +3301,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>135</v>
       </c>
@@ -3262,7 +3312,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>136</v>
       </c>
@@ -3273,7 +3323,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>137</v>
       </c>
@@ -3284,7 +3334,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>138</v>
       </c>
@@ -3295,7 +3345,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>139</v>
       </c>
@@ -3306,7 +3356,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>140</v>
       </c>
@@ -3317,7 +3367,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>141</v>
       </c>
@@ -3328,7 +3378,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>142</v>
       </c>
@@ -3339,7 +3389,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
         <v>143</v>
       </c>
@@ -3350,7 +3400,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>144</v>
       </c>
@@ -3361,7 +3411,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>145</v>
       </c>
@@ -3372,7 +3422,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>146</v>
       </c>
@@ -3383,7 +3433,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>147</v>
       </c>
@@ -3394,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>148</v>
       </c>
@@ -3405,7 +3455,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>149</v>
       </c>
@@ -3416,7 +3466,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>150</v>
       </c>
@@ -3427,7 +3477,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>151</v>
       </c>
@@ -3438,7 +3488,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>152</v>
       </c>
@@ -3449,7 +3499,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>153</v>
       </c>
@@ -3460,7 +3510,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>154</v>
       </c>
@@ -3471,7 +3521,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>155</v>
       </c>
@@ -3482,7 +3532,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>156</v>
       </c>
@@ -3493,7 +3543,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
         <v>157</v>
       </c>
@@ -3504,7 +3554,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
         <v>158</v>
       </c>
@@ -3515,7 +3565,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="19">
         <v>159</v>
       </c>
@@ -3526,7 +3576,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>160</v>
       </c>
@@ -3537,7 +3587,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>161</v>
       </c>
@@ -3548,7 +3598,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>162</v>
       </c>
@@ -3559,7 +3609,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>163</v>
       </c>
@@ -3570,7 +3620,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="19">
         <v>164</v>
       </c>
@@ -3581,7 +3631,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>165</v>
       </c>
@@ -3592,7 +3642,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="19">
         <v>166</v>
       </c>
@@ -3603,7 +3653,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>167</v>
       </c>
@@ -3614,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>168</v>
       </c>
@@ -3625,7 +3675,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>169</v>
       </c>
@@ -3636,7 +3686,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>170</v>
       </c>
@@ -3647,7 +3697,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="19">
         <v>171</v>
       </c>
@@ -3658,7 +3708,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="19">
         <v>172</v>
       </c>
@@ -3669,7 +3719,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="19">
         <v>173</v>
       </c>
@@ -3680,7 +3730,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="19">
         <v>174</v>
       </c>
@@ -3691,7 +3741,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="19">
         <v>175</v>
       </c>
@@ -3702,7 +3752,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="19">
         <v>176</v>
       </c>
@@ -3713,7 +3763,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="19">
         <v>177</v>
       </c>
@@ -3724,7 +3774,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="19">
         <v>178</v>
       </c>
@@ -3735,7 +3785,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="19">
         <v>179</v>
       </c>
@@ -3746,3303 +3796,3305 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="19">
         <v>180</v>
       </c>
       <c r="B182" s="24"/>
     </row>
-    <row r="183" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="19">
         <v>181</v>
       </c>
       <c r="B183" s="24"/>
     </row>
-    <row r="184" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="19">
         <v>182</v>
       </c>
       <c r="B184" s="24"/>
     </row>
-    <row r="185" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="19">
         <v>183</v>
       </c>
       <c r="B185" s="24"/>
     </row>
-    <row r="186" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="19">
         <v>184</v>
       </c>
       <c r="B186" s="24"/>
     </row>
-    <row r="187" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="19">
         <v>185</v>
       </c>
       <c r="B187" s="24"/>
     </row>
-    <row r="188" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="19">
         <v>186</v>
       </c>
       <c r="B188" s="24"/>
     </row>
-    <row r="189" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="19">
         <v>187</v>
       </c>
       <c r="B189" s="24"/>
     </row>
-    <row r="190" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="19">
         <v>188</v>
       </c>
       <c r="B190" s="24"/>
     </row>
-    <row r="191" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="19">
         <v>189</v>
       </c>
       <c r="B191" s="24"/>
     </row>
-    <row r="192" spans="1:6" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="19">
         <v>190</v>
       </c>
       <c r="B192" s="24"/>
     </row>
-    <row r="193" spans="1:2" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
         <v>191</v>
       </c>
       <c r="B193" s="24"/>
     </row>
-    <row r="194" spans="1:2" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="19">
         <v>192</v>
       </c>
       <c r="B194" s="24"/>
     </row>
-    <row r="195" spans="1:2" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="19">
         <v>193</v>
       </c>
       <c r="B195" s="24"/>
     </row>
-    <row r="196" spans="1:2" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="19">
         <v>194</v>
       </c>
       <c r="B196" s="24"/>
     </row>
-    <row r="197" spans="1:2" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="19">
         <v>195</v>
       </c>
       <c r="B197" s="24"/>
     </row>
-    <row r="198" spans="1:2" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="19">
         <v>196</v>
       </c>
       <c r="B198" s="24"/>
     </row>
-    <row r="199" spans="1:2" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="19">
         <v>197</v>
       </c>
       <c r="B199" s="24"/>
     </row>
-    <row r="200" spans="1:2" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="19">
         <v>198</v>
       </c>
       <c r="B200" s="24"/>
     </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="24"/>
       <c r="B201" s="24"/>
     </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="24"/>
       <c r="B202" s="24"/>
     </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="24"/>
       <c r="B203" s="24"/>
     </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="24"/>
       <c r="B204" s="24"/>
     </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="24"/>
       <c r="B205" s="24"/>
     </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="24"/>
       <c r="B206" s="24"/>
     </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="24"/>
       <c r="B207" s="24"/>
     </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="24"/>
       <c r="B208" s="24"/>
     </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="24"/>
       <c r="B209" s="24"/>
     </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="24"/>
       <c r="B210" s="24"/>
     </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="24"/>
       <c r="B211" s="24"/>
     </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="24"/>
       <c r="B212" s="24"/>
     </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="24"/>
       <c r="B213" s="24"/>
     </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="24"/>
       <c r="B214" s="24"/>
     </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="24"/>
       <c r="B215" s="24"/>
     </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="24"/>
       <c r="B216" s="24"/>
     </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="24"/>
       <c r="B217" s="24"/>
     </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="24"/>
       <c r="B218" s="24"/>
     </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="24"/>
       <c r="B219" s="24"/>
     </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="24"/>
       <c r="B220" s="24"/>
     </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="24"/>
       <c r="B221" s="24"/>
     </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="24"/>
       <c r="B222" s="24"/>
     </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="24"/>
       <c r="B223" s="24"/>
     </row>
-    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="24"/>
       <c r="B224" s="24"/>
     </row>
-    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
     </row>
-    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="24"/>
       <c r="B226" s="24"/>
     </row>
-    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
     </row>
-    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="24"/>
       <c r="B228" s="24"/>
     </row>
-    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
     </row>
-    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="24"/>
       <c r="B230" s="24"/>
     </row>
-    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
     </row>
-    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="24"/>
       <c r="B232" s="24"/>
     </row>
-    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
     </row>
-    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="24"/>
       <c r="B234" s="24"/>
     </row>
-    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
     </row>
-    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="24"/>
       <c r="B236" s="24"/>
     </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="24"/>
       <c r="B237" s="24"/>
     </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="24"/>
       <c r="B238" s="24"/>
     </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="24"/>
       <c r="B239" s="24"/>
     </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="24"/>
       <c r="B240" s="24"/>
     </row>
-    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="24"/>
       <c r="B241" s="24"/>
     </row>
-    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="24"/>
       <c r="B242" s="24"/>
     </row>
-    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="24"/>
       <c r="B243" s="24"/>
     </row>
-    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="24"/>
       <c r="B244" s="24"/>
     </row>
-    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="24"/>
       <c r="B245" s="24"/>
     </row>
-    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="24"/>
       <c r="B246" s="24"/>
     </row>
-    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="24"/>
       <c r="B247" s="24"/>
     </row>
-    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="24"/>
       <c r="B248" s="24"/>
     </row>
-    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="24"/>
       <c r="B249" s="24"/>
     </row>
-    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="24"/>
       <c r="B250" s="24"/>
     </row>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="24"/>
       <c r="B251" s="24"/>
     </row>
-    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="24"/>
       <c r="B252" s="24"/>
     </row>
-    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="24"/>
       <c r="B253" s="24"/>
     </row>
-    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="24"/>
       <c r="B254" s="24"/>
     </row>
-    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="24"/>
       <c r="B255" s="24"/>
     </row>
-    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="24"/>
       <c r="B256" s="24"/>
     </row>
-    <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="24"/>
       <c r="B257" s="24"/>
     </row>
-    <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="24"/>
       <c r="B258" s="24"/>
     </row>
-    <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="24"/>
       <c r="B259" s="24"/>
     </row>
-    <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="24"/>
       <c r="B260" s="24"/>
     </row>
-    <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="24"/>
       <c r="B261" s="24"/>
     </row>
-    <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="24"/>
       <c r="B262" s="24"/>
     </row>
-    <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="24"/>
       <c r="B263" s="24"/>
     </row>
-    <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="24"/>
       <c r="B264" s="24"/>
     </row>
-    <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="24"/>
       <c r="B265" s="24"/>
     </row>
-    <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="24"/>
       <c r="B266" s="24"/>
     </row>
-    <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="24"/>
       <c r="B267" s="24"/>
     </row>
-    <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="24"/>
       <c r="B268" s="24"/>
     </row>
-    <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="24"/>
       <c r="B269" s="24"/>
     </row>
-    <row r="270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="24"/>
       <c r="B270" s="24"/>
     </row>
-    <row r="271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="24"/>
       <c r="B271" s="24"/>
     </row>
-    <row r="272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="24"/>
       <c r="B272" s="24"/>
     </row>
-    <row r="273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="24"/>
       <c r="B273" s="24"/>
     </row>
-    <row r="274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="24"/>
       <c r="B274" s="24"/>
     </row>
-    <row r="275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="24"/>
       <c r="B275" s="24"/>
     </row>
-    <row r="276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="24"/>
       <c r="B276" s="24"/>
     </row>
-    <row r="277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="24"/>
       <c r="B277" s="24"/>
     </row>
-    <row r="278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="24"/>
       <c r="B278" s="24"/>
     </row>
-    <row r="279" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="24"/>
       <c r="B279" s="24"/>
     </row>
-    <row r="280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="24"/>
       <c r="B280" s="24"/>
     </row>
-    <row r="281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="24"/>
       <c r="B281" s="24"/>
     </row>
-    <row r="282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="24"/>
       <c r="B282" s="24"/>
     </row>
-    <row r="283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="24"/>
       <c r="B283" s="24"/>
     </row>
-    <row r="284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="24"/>
       <c r="B284" s="24"/>
     </row>
-    <row r="285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="24"/>
       <c r="B285" s="24"/>
     </row>
-    <row r="286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="24"/>
       <c r="B286" s="24"/>
     </row>
-    <row r="287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="24"/>
       <c r="B287" s="24"/>
     </row>
-    <row r="288" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="24"/>
       <c r="B288" s="24"/>
     </row>
-    <row r="289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="24"/>
       <c r="B289" s="24"/>
     </row>
-    <row r="290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="24"/>
       <c r="B290" s="24"/>
     </row>
-    <row r="291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="24"/>
       <c r="B291" s="24"/>
     </row>
-    <row r="292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="24"/>
       <c r="B292" s="24"/>
     </row>
-    <row r="293" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="24"/>
       <c r="B293" s="24"/>
     </row>
-    <row r="294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="24"/>
       <c r="B294" s="24"/>
     </row>
-    <row r="295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="24"/>
       <c r="B295" s="24"/>
     </row>
-    <row r="296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="24"/>
       <c r="B296" s="24"/>
     </row>
-    <row r="297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="24"/>
       <c r="B297" s="24"/>
     </row>
-    <row r="298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="24"/>
       <c r="B298" s="24"/>
     </row>
-    <row r="299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="24"/>
       <c r="B299" s="24"/>
     </row>
-    <row r="300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="24"/>
       <c r="B300" s="24"/>
     </row>
-    <row r="301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="24"/>
       <c r="B301" s="24"/>
     </row>
-    <row r="302" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="24"/>
       <c r="B302" s="24"/>
     </row>
-    <row r="303" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="24"/>
       <c r="B303" s="24"/>
     </row>
-    <row r="304" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="24"/>
       <c r="B304" s="24"/>
     </row>
-    <row r="305" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="24"/>
       <c r="B305" s="24"/>
     </row>
-    <row r="306" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="24"/>
       <c r="B306" s="24"/>
     </row>
-    <row r="307" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="24"/>
       <c r="B307" s="24"/>
     </row>
-    <row r="308" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="24"/>
       <c r="B308" s="24"/>
     </row>
-    <row r="309" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="24"/>
       <c r="B309" s="24"/>
     </row>
-    <row r="310" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="24"/>
       <c r="B310" s="24"/>
     </row>
-    <row r="311" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="24"/>
       <c r="B311" s="24"/>
     </row>
-    <row r="312" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="24"/>
       <c r="B312" s="24"/>
     </row>
-    <row r="313" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="24"/>
       <c r="B313" s="24"/>
     </row>
-    <row r="314" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="24"/>
       <c r="B314" s="24"/>
     </row>
-    <row r="315" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="24"/>
       <c r="B315" s="24"/>
     </row>
-    <row r="316" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="24"/>
       <c r="B316" s="24"/>
     </row>
-    <row r="317" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="24"/>
       <c r="B317" s="24"/>
     </row>
-    <row r="318" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="24"/>
       <c r="B318" s="24"/>
     </row>
-    <row r="319" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="24"/>
       <c r="B319" s="24"/>
     </row>
-    <row r="320" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="24"/>
       <c r="B320" s="24"/>
     </row>
-    <row r="321" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="24"/>
       <c r="B321" s="24"/>
     </row>
-    <row r="322" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="24"/>
       <c r="B322" s="24"/>
     </row>
-    <row r="323" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="24"/>
       <c r="B323" s="24"/>
     </row>
-    <row r="324" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="24"/>
       <c r="B324" s="24"/>
     </row>
-    <row r="325" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="24"/>
       <c r="B325" s="24"/>
     </row>
-    <row r="326" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="24"/>
       <c r="B326" s="24"/>
     </row>
-    <row r="327" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="24"/>
       <c r="B327" s="24"/>
     </row>
-    <row r="328" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="24"/>
       <c r="B328" s="24"/>
     </row>
-    <row r="329" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="24"/>
       <c r="B329" s="24"/>
     </row>
-    <row r="330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="24"/>
       <c r="B330" s="24"/>
     </row>
-    <row r="331" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="24"/>
       <c r="B331" s="24"/>
     </row>
-    <row r="332" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="24"/>
       <c r="B332" s="24"/>
     </row>
-    <row r="333" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="24"/>
       <c r="B333" s="24"/>
     </row>
-    <row r="334" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="24"/>
       <c r="B334" s="24"/>
     </row>
-    <row r="335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="24"/>
       <c r="B335" s="24"/>
     </row>
-    <row r="336" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="24"/>
       <c r="B336" s="24"/>
     </row>
-    <row r="337" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="24"/>
       <c r="B337" s="24"/>
     </row>
-    <row r="338" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="24"/>
       <c r="B338" s="24"/>
     </row>
-    <row r="339" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="24"/>
       <c r="B339" s="24"/>
     </row>
-    <row r="340" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="24"/>
       <c r="B340" s="24"/>
     </row>
-    <row r="341" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="24"/>
       <c r="B341" s="24"/>
     </row>
-    <row r="342" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="24"/>
       <c r="B342" s="24"/>
     </row>
-    <row r="343" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="24"/>
       <c r="B343" s="24"/>
     </row>
-    <row r="344" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="24"/>
       <c r="B344" s="24"/>
     </row>
-    <row r="345" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="24"/>
       <c r="B345" s="24"/>
     </row>
-    <row r="346" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="24"/>
       <c r="B346" s="24"/>
     </row>
-    <row r="347" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="24"/>
       <c r="B347" s="24"/>
     </row>
-    <row r="348" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="24"/>
       <c r="B348" s="24"/>
     </row>
-    <row r="349" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="24"/>
       <c r="B349" s="24"/>
     </row>
-    <row r="350" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="24"/>
       <c r="B350" s="24"/>
     </row>
-    <row r="351" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="24"/>
       <c r="B351" s="24"/>
     </row>
-    <row r="352" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="24"/>
       <c r="B352" s="24"/>
     </row>
-    <row r="353" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="24"/>
       <c r="B353" s="24"/>
     </row>
-    <row r="354" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="24"/>
       <c r="B354" s="24"/>
     </row>
-    <row r="355" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="24"/>
       <c r="B355" s="24"/>
     </row>
-    <row r="356" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="24"/>
       <c r="B356" s="24"/>
     </row>
-    <row r="357" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="24"/>
       <c r="B357" s="24"/>
     </row>
-    <row r="358" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="24"/>
       <c r="B358" s="24"/>
     </row>
-    <row r="359" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="24"/>
       <c r="B359" s="24"/>
     </row>
-    <row r="360" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="24"/>
       <c r="B360" s="24"/>
     </row>
-    <row r="361" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="24"/>
       <c r="B361" s="24"/>
     </row>
-    <row r="362" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="24"/>
       <c r="B362" s="24"/>
     </row>
-    <row r="363" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="24"/>
       <c r="B363" s="24"/>
     </row>
-    <row r="364" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="24"/>
       <c r="B364" s="24"/>
     </row>
-    <row r="365" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="24"/>
       <c r="B365" s="24"/>
     </row>
-    <row r="366" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="24"/>
       <c r="B366" s="24"/>
     </row>
-    <row r="367" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="24"/>
       <c r="B367" s="24"/>
     </row>
-    <row r="368" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="24"/>
       <c r="B368" s="24"/>
     </row>
-    <row r="369" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="24"/>
       <c r="B369" s="24"/>
     </row>
-    <row r="370" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="24"/>
       <c r="B370" s="24"/>
     </row>
-    <row r="371" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="24"/>
       <c r="B371" s="24"/>
     </row>
-    <row r="372" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="24"/>
       <c r="B372" s="24"/>
     </row>
-    <row r="373" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="24"/>
       <c r="B373" s="24"/>
     </row>
-    <row r="374" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="24"/>
       <c r="B374" s="24"/>
     </row>
-    <row r="375" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="24"/>
       <c r="B375" s="24"/>
     </row>
-    <row r="376" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="24"/>
       <c r="B376" s="24"/>
     </row>
-    <row r="377" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="24"/>
       <c r="B377" s="24"/>
     </row>
-    <row r="378" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="24"/>
       <c r="B378" s="24"/>
     </row>
-    <row r="379" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="24"/>
       <c r="B379" s="24"/>
     </row>
-    <row r="380" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="24"/>
       <c r="B380" s="24"/>
     </row>
-    <row r="381" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="24"/>
       <c r="B381" s="24"/>
     </row>
-    <row r="382" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="24"/>
       <c r="B382" s="24"/>
     </row>
-    <row r="383" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="24"/>
       <c r="B383" s="24"/>
     </row>
-    <row r="384" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="24"/>
       <c r="B384" s="24"/>
     </row>
-    <row r="385" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="24"/>
       <c r="B385" s="24"/>
     </row>
-    <row r="386" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="24"/>
       <c r="B386" s="24"/>
     </row>
-    <row r="387" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="24"/>
       <c r="B387" s="24"/>
     </row>
-    <row r="388" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="24"/>
       <c r="B388" s="24"/>
     </row>
-    <row r="389" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="24"/>
       <c r="B389" s="24"/>
     </row>
-    <row r="390" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="24"/>
       <c r="B390" s="24"/>
     </row>
-    <row r="391" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="24"/>
       <c r="B391" s="24"/>
     </row>
-    <row r="392" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="24"/>
       <c r="B392" s="24"/>
     </row>
-    <row r="393" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="24"/>
       <c r="B393" s="24"/>
     </row>
-    <row r="394" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="24"/>
       <c r="B394" s="24"/>
     </row>
-    <row r="395" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="24"/>
       <c r="B395" s="24"/>
     </row>
-    <row r="396" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="24"/>
       <c r="B396" s="24"/>
     </row>
-    <row r="397" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="24"/>
       <c r="B397" s="24"/>
     </row>
-    <row r="398" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="24"/>
       <c r="B398" s="24"/>
     </row>
-    <row r="399" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="24"/>
       <c r="B399" s="24"/>
     </row>
-    <row r="400" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="24"/>
       <c r="B400" s="24"/>
     </row>
-    <row r="401" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="24"/>
       <c r="B401" s="24"/>
     </row>
-    <row r="402" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="24"/>
       <c r="B402" s="24"/>
     </row>
-    <row r="403" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="24"/>
       <c r="B403" s="24"/>
     </row>
-    <row r="404" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="24"/>
       <c r="B404" s="24"/>
     </row>
-    <row r="405" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="24"/>
       <c r="B405" s="24"/>
     </row>
-    <row r="406" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="24"/>
       <c r="B406" s="24"/>
     </row>
-    <row r="407" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="24"/>
       <c r="B407" s="24"/>
     </row>
-    <row r="408" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="24"/>
       <c r="B408" s="24"/>
     </row>
-    <row r="409" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="24"/>
       <c r="B409" s="24"/>
     </row>
-    <row r="410" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="24"/>
       <c r="B410" s="24"/>
     </row>
-    <row r="411" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="24"/>
       <c r="B411" s="24"/>
     </row>
-    <row r="412" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="24"/>
       <c r="B412" s="24"/>
     </row>
-    <row r="413" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="24"/>
       <c r="B413" s="24"/>
     </row>
-    <row r="414" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="24"/>
       <c r="B414" s="24"/>
     </row>
-    <row r="415" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="24"/>
       <c r="B415" s="24"/>
     </row>
-    <row r="416" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="24"/>
       <c r="B416" s="24"/>
     </row>
-    <row r="417" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="24"/>
       <c r="B417" s="24"/>
     </row>
-    <row r="418" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="24"/>
       <c r="B418" s="24"/>
     </row>
-    <row r="419" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="24"/>
       <c r="B419" s="24"/>
     </row>
-    <row r="420" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="24"/>
       <c r="B420" s="24"/>
     </row>
-    <row r="421" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="24"/>
       <c r="B421" s="24"/>
     </row>
-    <row r="422" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="24"/>
       <c r="B422" s="24"/>
     </row>
-    <row r="423" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="24"/>
       <c r="B423" s="24"/>
     </row>
-    <row r="424" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="24"/>
       <c r="B424" s="24"/>
     </row>
-    <row r="425" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="24"/>
       <c r="B425" s="24"/>
     </row>
-    <row r="426" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="24"/>
       <c r="B426" s="24"/>
     </row>
-    <row r="427" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="24"/>
       <c r="B427" s="24"/>
     </row>
-    <row r="428" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="24"/>
       <c r="B428" s="24"/>
     </row>
-    <row r="429" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="24"/>
       <c r="B429" s="24"/>
     </row>
-    <row r="430" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="24"/>
       <c r="B430" s="24"/>
     </row>
-    <row r="431" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="24"/>
       <c r="B431" s="24"/>
     </row>
-    <row r="432" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="24"/>
       <c r="B432" s="24"/>
     </row>
-    <row r="433" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="24"/>
       <c r="B433" s="24"/>
     </row>
-    <row r="434" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="24"/>
       <c r="B434" s="24"/>
     </row>
-    <row r="435" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="24"/>
       <c r="B435" s="24"/>
     </row>
-    <row r="436" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="24"/>
       <c r="B436" s="24"/>
     </row>
-    <row r="437" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="24"/>
       <c r="B437" s="24"/>
     </row>
-    <row r="438" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="24"/>
       <c r="B438" s="24"/>
     </row>
-    <row r="439" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="24"/>
       <c r="B439" s="24"/>
     </row>
-    <row r="440" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="24"/>
       <c r="B440" s="24"/>
     </row>
-    <row r="441" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="24"/>
       <c r="B441" s="24"/>
     </row>
-    <row r="442" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="24"/>
       <c r="B442" s="24"/>
     </row>
-    <row r="443" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="24"/>
       <c r="B443" s="24"/>
     </row>
-    <row r="444" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="24"/>
       <c r="B444" s="24"/>
     </row>
-    <row r="445" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="24"/>
       <c r="B445" s="24"/>
     </row>
-    <row r="446" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="24"/>
       <c r="B446" s="24"/>
     </row>
-    <row r="447" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="24"/>
       <c r="B447" s="24"/>
     </row>
-    <row r="448" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="24"/>
       <c r="B448" s="24"/>
     </row>
-    <row r="449" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="24"/>
       <c r="B449" s="24"/>
     </row>
-    <row r="450" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="24"/>
       <c r="B450" s="24"/>
     </row>
-    <row r="451" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="24"/>
       <c r="B451" s="24"/>
     </row>
-    <row r="452" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="24"/>
       <c r="B452" s="24"/>
     </row>
-    <row r="453" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="24"/>
       <c r="B453" s="24"/>
     </row>
-    <row r="454" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="24"/>
       <c r="B454" s="24"/>
     </row>
-    <row r="455" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="24"/>
       <c r="B455" s="24"/>
     </row>
-    <row r="456" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="24"/>
       <c r="B456" s="24"/>
     </row>
-    <row r="457" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="24"/>
       <c r="B457" s="24"/>
     </row>
-    <row r="458" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="24"/>
       <c r="B458" s="24"/>
     </row>
-    <row r="459" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="24"/>
       <c r="B459" s="24"/>
     </row>
-    <row r="460" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="24"/>
       <c r="B460" s="24"/>
     </row>
-    <row r="461" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="24"/>
       <c r="B461" s="24"/>
     </row>
-    <row r="462" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="24"/>
       <c r="B462" s="24"/>
     </row>
-    <row r="463" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="24"/>
       <c r="B463" s="24"/>
     </row>
-    <row r="464" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="24"/>
       <c r="B464" s="24"/>
     </row>
-    <row r="465" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="24"/>
       <c r="B465" s="24"/>
     </row>
-    <row r="466" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="24"/>
       <c r="B466" s="24"/>
     </row>
-    <row r="467" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="24"/>
       <c r="B467" s="24"/>
     </row>
-    <row r="468" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="24"/>
       <c r="B468" s="24"/>
     </row>
-    <row r="469" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="24"/>
       <c r="B469" s="24"/>
     </row>
-    <row r="470" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="24"/>
       <c r="B470" s="24"/>
     </row>
-    <row r="471" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="24"/>
       <c r="B471" s="24"/>
     </row>
-    <row r="472" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="24"/>
       <c r="B472" s="24"/>
     </row>
-    <row r="473" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="24"/>
       <c r="B473" s="24"/>
     </row>
-    <row r="474" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="24"/>
       <c r="B474" s="24"/>
     </row>
-    <row r="475" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="24"/>
       <c r="B475" s="24"/>
     </row>
-    <row r="476" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="24"/>
       <c r="B476" s="24"/>
     </row>
-    <row r="477" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="24"/>
       <c r="B477" s="24"/>
     </row>
-    <row r="478" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="24"/>
       <c r="B478" s="24"/>
     </row>
-    <row r="479" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="24"/>
       <c r="B479" s="24"/>
     </row>
-    <row r="480" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="24"/>
       <c r="B480" s="24"/>
     </row>
-    <row r="481" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="24"/>
       <c r="B481" s="24"/>
     </row>
-    <row r="482" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="24"/>
       <c r="B482" s="24"/>
     </row>
-    <row r="483" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="24"/>
       <c r="B483" s="24"/>
     </row>
-    <row r="484" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="24"/>
       <c r="B484" s="24"/>
     </row>
-    <row r="485" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="24"/>
       <c r="B485" s="24"/>
     </row>
-    <row r="486" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="24"/>
       <c r="B486" s="24"/>
     </row>
-    <row r="487" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="24"/>
       <c r="B487" s="24"/>
     </row>
-    <row r="488" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="24"/>
       <c r="B488" s="24"/>
     </row>
-    <row r="489" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="24"/>
       <c r="B489" s="24"/>
     </row>
-    <row r="490" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="24"/>
       <c r="B490" s="24"/>
     </row>
-    <row r="491" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="24"/>
       <c r="B491" s="24"/>
     </row>
-    <row r="492" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="24"/>
       <c r="B492" s="24"/>
     </row>
-    <row r="493" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="24"/>
       <c r="B493" s="24"/>
     </row>
-    <row r="494" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="24"/>
       <c r="B494" s="24"/>
     </row>
-    <row r="495" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="24"/>
       <c r="B495" s="24"/>
     </row>
-    <row r="496" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="24"/>
       <c r="B496" s="24"/>
     </row>
-    <row r="497" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="24"/>
       <c r="B497" s="24"/>
     </row>
-    <row r="498" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="24"/>
       <c r="B498" s="24"/>
     </row>
-    <row r="499" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="24"/>
       <c r="B499" s="24"/>
     </row>
-    <row r="500" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="24"/>
       <c r="B500" s="24"/>
     </row>
-    <row r="501" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="24"/>
       <c r="B501" s="24"/>
     </row>
-    <row r="502" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="24"/>
       <c r="B502" s="24"/>
     </row>
-    <row r="503" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="24"/>
       <c r="B503" s="24"/>
     </row>
-    <row r="504" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="24"/>
       <c r="B504" s="24"/>
     </row>
-    <row r="505" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="24"/>
       <c r="B505" s="24"/>
     </row>
-    <row r="506" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="24"/>
       <c r="B506" s="24"/>
     </row>
-    <row r="507" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="24"/>
       <c r="B507" s="24"/>
     </row>
-    <row r="508" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="24"/>
       <c r="B508" s="24"/>
     </row>
-    <row r="509" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="24"/>
       <c r="B509" s="24"/>
     </row>
-    <row r="510" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="24"/>
       <c r="B510" s="24"/>
     </row>
-    <row r="511" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="24"/>
       <c r="B511" s="24"/>
     </row>
-    <row r="512" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="24"/>
       <c r="B512" s="24"/>
     </row>
-    <row r="513" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="24"/>
       <c r="B513" s="24"/>
     </row>
-    <row r="514" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="24"/>
       <c r="B514" s="24"/>
     </row>
-    <row r="515" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="24"/>
       <c r="B515" s="24"/>
     </row>
-    <row r="516" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="24"/>
       <c r="B516" s="24"/>
     </row>
-    <row r="517" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="24"/>
       <c r="B517" s="24"/>
     </row>
-    <row r="518" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="24"/>
       <c r="B518" s="24"/>
     </row>
-    <row r="519" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="24"/>
       <c r="B519" s="24"/>
     </row>
-    <row r="520" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="24"/>
       <c r="B520" s="24"/>
     </row>
-    <row r="521" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="24"/>
       <c r="B521" s="24"/>
     </row>
-    <row r="522" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="24"/>
       <c r="B522" s="24"/>
     </row>
-    <row r="523" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="24"/>
       <c r="B523" s="24"/>
     </row>
-    <row r="524" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="24"/>
       <c r="B524" s="24"/>
     </row>
-    <row r="525" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="24"/>
       <c r="B525" s="24"/>
     </row>
-    <row r="526" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="24"/>
       <c r="B526" s="24"/>
     </row>
-    <row r="527" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="24"/>
       <c r="B527" s="24"/>
     </row>
-    <row r="528" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="24"/>
       <c r="B528" s="24"/>
     </row>
-    <row r="529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="24"/>
       <c r="B529" s="24"/>
     </row>
-    <row r="530" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="24"/>
       <c r="B530" s="24"/>
     </row>
-    <row r="531" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="24"/>
       <c r="B531" s="24"/>
     </row>
-    <row r="532" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="24"/>
       <c r="B532" s="24"/>
     </row>
-    <row r="533" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="24"/>
       <c r="B533" s="24"/>
     </row>
-    <row r="534" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="24"/>
       <c r="B534" s="24"/>
     </row>
-    <row r="535" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="24"/>
       <c r="B535" s="24"/>
     </row>
-    <row r="536" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="24"/>
       <c r="B536" s="24"/>
     </row>
-    <row r="537" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="24"/>
       <c r="B537" s="24"/>
     </row>
-    <row r="538" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="24"/>
       <c r="B538" s="24"/>
     </row>
-    <row r="539" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="24"/>
       <c r="B539" s="24"/>
     </row>
-    <row r="540" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="24"/>
       <c r="B540" s="24"/>
     </row>
-    <row r="541" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="24"/>
       <c r="B541" s="24"/>
     </row>
-    <row r="542" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="24"/>
       <c r="B542" s="24"/>
     </row>
-    <row r="543" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="24"/>
       <c r="B543" s="24"/>
     </row>
-    <row r="544" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="24"/>
       <c r="B544" s="24"/>
     </row>
-    <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="24"/>
       <c r="B545" s="24"/>
     </row>
-    <row r="546" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="24"/>
       <c r="B546" s="24"/>
     </row>
-    <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="24"/>
       <c r="B547" s="24"/>
     </row>
-    <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="24"/>
       <c r="B548" s="24"/>
     </row>
-    <row r="549" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="24"/>
       <c r="B549" s="24"/>
     </row>
-    <row r="550" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="24"/>
       <c r="B550" s="24"/>
     </row>
-    <row r="551" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="24"/>
       <c r="B551" s="24"/>
     </row>
-    <row r="552" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="24"/>
       <c r="B552" s="24"/>
     </row>
-    <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="24"/>
       <c r="B553" s="24"/>
     </row>
-    <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="24"/>
       <c r="B554" s="24"/>
     </row>
-    <row r="555" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="24"/>
       <c r="B555" s="24"/>
     </row>
-    <row r="556" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="24"/>
       <c r="B556" s="24"/>
     </row>
-    <row r="557" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="24"/>
       <c r="B557" s="24"/>
     </row>
-    <row r="558" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="24"/>
       <c r="B558" s="24"/>
     </row>
-    <row r="559" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="24"/>
       <c r="B559" s="24"/>
     </row>
-    <row r="560" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="24"/>
       <c r="B560" s="24"/>
     </row>
-    <row r="561" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="24"/>
       <c r="B561" s="24"/>
     </row>
-    <row r="562" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="24"/>
       <c r="B562" s="24"/>
     </row>
-    <row r="563" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="24"/>
       <c r="B563" s="24"/>
     </row>
-    <row r="564" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="24"/>
       <c r="B564" s="24"/>
     </row>
-    <row r="565" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="24"/>
       <c r="B565" s="24"/>
     </row>
-    <row r="566" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="24"/>
       <c r="B566" s="24"/>
     </row>
-    <row r="567" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="24"/>
       <c r="B567" s="24"/>
     </row>
-    <row r="568" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="24"/>
       <c r="B568" s="24"/>
     </row>
-    <row r="569" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="24"/>
       <c r="B569" s="24"/>
     </row>
-    <row r="570" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="24"/>
       <c r="B570" s="24"/>
     </row>
-    <row r="571" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="24"/>
       <c r="B571" s="24"/>
     </row>
-    <row r="572" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="24"/>
       <c r="B572" s="24"/>
     </row>
-    <row r="573" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="24"/>
       <c r="B573" s="24"/>
     </row>
-    <row r="574" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="24"/>
       <c r="B574" s="24"/>
     </row>
-    <row r="575" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="24"/>
       <c r="B575" s="24"/>
     </row>
-    <row r="576" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="24"/>
       <c r="B576" s="24"/>
     </row>
-    <row r="577" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="24"/>
       <c r="B577" s="24"/>
     </row>
-    <row r="578" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="24"/>
       <c r="B578" s="24"/>
     </row>
-    <row r="579" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="24"/>
       <c r="B579" s="24"/>
     </row>
-    <row r="580" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="24"/>
       <c r="B580" s="24"/>
     </row>
-    <row r="581" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="24"/>
       <c r="B581" s="24"/>
     </row>
-    <row r="582" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="24"/>
       <c r="B582" s="24"/>
     </row>
-    <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="24"/>
       <c r="B583" s="24"/>
     </row>
-    <row r="584" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="24"/>
       <c r="B584" s="24"/>
     </row>
-    <row r="585" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="24"/>
       <c r="B585" s="24"/>
     </row>
-    <row r="586" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="24"/>
       <c r="B586" s="24"/>
     </row>
-    <row r="587" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="24"/>
       <c r="B587" s="24"/>
     </row>
-    <row r="588" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="24"/>
       <c r="B588" s="24"/>
     </row>
-    <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="24"/>
       <c r="B589" s="24"/>
     </row>
-    <row r="590" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="24"/>
       <c r="B590" s="24"/>
     </row>
-    <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="24"/>
       <c r="B591" s="24"/>
     </row>
-    <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="24"/>
       <c r="B592" s="24"/>
     </row>
-    <row r="593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="24"/>
       <c r="B593" s="24"/>
     </row>
-    <row r="594" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="24"/>
       <c r="B594" s="24"/>
     </row>
-    <row r="595" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="24"/>
       <c r="B595" s="24"/>
     </row>
-    <row r="596" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="24"/>
       <c r="B596" s="24"/>
     </row>
-    <row r="597" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="24"/>
       <c r="B597" s="24"/>
     </row>
-    <row r="598" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="24"/>
       <c r="B598" s="24"/>
     </row>
-    <row r="599" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="24"/>
       <c r="B599" s="24"/>
     </row>
-    <row r="600" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="24"/>
       <c r="B600" s="24"/>
     </row>
-    <row r="601" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="24"/>
       <c r="B601" s="24"/>
     </row>
-    <row r="602" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="24"/>
       <c r="B602" s="24"/>
     </row>
-    <row r="603" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="24"/>
       <c r="B603" s="24"/>
     </row>
-    <row r="604" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="24"/>
       <c r="B604" s="24"/>
     </row>
-    <row r="605" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="24"/>
       <c r="B605" s="24"/>
     </row>
-    <row r="606" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="24"/>
       <c r="B606" s="24"/>
     </row>
-    <row r="607" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="24"/>
       <c r="B607" s="24"/>
     </row>
-    <row r="608" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="24"/>
       <c r="B608" s="24"/>
     </row>
-    <row r="609" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="24"/>
       <c r="B609" s="24"/>
     </row>
-    <row r="610" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="24"/>
       <c r="B610" s="24"/>
     </row>
-    <row r="611" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="24"/>
       <c r="B611" s="24"/>
     </row>
-    <row r="612" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="24"/>
       <c r="B612" s="24"/>
     </row>
-    <row r="613" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="24"/>
       <c r="B613" s="24"/>
     </row>
-    <row r="614" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="24"/>
       <c r="B614" s="24"/>
     </row>
-    <row r="615" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="24"/>
       <c r="B615" s="24"/>
     </row>
-    <row r="616" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="24"/>
       <c r="B616" s="24"/>
     </row>
-    <row r="617" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="24"/>
       <c r="B617" s="24"/>
     </row>
-    <row r="618" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="24"/>
       <c r="B618" s="24"/>
     </row>
-    <row r="619" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="24"/>
       <c r="B619" s="24"/>
     </row>
-    <row r="620" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="24"/>
       <c r="B620" s="24"/>
     </row>
-    <row r="621" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="24"/>
       <c r="B621" s="24"/>
     </row>
-    <row r="622" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="24"/>
       <c r="B622" s="24"/>
     </row>
-    <row r="623" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="24"/>
       <c r="B623" s="24"/>
     </row>
-    <row r="624" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="24"/>
       <c r="B624" s="24"/>
     </row>
-    <row r="625" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="24"/>
       <c r="B625" s="24"/>
     </row>
-    <row r="626" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="24"/>
       <c r="B626" s="24"/>
     </row>
-    <row r="627" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="24"/>
       <c r="B627" s="24"/>
     </row>
-    <row r="628" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="24"/>
       <c r="B628" s="24"/>
     </row>
-    <row r="629" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="24"/>
       <c r="B629" s="24"/>
     </row>
-    <row r="630" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="24"/>
       <c r="B630" s="24"/>
     </row>
-    <row r="631" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="24"/>
       <c r="B631" s="24"/>
     </row>
-    <row r="632" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="24"/>
       <c r="B632" s="24"/>
     </row>
-    <row r="633" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="24"/>
       <c r="B633" s="24"/>
     </row>
-    <row r="634" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="24"/>
       <c r="B634" s="24"/>
     </row>
-    <row r="635" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="24"/>
       <c r="B635" s="24"/>
     </row>
-    <row r="636" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="24"/>
       <c r="B636" s="24"/>
     </row>
-    <row r="637" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="24"/>
       <c r="B637" s="24"/>
     </row>
-    <row r="638" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="24"/>
       <c r="B638" s="24"/>
     </row>
-    <row r="639" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="24"/>
       <c r="B639" s="24"/>
     </row>
-    <row r="640" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="24"/>
       <c r="B640" s="24"/>
     </row>
-    <row r="641" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="24"/>
       <c r="B641" s="24"/>
     </row>
-    <row r="642" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="24"/>
       <c r="B642" s="24"/>
     </row>
-    <row r="643" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="24"/>
       <c r="B643" s="24"/>
     </row>
-    <row r="644" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="24"/>
       <c r="B644" s="24"/>
     </row>
-    <row r="645" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="24"/>
       <c r="B645" s="24"/>
     </row>
-    <row r="646" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="24"/>
       <c r="B646" s="24"/>
     </row>
-    <row r="647" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="24"/>
       <c r="B647" s="24"/>
     </row>
-    <row r="648" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="24"/>
       <c r="B648" s="24"/>
     </row>
-    <row r="649" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="24"/>
       <c r="B649" s="24"/>
     </row>
-    <row r="650" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="24"/>
       <c r="B650" s="24"/>
     </row>
-    <row r="651" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="24"/>
       <c r="B651" s="24"/>
     </row>
-    <row r="652" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="24"/>
       <c r="B652" s="24"/>
     </row>
-    <row r="653" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="24"/>
       <c r="B653" s="24"/>
     </row>
-    <row r="654" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="24"/>
       <c r="B654" s="24"/>
     </row>
-    <row r="655" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="24"/>
       <c r="B655" s="24"/>
     </row>
-    <row r="656" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="24"/>
       <c r="B656" s="24"/>
     </row>
-    <row r="657" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="24"/>
       <c r="B657" s="24"/>
     </row>
-    <row r="658" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="24"/>
       <c r="B658" s="24"/>
     </row>
-    <row r="659" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="24"/>
       <c r="B659" s="24"/>
     </row>
-    <row r="660" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="24"/>
       <c r="B660" s="24"/>
     </row>
-    <row r="661" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="24"/>
       <c r="B661" s="24"/>
     </row>
-    <row r="662" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="24"/>
       <c r="B662" s="24"/>
     </row>
-    <row r="663" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="24"/>
       <c r="B663" s="24"/>
     </row>
-    <row r="664" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="24"/>
       <c r="B664" s="24"/>
     </row>
-    <row r="665" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="24"/>
       <c r="B665" s="24"/>
     </row>
-    <row r="666" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="24"/>
       <c r="B666" s="24"/>
     </row>
-    <row r="667" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="24"/>
       <c r="B667" s="24"/>
     </row>
-    <row r="668" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="24"/>
       <c r="B668" s="24"/>
     </row>
-    <row r="669" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="24"/>
       <c r="B669" s="24"/>
     </row>
-    <row r="670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="24"/>
       <c r="B670" s="24"/>
     </row>
-    <row r="671" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="24"/>
       <c r="B671" s="24"/>
     </row>
-    <row r="672" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="24"/>
       <c r="B672" s="24"/>
     </row>
-    <row r="673" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="24"/>
       <c r="B673" s="24"/>
     </row>
-    <row r="674" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="24"/>
       <c r="B674" s="24"/>
     </row>
-    <row r="675" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="24"/>
       <c r="B675" s="24"/>
     </row>
-    <row r="676" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="24"/>
       <c r="B676" s="24"/>
     </row>
-    <row r="677" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="24"/>
       <c r="B677" s="24"/>
     </row>
-    <row r="678" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="24"/>
       <c r="B678" s="24"/>
     </row>
-    <row r="679" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="24"/>
       <c r="B679" s="24"/>
     </row>
-    <row r="680" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="24"/>
       <c r="B680" s="24"/>
     </row>
-    <row r="681" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="24"/>
       <c r="B681" s="24"/>
     </row>
-    <row r="682" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="24"/>
       <c r="B682" s="24"/>
     </row>
-    <row r="683" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="24"/>
       <c r="B683" s="24"/>
     </row>
-    <row r="684" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="24"/>
       <c r="B684" s="24"/>
     </row>
-    <row r="685" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="24"/>
       <c r="B685" s="24"/>
     </row>
-    <row r="686" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="24"/>
       <c r="B686" s="24"/>
     </row>
-    <row r="687" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="24"/>
       <c r="B687" s="24"/>
     </row>
-    <row r="688" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="24"/>
       <c r="B688" s="24"/>
     </row>
-    <row r="689" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="24"/>
       <c r="B689" s="24"/>
     </row>
-    <row r="690" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="24"/>
       <c r="B690" s="24"/>
     </row>
-    <row r="691" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="24"/>
       <c r="B691" s="24"/>
     </row>
-    <row r="692" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="24"/>
       <c r="B692" s="24"/>
     </row>
-    <row r="693" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="24"/>
       <c r="B693" s="24"/>
     </row>
-    <row r="694" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="24"/>
       <c r="B694" s="24"/>
     </row>
-    <row r="695" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="24"/>
       <c r="B695" s="24"/>
     </row>
-    <row r="696" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="24"/>
       <c r="B696" s="24"/>
     </row>
-    <row r="697" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="24"/>
       <c r="B697" s="24"/>
     </row>
-    <row r="698" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="24"/>
       <c r="B698" s="24"/>
     </row>
-    <row r="699" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="24"/>
       <c r="B699" s="24"/>
     </row>
-    <row r="700" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="24"/>
       <c r="B700" s="24"/>
     </row>
-    <row r="701" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="24"/>
       <c r="B701" s="24"/>
     </row>
-    <row r="702" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="24"/>
       <c r="B702" s="24"/>
     </row>
-    <row r="703" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="24"/>
       <c r="B703" s="24"/>
     </row>
-    <row r="704" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="24"/>
       <c r="B704" s="24"/>
     </row>
-    <row r="705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="24"/>
       <c r="B705" s="24"/>
     </row>
-    <row r="706" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="24"/>
       <c r="B706" s="24"/>
     </row>
-    <row r="707" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="24"/>
       <c r="B707" s="24"/>
     </row>
-    <row r="708" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="24"/>
       <c r="B708" s="24"/>
     </row>
-    <row r="709" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="24"/>
       <c r="B709" s="24"/>
     </row>
-    <row r="710" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="24"/>
       <c r="B710" s="24"/>
     </row>
-    <row r="711" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="24"/>
       <c r="B711" s="24"/>
     </row>
-    <row r="712" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="24"/>
       <c r="B712" s="24"/>
     </row>
-    <row r="713" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="24"/>
       <c r="B713" s="24"/>
     </row>
-    <row r="714" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="24"/>
       <c r="B714" s="24"/>
     </row>
-    <row r="715" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="24"/>
       <c r="B715" s="24"/>
     </row>
-    <row r="716" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="24"/>
       <c r="B716" s="24"/>
     </row>
-    <row r="717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="24"/>
       <c r="B717" s="24"/>
     </row>
-    <row r="718" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="24"/>
       <c r="B718" s="24"/>
     </row>
-    <row r="719" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="24"/>
       <c r="B719" s="24"/>
     </row>
-    <row r="720" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="24"/>
       <c r="B720" s="24"/>
     </row>
-    <row r="721" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="24"/>
       <c r="B721" s="24"/>
     </row>
-    <row r="722" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="24"/>
       <c r="B722" s="24"/>
     </row>
-    <row r="723" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="24"/>
       <c r="B723" s="24"/>
     </row>
-    <row r="724" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="24"/>
       <c r="B724" s="24"/>
     </row>
-    <row r="725" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="24"/>
       <c r="B725" s="24"/>
     </row>
-    <row r="726" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="24"/>
       <c r="B726" s="24"/>
     </row>
-    <row r="727" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="24"/>
       <c r="B727" s="24"/>
     </row>
-    <row r="728" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="24"/>
       <c r="B728" s="24"/>
     </row>
-    <row r="729" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="24"/>
       <c r="B729" s="24"/>
     </row>
-    <row r="730" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="24"/>
       <c r="B730" s="24"/>
     </row>
-    <row r="731" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="24"/>
       <c r="B731" s="24"/>
     </row>
-    <row r="732" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="24"/>
       <c r="B732" s="24"/>
     </row>
-    <row r="733" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="24"/>
       <c r="B733" s="24"/>
     </row>
-    <row r="734" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="24"/>
       <c r="B734" s="24"/>
     </row>
-    <row r="735" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="24"/>
       <c r="B735" s="24"/>
     </row>
-    <row r="736" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="24"/>
       <c r="B736" s="24"/>
     </row>
-    <row r="737" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="24"/>
       <c r="B737" s="24"/>
     </row>
-    <row r="738" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="24"/>
       <c r="B738" s="24"/>
     </row>
-    <row r="739" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="24"/>
       <c r="B739" s="24"/>
     </row>
-    <row r="740" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="24"/>
       <c r="B740" s="24"/>
     </row>
-    <row r="741" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="24"/>
       <c r="B741" s="24"/>
     </row>
-    <row r="742" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="24"/>
       <c r="B742" s="24"/>
     </row>
-    <row r="743" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="24"/>
       <c r="B743" s="24"/>
     </row>
-    <row r="744" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="24"/>
       <c r="B744" s="24"/>
     </row>
-    <row r="745" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="24"/>
       <c r="B745" s="24"/>
     </row>
-    <row r="746" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="24"/>
       <c r="B746" s="24"/>
     </row>
-    <row r="747" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="24"/>
       <c r="B747" s="24"/>
     </row>
-    <row r="748" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="24"/>
       <c r="B748" s="24"/>
     </row>
-    <row r="749" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="24"/>
       <c r="B749" s="24"/>
     </row>
-    <row r="750" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="24"/>
       <c r="B750" s="24"/>
     </row>
-    <row r="751" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="24"/>
       <c r="B751" s="24"/>
     </row>
-    <row r="752" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="24"/>
       <c r="B752" s="24"/>
     </row>
-    <row r="753" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="24"/>
       <c r="B753" s="24"/>
     </row>
-    <row r="754" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="24"/>
       <c r="B754" s="24"/>
     </row>
-    <row r="755" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="24"/>
       <c r="B755" s="24"/>
     </row>
-    <row r="756" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="24"/>
       <c r="B756" s="24"/>
     </row>
-    <row r="757" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="24"/>
       <c r="B757" s="24"/>
     </row>
-    <row r="758" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="24"/>
       <c r="B758" s="24"/>
     </row>
-    <row r="759" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="24"/>
       <c r="B759" s="24"/>
     </row>
-    <row r="760" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="24"/>
       <c r="B760" s="24"/>
     </row>
-    <row r="761" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="24"/>
       <c r="B761" s="24"/>
     </row>
-    <row r="762" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="24"/>
       <c r="B762" s="24"/>
     </row>
-    <row r="763" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="24"/>
       <c r="B763" s="24"/>
     </row>
-    <row r="764" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="24"/>
       <c r="B764" s="24"/>
     </row>
-    <row r="765" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="24"/>
       <c r="B765" s="24"/>
     </row>
-    <row r="766" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="24"/>
       <c r="B766" s="24"/>
     </row>
-    <row r="767" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="24"/>
       <c r="B767" s="24"/>
     </row>
-    <row r="768" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="24"/>
       <c r="B768" s="24"/>
     </row>
-    <row r="769" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="24"/>
       <c r="B769" s="24"/>
     </row>
-    <row r="770" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="24"/>
       <c r="B770" s="24"/>
     </row>
-    <row r="771" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="24"/>
       <c r="B771" s="24"/>
     </row>
-    <row r="772" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="24"/>
       <c r="B772" s="24"/>
     </row>
-    <row r="773" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="24"/>
       <c r="B773" s="24"/>
     </row>
-    <row r="774" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="24"/>
       <c r="B774" s="24"/>
     </row>
-    <row r="775" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="24"/>
       <c r="B775" s="24"/>
     </row>
-    <row r="776" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="24"/>
       <c r="B776" s="24"/>
     </row>
-    <row r="777" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="24"/>
       <c r="B777" s="24"/>
     </row>
-    <row r="778" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="24"/>
       <c r="B778" s="24"/>
     </row>
-    <row r="779" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="24"/>
       <c r="B779" s="24"/>
     </row>
-    <row r="780" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="24"/>
       <c r="B780" s="24"/>
     </row>
-    <row r="781" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="24"/>
       <c r="B781" s="24"/>
     </row>
-    <row r="782" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="24"/>
       <c r="B782" s="24"/>
     </row>
-    <row r="783" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="24"/>
       <c r="B783" s="24"/>
     </row>
-    <row r="784" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="24"/>
       <c r="B784" s="24"/>
     </row>
-    <row r="785" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="24"/>
       <c r="B785" s="24"/>
     </row>
-    <row r="786" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="24"/>
       <c r="B786" s="24"/>
     </row>
-    <row r="787" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="24"/>
       <c r="B787" s="24"/>
     </row>
-    <row r="788" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="24"/>
       <c r="B788" s="24"/>
     </row>
-    <row r="789" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="24"/>
       <c r="B789" s="24"/>
     </row>
-    <row r="790" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="24"/>
       <c r="B790" s="24"/>
     </row>
-    <row r="791" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="24"/>
       <c r="B791" s="24"/>
     </row>
-    <row r="792" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="24"/>
       <c r="B792" s="24"/>
     </row>
-    <row r="793" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="24"/>
       <c r="B793" s="24"/>
     </row>
-    <row r="794" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="24"/>
       <c r="B794" s="24"/>
     </row>
-    <row r="795" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="24"/>
       <c r="B795" s="24"/>
     </row>
-    <row r="796" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="24"/>
       <c r="B796" s="24"/>
     </row>
-    <row r="797" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="24"/>
       <c r="B797" s="24"/>
     </row>
-    <row r="798" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="24"/>
       <c r="B798" s="24"/>
     </row>
-    <row r="799" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="24"/>
       <c r="B799" s="24"/>
     </row>
-    <row r="800" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="24"/>
       <c r="B800" s="24"/>
     </row>
-    <row r="801" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="24"/>
       <c r="B801" s="24"/>
     </row>
-    <row r="802" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="24"/>
       <c r="B802" s="24"/>
     </row>
-    <row r="803" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="24"/>
       <c r="B803" s="24"/>
     </row>
-    <row r="804" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="24"/>
       <c r="B804" s="24"/>
     </row>
-    <row r="805" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="24"/>
       <c r="B805" s="24"/>
     </row>
-    <row r="806" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="24"/>
       <c r="B806" s="24"/>
     </row>
-    <row r="807" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="24"/>
       <c r="B807" s="24"/>
     </row>
-    <row r="808" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="24"/>
       <c r="B808" s="24"/>
     </row>
-    <row r="809" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="24"/>
       <c r="B809" s="24"/>
     </row>
-    <row r="810" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="24"/>
       <c r="B810" s="24"/>
     </row>
-    <row r="811" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="24"/>
       <c r="B811" s="24"/>
     </row>
-    <row r="812" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="24"/>
       <c r="B812" s="24"/>
     </row>
-    <row r="813" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="24"/>
       <c r="B813" s="24"/>
     </row>
-    <row r="814" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="24"/>
       <c r="B814" s="24"/>
     </row>
-    <row r="815" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="24"/>
       <c r="B815" s="24"/>
     </row>
-    <row r="816" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="24"/>
       <c r="B816" s="24"/>
     </row>
-    <row r="817" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="24"/>
       <c r="B817" s="24"/>
     </row>
-    <row r="818" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" s="24"/>
       <c r="B818" s="24"/>
     </row>
-    <row r="819" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="24"/>
       <c r="B819" s="24"/>
     </row>
-    <row r="820" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="24"/>
       <c r="B820" s="24"/>
     </row>
-    <row r="821" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="24"/>
       <c r="B821" s="24"/>
     </row>
-    <row r="822" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" s="24"/>
       <c r="B822" s="24"/>
     </row>
-    <row r="823" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" s="24"/>
       <c r="B823" s="24"/>
     </row>
-    <row r="824" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" s="24"/>
       <c r="B824" s="24"/>
     </row>
-    <row r="825" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" s="24"/>
       <c r="B825" s="24"/>
     </row>
-    <row r="826" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" s="24"/>
       <c r="B826" s="24"/>
     </row>
-    <row r="827" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" s="24"/>
       <c r="B827" s="24"/>
     </row>
-    <row r="828" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" s="24"/>
       <c r="B828" s="24"/>
     </row>
-    <row r="829" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" s="24"/>
       <c r="B829" s="24"/>
     </row>
-    <row r="830" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" s="24"/>
       <c r="B830" s="24"/>
     </row>
-    <row r="831" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" s="24"/>
       <c r="B831" s="24"/>
     </row>
-    <row r="832" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" s="24"/>
       <c r="B832" s="24"/>
     </row>
-    <row r="833" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" s="24"/>
       <c r="B833" s="24"/>
     </row>
-    <row r="834" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" s="24"/>
       <c r="B834" s="24"/>
     </row>
-    <row r="835" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" s="24"/>
       <c r="B835" s="24"/>
     </row>
-    <row r="836" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" s="24"/>
       <c r="B836" s="24"/>
     </row>
-    <row r="837" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" s="24"/>
       <c r="B837" s="24"/>
     </row>
-    <row r="838" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="24"/>
       <c r="B838" s="24"/>
     </row>
-    <row r="839" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" s="24"/>
       <c r="B839" s="24"/>
     </row>
-    <row r="840" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" s="24"/>
       <c r="B840" s="24"/>
     </row>
-    <row r="841" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" s="24"/>
       <c r="B841" s="24"/>
     </row>
-    <row r="842" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="24"/>
       <c r="B842" s="24"/>
     </row>
-    <row r="843" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="24"/>
       <c r="B843" s="24"/>
     </row>
-    <row r="844" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" s="24"/>
       <c r="B844" s="24"/>
     </row>
-    <row r="845" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" s="24"/>
       <c r="B845" s="24"/>
     </row>
-    <row r="846" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" s="24"/>
       <c r="B846" s="24"/>
     </row>
-    <row r="847" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" s="24"/>
       <c r="B847" s="24"/>
     </row>
-    <row r="848" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" s="24"/>
       <c r="B848" s="24"/>
     </row>
-    <row r="849" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" s="24"/>
       <c r="B849" s="24"/>
     </row>
-    <row r="850" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" s="24"/>
       <c r="B850" s="24"/>
     </row>
-    <row r="851" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" s="24"/>
       <c r="B851" s="24"/>
     </row>
-    <row r="852" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="24"/>
       <c r="B852" s="24"/>
     </row>
-    <row r="853" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="24"/>
       <c r="B853" s="24"/>
     </row>
-    <row r="854" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" s="24"/>
       <c r="B854" s="24"/>
     </row>
-    <row r="855" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" s="24"/>
       <c r="B855" s="24"/>
     </row>
-    <row r="856" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" s="24"/>
       <c r="B856" s="24"/>
     </row>
-    <row r="857" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" s="24"/>
       <c r="B857" s="24"/>
     </row>
-    <row r="858" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" s="24"/>
       <c r="B858" s="24"/>
     </row>
-    <row r="859" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" s="24"/>
       <c r="B859" s="24"/>
     </row>
-    <row r="860" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" s="24"/>
       <c r="B860" s="24"/>
     </row>
-    <row r="861" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" s="24"/>
       <c r="B861" s="24"/>
     </row>
-    <row r="862" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" s="24"/>
       <c r="B862" s="24"/>
     </row>
-    <row r="863" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" s="24"/>
       <c r="B863" s="24"/>
     </row>
-    <row r="864" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" s="24"/>
       <c r="B864" s="24"/>
     </row>
-    <row r="865" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" s="24"/>
       <c r="B865" s="24"/>
     </row>
-    <row r="866" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" s="24"/>
       <c r="B866" s="24"/>
     </row>
-    <row r="867" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" s="24"/>
       <c r="B867" s="24"/>
     </row>
-    <row r="868" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" s="24"/>
       <c r="B868" s="24"/>
     </row>
-    <row r="869" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" s="24"/>
       <c r="B869" s="24"/>
     </row>
-    <row r="870" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" s="24"/>
       <c r="B870" s="24"/>
     </row>
-    <row r="871" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" s="24"/>
       <c r="B871" s="24"/>
     </row>
-    <row r="872" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" s="24"/>
       <c r="B872" s="24"/>
     </row>
-    <row r="873" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" s="24"/>
       <c r="B873" s="24"/>
     </row>
-    <row r="874" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" s="24"/>
       <c r="B874" s="24"/>
     </row>
-    <row r="875" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" s="24"/>
       <c r="B875" s="24"/>
     </row>
-    <row r="876" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" s="24"/>
       <c r="B876" s="24"/>
     </row>
-    <row r="877" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" s="24"/>
       <c r="B877" s="24"/>
     </row>
-    <row r="878" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" s="24"/>
       <c r="B878" s="24"/>
     </row>
-    <row r="879" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" s="24"/>
       <c r="B879" s="24"/>
     </row>
-    <row r="880" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" s="24"/>
       <c r="B880" s="24"/>
     </row>
-    <row r="881" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="24"/>
       <c r="B881" s="24"/>
     </row>
-    <row r="882" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="24"/>
       <c r="B882" s="24"/>
     </row>
-    <row r="883" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" s="24"/>
       <c r="B883" s="24"/>
     </row>
-    <row r="884" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="24"/>
       <c r="B884" s="24"/>
     </row>
-    <row r="885" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="24"/>
       <c r="B885" s="24"/>
     </row>
-    <row r="886" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="24"/>
       <c r="B886" s="24"/>
     </row>
-    <row r="887" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="24"/>
       <c r="B887" s="24"/>
     </row>
-    <row r="888" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="24"/>
       <c r="B888" s="24"/>
     </row>
-    <row r="889" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="24"/>
       <c r="B889" s="24"/>
     </row>
-    <row r="890" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="24"/>
       <c r="B890" s="24"/>
     </row>
-    <row r="891" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="24"/>
       <c r="B891" s="24"/>
     </row>
-    <row r="892" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="24"/>
       <c r="B892" s="24"/>
     </row>
-    <row r="893" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="24"/>
       <c r="B893" s="24"/>
     </row>
-    <row r="894" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="24"/>
       <c r="B894" s="24"/>
     </row>
-    <row r="895" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="24"/>
       <c r="B895" s="24"/>
     </row>
-    <row r="896" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="24"/>
       <c r="B896" s="24"/>
     </row>
-    <row r="897" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="24"/>
       <c r="B897" s="24"/>
     </row>
-    <row r="898" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" s="24"/>
       <c r="B898" s="24"/>
     </row>
-    <row r="899" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" s="24"/>
       <c r="B899" s="24"/>
     </row>
-    <row r="900" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" s="24"/>
       <c r="B900" s="24"/>
     </row>
-    <row r="901" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" s="24"/>
       <c r="B901" s="24"/>
     </row>
-    <row r="902" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" s="24"/>
       <c r="B902" s="24"/>
     </row>
-    <row r="903" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" s="24"/>
       <c r="B903" s="24"/>
     </row>
-    <row r="904" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" s="24"/>
       <c r="B904" s="24"/>
     </row>
-    <row r="905" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" s="24"/>
       <c r="B905" s="24"/>
     </row>
-    <row r="906" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" s="24"/>
       <c r="B906" s="24"/>
     </row>
-    <row r="907" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" s="24"/>
       <c r="B907" s="24"/>
     </row>
-    <row r="908" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" s="24"/>
       <c r="B908" s="24"/>
     </row>
-    <row r="909" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" s="24"/>
       <c r="B909" s="24"/>
     </row>
-    <row r="910" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" s="24"/>
       <c r="B910" s="24"/>
     </row>
-    <row r="911" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" s="24"/>
       <c r="B911" s="24"/>
     </row>
-    <row r="912" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" s="24"/>
       <c r="B912" s="24"/>
     </row>
-    <row r="913" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" s="24"/>
       <c r="B913" s="24"/>
     </row>
-    <row r="914" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" s="24"/>
       <c r="B914" s="24"/>
     </row>
-    <row r="915" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" s="24"/>
       <c r="B915" s="24"/>
     </row>
-    <row r="916" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" s="24"/>
       <c r="B916" s="24"/>
     </row>
-    <row r="917" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" s="24"/>
       <c r="B917" s="24"/>
     </row>
-    <row r="918" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" s="24"/>
       <c r="B918" s="24"/>
     </row>
-    <row r="919" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" s="24"/>
       <c r="B919" s="24"/>
     </row>
-    <row r="920" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" s="24"/>
       <c r="B920" s="24"/>
     </row>
-    <row r="921" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" s="24"/>
       <c r="B921" s="24"/>
     </row>
-    <row r="922" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" s="24"/>
       <c r="B922" s="24"/>
     </row>
-    <row r="923" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" s="24"/>
       <c r="B923" s="24"/>
     </row>
-    <row r="924" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" s="24"/>
       <c r="B924" s="24"/>
     </row>
-    <row r="925" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" s="24"/>
       <c r="B925" s="24"/>
     </row>
-    <row r="926" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" s="24"/>
       <c r="B926" s="24"/>
     </row>
-    <row r="927" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" s="24"/>
       <c r="B927" s="24"/>
     </row>
-    <row r="928" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" s="24"/>
       <c r="B928" s="24"/>
     </row>
-    <row r="929" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" s="24"/>
       <c r="B929" s="24"/>
     </row>
-    <row r="930" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" s="24"/>
       <c r="B930" s="24"/>
     </row>
-    <row r="931" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" s="24"/>
       <c r="B931" s="24"/>
     </row>
-    <row r="932" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" s="24"/>
       <c r="B932" s="24"/>
     </row>
-    <row r="933" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" s="24"/>
       <c r="B933" s="24"/>
     </row>
-    <row r="934" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" s="24"/>
       <c r="B934" s="24"/>
     </row>
-    <row r="935" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" s="24"/>
       <c r="B935" s="24"/>
     </row>
-    <row r="936" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" s="24"/>
       <c r="B936" s="24"/>
     </row>
-    <row r="937" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" s="24"/>
       <c r="B937" s="24"/>
     </row>
-    <row r="938" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" s="24"/>
       <c r="B938" s="24"/>
     </row>
-    <row r="939" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" s="24"/>
       <c r="B939" s="24"/>
     </row>
-    <row r="940" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" s="24"/>
       <c r="B940" s="24"/>
     </row>
-    <row r="941" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" s="24"/>
       <c r="B941" s="24"/>
     </row>
-    <row r="942" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" s="24"/>
       <c r="B942" s="24"/>
     </row>
-    <row r="943" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" s="24"/>
       <c r="B943" s="24"/>
     </row>
-    <row r="944" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" s="24"/>
       <c r="B944" s="24"/>
     </row>
-    <row r="945" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" s="24"/>
       <c r="B945" s="24"/>
     </row>
-    <row r="946" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" s="24"/>
       <c r="B946" s="24"/>
     </row>
-    <row r="947" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" s="24"/>
       <c r="B947" s="24"/>
     </row>
-    <row r="948" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" s="24"/>
       <c r="B948" s="24"/>
     </row>
-    <row r="949" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" s="24"/>
       <c r="B949" s="24"/>
     </row>
-    <row r="950" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" s="24"/>
       <c r="B950" s="24"/>
     </row>
-    <row r="951" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" s="24"/>
       <c r="B951" s="24"/>
     </row>
-    <row r="952" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" s="24"/>
       <c r="B952" s="24"/>
     </row>
-    <row r="953" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" s="24"/>
       <c r="B953" s="24"/>
     </row>
-    <row r="954" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" s="24"/>
       <c r="B954" s="24"/>
     </row>
-    <row r="955" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" s="24"/>
       <c r="B955" s="24"/>
     </row>
-    <row r="956" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" s="24"/>
       <c r="B956" s="24"/>
     </row>
-    <row r="957" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" s="24"/>
       <c r="B957" s="24"/>
     </row>
-    <row r="958" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" s="24"/>
       <c r="B958" s="24"/>
     </row>
-    <row r="959" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" s="24"/>
       <c r="B959" s="24"/>
     </row>
-    <row r="960" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" s="24"/>
       <c r="B960" s="24"/>
     </row>
-    <row r="961" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" s="24"/>
       <c r="B961" s="24"/>
     </row>
-    <row r="962" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" s="24"/>
       <c r="B962" s="24"/>
     </row>
-    <row r="963" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" s="24"/>
       <c r="B963" s="24"/>
     </row>
-    <row r="964" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" s="24"/>
       <c r="B964" s="24"/>
     </row>
-    <row r="965" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" s="24"/>
       <c r="B965" s="24"/>
     </row>
-    <row r="966" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" s="24"/>
       <c r="B966" s="24"/>
     </row>
-    <row r="967" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" s="24"/>
       <c r="B967" s="24"/>
     </row>
-    <row r="968" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A968" s="24"/>
       <c r="B968" s="24"/>
     </row>
-    <row r="969" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A969" s="24"/>
       <c r="B969" s="24"/>
     </row>
-    <row r="970" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" s="24"/>
       <c r="B970" s="24"/>
     </row>
-    <row r="971" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" s="24"/>
       <c r="B971" s="24"/>
     </row>
-    <row r="972" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" s="24"/>
       <c r="B972" s="24"/>
     </row>
-    <row r="973" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" s="24"/>
       <c r="B973" s="24"/>
     </row>
-    <row r="974" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" s="24"/>
       <c r="B974" s="24"/>
     </row>
-    <row r="975" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" s="24"/>
       <c r="B975" s="24"/>
     </row>
-    <row r="976" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" s="24"/>
       <c r="B976" s="24"/>
     </row>
-    <row r="977" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A977" s="24"/>
       <c r="B977" s="24"/>
     </row>
-    <row r="978" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" s="24"/>
       <c r="B978" s="24"/>
     </row>
-    <row r="979" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A979" s="24"/>
       <c r="B979" s="24"/>
     </row>
-    <row r="980" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" s="24"/>
       <c r="B980" s="24"/>
     </row>
-    <row r="981" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A981" s="24"/>
       <c r="B981" s="24"/>
     </row>
-    <row r="982" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A982" s="24"/>
     </row>
-    <row r="983" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A983" s="24"/>
     </row>
-    <row r="984" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A984" s="24"/>
     </row>
-    <row r="985" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A985" s="24"/>
     </row>
-    <row r="986" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A986" s="24"/>
     </row>
-    <row r="987" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A987" s="24"/>
     </row>
-    <row r="988" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A988" s="24"/>
     </row>
-    <row r="989" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A989" s="24"/>
     </row>
-    <row r="990" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A990" s="24"/>
     </row>
-    <row r="991" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A991" s="24"/>
     </row>
-    <row r="992" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A992" s="24"/>
     </row>
-    <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="24"/>
     </row>
-    <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="24"/>
     </row>
-    <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="24"/>
     </row>
-    <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="24"/>
     </row>
-    <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="24"/>
     </row>
-    <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="24"/>
     </row>
-    <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="24"/>
     </row>
-    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="H28:H32"/>
@@ -7058,7 +7110,7 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G32"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H28 H33 H35:H1048576">
+  <conditionalFormatting sqref="H1:H2 H28 H33 H35:H36 H38:H1048576">
     <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
@@ -7077,8 +7129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -7095,16 +7147,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -8091,67 +8143,152 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="9">
+        <f>'Bug Metrics'!$A35</f>
+        <v>33</v>
+      </c>
+      <c r="B35" s="9">
+        <f>'Bug Metrics'!$B35</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="str">
+        <f>'Bug Metrics'!$C35</f>
+        <v>JSON Start</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f>'Bug Metrics'!$D35</f>
+        <v>Redirected to login.php</v>
+      </c>
       <c r="E35" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="F35" s="18">
+        <v>43767</v>
+      </c>
+      <c r="G35" s="14">
+        <v>43767</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="9">
+        <f>'Bug Metrics'!$A36</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="9">
+        <f>'Bug Metrics'!$B36</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f>'Bug Metrics'!$C36</f>
+        <v>JSON Start</v>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f>'Bug Metrics'!$D36</f>
+        <v>Round 2 was started when round 1 was already started</v>
+      </c>
       <c r="E36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="F36" s="18">
+        <v>43767</v>
+      </c>
+      <c r="G36" s="14">
+        <v>43767</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="9">
+        <f>'Bug Metrics'!$A37</f>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9">
+        <f>'Bug Metrics'!$B37</f>
+        <v>3</v>
+      </c>
+      <c r="C37" s="9" t="str">
+        <f>'Bug Metrics'!$C37</f>
+        <v>JSON Stop</v>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f>'Bug Metrics'!$D37</f>
+        <v>Invalid offset in processBids() function</v>
+      </c>
       <c r="E37" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="F37" s="18">
+        <v>43767</v>
+      </c>
+      <c r="G37" s="14">
+        <v>43767</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="9">
+        <f>'Bug Metrics'!$A38</f>
+        <v>36</v>
+      </c>
+      <c r="B38" s="9">
+        <f>'Bug Metrics'!$B38</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="9" t="str">
+        <f>'Bug Metrics'!$C38</f>
+        <v>JSON Stop</v>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f>'Bug Metrics'!$D38</f>
+        <v>Undefined variable: UpdateStatusOK</v>
+      </c>
       <c r="E38" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="F38" s="18">
+        <v>43767</v>
+      </c>
+      <c r="G38" s="14">
+        <v>43767</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="14"/>
+      <c r="A39" s="9">
+        <f>'Bug Metrics'!$A39</f>
+        <v>37</v>
+      </c>
+      <c r="B39" s="9">
+        <f>'Bug Metrics'!$B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="9">
+        <f>'Bug Metrics'!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <f>'Bug Metrics'!$D39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
+      <c r="A40" s="9">
+        <f>'Bug Metrics'!$A40</f>
+        <v>38</v>
+      </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -17824,17 +17961,17 @@
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E39 E23:E32">
+  <conditionalFormatting sqref="E23:E32 E34:E39">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E39 E23:E32">
+  <conditionalFormatting sqref="E23:E32 E34:E39">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E39 E23:E32">
+  <conditionalFormatting sqref="E23:E32 E34:E39">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB8BEF-4B51-4D9C-80D5-B86DE32F816B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1807CD6B-29A7-4D47-B4BA-171CE02A5378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="177">
   <si>
     <t>Bug Log</t>
   </si>
@@ -1414,10 +1414,10 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="84.36328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,20 +1490,20 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScale="72" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="74.54296875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="34.54296875" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="19"/>
+    <col min="1" max="1" width="10.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="74.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="14.44140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="G4" s="46"/>
       <c r="H4" s="43"/>
     </row>
-    <row r="5" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="G5" s="46"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="G6" s="46"/>
       <c r="H6" s="43"/>
     </row>
-    <row r="7" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
     </row>
-    <row r="10" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
     </row>
-    <row r="11" spans="1:8" ht="44.35" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25">
         <v>9</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25">
         <v>10</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25">
         <v>11</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25">
         <v>12</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="G14" s="46"/>
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25">
         <v>13</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>14</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>15</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="G17" s="46"/>
       <c r="H17" s="43"/>
     </row>
-    <row r="18" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>16</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>17</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="G27" s="48"/>
       <c r="H27" s="43"/>
     </row>
-    <row r="28" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="G29" s="48"/>
       <c r="H29" s="40"/>
     </row>
-    <row r="30" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="G30" s="48"/>
       <c r="H30" s="40"/>
     </row>
-    <row r="31" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="G31" s="48"/>
       <c r="H31" s="40"/>
     </row>
-    <row r="32" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="G32" s="48"/>
       <c r="H32" s="40"/>
     </row>
-    <row r="33" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="40"/>
     </row>
-    <row r="35" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="40"/>
     </row>
-    <row r="39" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
     </row>
-    <row r="40" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="40"/>
     </row>
-    <row r="45" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="40"/>
     </row>
-    <row r="49" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="40"/>
     </row>
-    <row r="50" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="40"/>
     </row>
-    <row r="51" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="40"/>
     </row>
-    <row r="52" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="40"/>
     </row>
-    <row r="53" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="40"/>
     </row>
-    <row r="54" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="40"/>
     </row>
-    <row r="57" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="40"/>
     </row>
-    <row r="58" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="40"/>
     </row>
-    <row r="59" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>57</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="40"/>
     </row>
-    <row r="60" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>58</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="40"/>
     </row>
-    <row r="61" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="40"/>
     </row>
-    <row r="62" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="40"/>
     </row>
-    <row r="63" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="40"/>
     </row>
-    <row r="64" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="G64" s="39"/>
       <c r="H64" s="40"/>
     </row>
-    <row r="65" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>63</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="G66" s="39"/>
       <c r="H66" s="40"/>
     </row>
-    <row r="67" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="G70" s="39"/>
       <c r="H70" s="40"/>
     </row>
-    <row r="71" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="G71" s="39"/>
       <c r="H71" s="40"/>
     </row>
-    <row r="72" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="G72" s="39"/>
       <c r="H72" s="40"/>
     </row>
-    <row r="73" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="G73" s="39"/>
       <c r="H73" s="40"/>
     </row>
-    <row r="74" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="G75" s="39"/>
       <c r="H75" s="40"/>
     </row>
-    <row r="76" spans="1:8" ht="43.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="G78" s="39"/>
       <c r="H78" s="40"/>
     </row>
-    <row r="79" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="G79" s="39"/>
       <c r="H79" s="40"/>
     </row>
-    <row r="80" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="G80" s="39"/>
       <c r="H80" s="40"/>
     </row>
-    <row r="81" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="G85" s="39"/>
       <c r="H85" s="40"/>
     </row>
-    <row r="86" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="G87" s="39"/>
       <c r="H87" s="40"/>
     </row>
-    <row r="88" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="G95" s="39"/>
       <c r="H95" s="40"/>
     </row>
-    <row r="96" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="G96" s="39"/>
       <c r="H96" s="40"/>
     </row>
-    <row r="97" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="G97" s="39"/>
       <c r="H97" s="40"/>
     </row>
-    <row r="98" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="G98" s="39"/>
       <c r="H98" s="40"/>
     </row>
-    <row r="99" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="G99" s="39"/>
       <c r="H99" s="40"/>
     </row>
-    <row r="100" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="G101" s="39"/>
       <c r="H101" s="40"/>
     </row>
-    <row r="102" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="G106" s="39"/>
       <c r="H106" s="40"/>
     </row>
-    <row r="107" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
         <v>105</v>
       </c>
@@ -4009,7 +4009,7 @@
       <c r="G107" s="39"/>
       <c r="H107" s="40"/>
     </row>
-    <row r="108" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A108" s="36">
         <v>106</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="G108" s="39"/>
       <c r="H108" s="40"/>
     </row>
-    <row r="109" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
         <v>107</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="G109" s="39"/>
       <c r="H109" s="40"/>
     </row>
-    <row r="110" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A110" s="36">
         <v>108</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="G112" s="39"/>
       <c r="H112" s="40"/>
     </row>
-    <row r="113" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
         <v>111</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="G113" s="39"/>
       <c r="H113" s="40"/>
     </row>
-    <row r="114" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
         <v>112</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="G115" s="39"/>
       <c r="H115" s="40"/>
     </row>
-    <row r="116" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>114</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="G116" s="39"/>
       <c r="H116" s="40"/>
     </row>
-    <row r="117" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
         <v>115</v>
       </c>
@@ -4239,7 +4239,7 @@
       <c r="G117" s="39"/>
       <c r="H117" s="40"/>
     </row>
-    <row r="118" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
         <v>116</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="G118" s="39"/>
       <c r="H118" s="40"/>
     </row>
-    <row r="119" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A119" s="36">
         <v>117</v>
       </c>
@@ -4285,7 +4285,7 @@
       <c r="G119" s="39"/>
       <c r="H119" s="40"/>
     </row>
-    <row r="120" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A120" s="36">
         <v>118</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="G120" s="39"/>
       <c r="H120" s="40"/>
     </row>
-    <row r="121" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A121" s="36">
         <v>119</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="G121" s="39"/>
       <c r="H121" s="40"/>
     </row>
-    <row r="122" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A122" s="36">
         <v>120</v>
       </c>
@@ -4361,10 +4361,18 @@
       <c r="B123" s="23">
         <v>4</v>
       </c>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18" t="str">
+      <c r="C123" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="18">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -8515,20 +8523,20 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="18" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="5"/>
+    <col min="9" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -8540,7 +8548,7 @@
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -8566,7 +8574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <f>'Bug Metrics'!$A3</f>
         <v>1</v>
@@ -8596,7 +8604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>'Bug Metrics'!$A4</f>
         <v>2</v>
@@ -8626,7 +8634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f>'Bug Metrics'!$A5</f>
         <v>3</v>
@@ -8656,7 +8664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f>'Bug Metrics'!$A6</f>
         <v>4</v>
@@ -8684,7 +8692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>'Bug Metrics'!$A7</f>
         <v>5</v>
@@ -8714,7 +8722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f>'Bug Metrics'!$A8</f>
         <v>6</v>
@@ -8744,7 +8752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f>'Bug Metrics'!$A9</f>
         <v>7</v>
@@ -8774,7 +8782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f>'Bug Metrics'!$A10</f>
         <v>8</v>
@@ -8804,7 +8812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f>'Bug Metrics'!$A11</f>
         <v>9</v>
@@ -8834,7 +8842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f>'Bug Metrics'!$A12</f>
         <v>10</v>
@@ -8864,7 +8872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <f>'Bug Metrics'!$A13</f>
         <v>11</v>
@@ -8894,7 +8902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <f>'Bug Metrics'!$A14</f>
         <v>12</v>
@@ -8924,7 +8932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f>'Bug Metrics'!$A15</f>
         <v>13</v>
@@ -8954,7 +8962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f>'Bug Metrics'!$A16</f>
         <v>14</v>
@@ -8984,7 +8992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f>'Bug Metrics'!$A17</f>
         <v>15</v>
@@ -9014,7 +9022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f>'Bug Metrics'!$A18</f>
         <v>16</v>
@@ -9044,7 +9052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f>'Bug Metrics'!$A19</f>
         <v>17</v>
@@ -9074,7 +9082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f>'Bug Metrics'!$A20</f>
         <v>18</v>
@@ -9104,7 +9112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f>'Bug Metrics'!$A21</f>
         <v>19</v>
@@ -9134,7 +9142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f>'Bug Metrics'!$A22</f>
         <v>20</v>
@@ -9164,7 +9172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f>'Bug Metrics'!$A23</f>
         <v>21</v>
@@ -9194,7 +9202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f>'Bug Metrics'!$A24</f>
         <v>22</v>
@@ -9224,7 +9232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f>'Bug Metrics'!$A25</f>
         <v>23</v>
@@ -9254,7 +9262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <f>'Bug Metrics'!$A26</f>
         <v>24</v>
@@ -9284,7 +9292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f>'Bug Metrics'!$A27</f>
         <v>25</v>
@@ -9314,7 +9322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <f>'Bug Metrics'!$A28</f>
         <v>26</v>
@@ -9344,7 +9352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <f>'Bug Metrics'!$A29</f>
         <v>27</v>
@@ -9374,7 +9382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <f>'Bug Metrics'!$A30</f>
         <v>28</v>
@@ -9404,7 +9412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <f>'Bug Metrics'!$A31</f>
         <v>29</v>
@@ -9434,7 +9442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <f>'Bug Metrics'!$A32</f>
         <v>30</v>
@@ -9464,7 +9472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <f>'Bug Metrics'!$A33</f>
         <v>31</v>
@@ -9494,7 +9502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <f>'Bug Metrics'!$A34</f>
         <v>32</v>
@@ -9524,7 +9532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <f>'Bug Metrics'!$A35</f>
         <v>33</v>
@@ -9554,7 +9562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <f>'Bug Metrics'!$A36</f>
         <v>34</v>
@@ -9584,7 +9592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <f>'Bug Metrics'!$A37</f>
         <v>35</v>
@@ -9614,7 +9622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <f>'Bug Metrics'!$A38</f>
         <v>36</v>
@@ -9644,7 +9652,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <f>'Bug Metrics'!$A39</f>
         <v>37</v>
@@ -9674,7 +9682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <f>'Bug Metrics'!$A40</f>
         <v>38</v>
@@ -9704,7 +9712,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9">
         <f>'Bug Metrics'!$B42</f>
@@ -9731,7 +9739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9">
         <f>'Bug Metrics'!$B43</f>
@@ -9758,7 +9766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9">
         <f>'Bug Metrics'!$B44</f>
@@ -9785,7 +9793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9">
         <f>'Bug Metrics'!$B45</f>
@@ -9812,7 +9820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9">
         <f>'Bug Metrics'!$B46</f>
@@ -9839,7 +9847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9">
         <f>'Bug Metrics'!$B47</f>
@@ -9866,7 +9874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9">
         <f>'Bug Metrics'!$B48</f>
@@ -9893,7 +9901,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9">
         <f>'Bug Metrics'!$B49</f>
@@ -9920,7 +9928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9">
         <f>'Bug Metrics'!$B50</f>
@@ -9947,7 +9955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9">
         <f>'Bug Metrics'!$B51</f>
@@ -9974,7 +9982,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9">
         <f>'Bug Metrics'!$B52</f>
@@ -10001,7 +10009,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9">
         <f>'Bug Metrics'!$B53</f>
@@ -10028,7 +10036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9">
         <v>3</v>
@@ -10054,7 +10062,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9">
         <f>'Bug Metrics'!$B55</f>
@@ -10077,7 +10085,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9">
         <f>'Bug Metrics'!$B56</f>
@@ -10100,7 +10108,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9">
         <f>'Bug Metrics'!$B57</f>
@@ -10123,7 +10131,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9">
         <f>'Bug Metrics'!$B58</f>
@@ -10146,7 +10154,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9">
         <f>'Bug Metrics'!$B59</f>
@@ -10169,7 +10177,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9">
         <f>'Bug Metrics'!$B60</f>
@@ -10192,7 +10200,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="16"/>
     </row>
-    <row r="60" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9">
         <f>'Bug Metrics'!$B61</f>
@@ -10215,7 +10223,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9">
         <f>'Bug Metrics'!$B62</f>
@@ -10238,7 +10246,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="16"/>
     </row>
-    <row r="62" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9">
         <f>'Bug Metrics'!$B63</f>
@@ -10261,7 +10269,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9">
         <f>'Bug Metrics'!$B64</f>
@@ -10284,7 +10292,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="16"/>
     </row>
-    <row r="64" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9">
         <f>'Bug Metrics'!$B65</f>
@@ -10307,7 +10315,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="16"/>
     </row>
-    <row r="65" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9">
         <f>'Bug Metrics'!$B66</f>
@@ -10330,7 +10338,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="16"/>
     </row>
-    <row r="66" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9">
         <f>'Bug Metrics'!$B67</f>
@@ -10353,7 +10361,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="16"/>
     </row>
-    <row r="67" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9">
         <f>'Bug Metrics'!$B68</f>
@@ -10376,7 +10384,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="16"/>
     </row>
-    <row r="68" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9">
         <f>'Bug Metrics'!$B69</f>
@@ -10399,7 +10407,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="16"/>
     </row>
-    <row r="69" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9">
         <f>'Bug Metrics'!$B70</f>
@@ -10422,7 +10430,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="16"/>
     </row>
-    <row r="70" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9">
         <f>'Bug Metrics'!$B71</f>
@@ -10445,7 +10453,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="16"/>
     </row>
-    <row r="71" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9">
         <f>'Bug Metrics'!$B72</f>
@@ -10468,7 +10476,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="16"/>
     </row>
-    <row r="72" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9">
         <f>'Bug Metrics'!$B73</f>
@@ -10491,7 +10499,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9">
         <f>'Bug Metrics'!$B74</f>
@@ -10514,7 +10522,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9">
         <f>'Bug Metrics'!$B75</f>
@@ -10537,7 +10545,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9">
         <f>'Bug Metrics'!$B76</f>
@@ -10560,7 +10568,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="16"/>
     </row>
-    <row r="76" spans="1:8" ht="43.8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9">
         <f>'Bug Metrics'!$B77</f>
@@ -10583,7 +10591,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9">
         <f>'Bug Metrics'!$B78</f>
@@ -10606,7 +10614,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9">
         <f>'Bug Metrics'!$B79</f>
@@ -10629,7 +10637,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="16"/>
     </row>
-    <row r="79" spans="1:8" ht="43.8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9">
         <f>'Bug Metrics'!$B80</f>
@@ -10652,7 +10660,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="16"/>
     </row>
-    <row r="80" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="9">
         <f>'Bug Metrics'!$B81</f>
@@ -10675,7 +10683,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="16"/>
     </row>
-    <row r="81" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="9">
         <f>'Bug Metrics'!$B82</f>
@@ -10698,7 +10706,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="16"/>
     </row>
-    <row r="82" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="9">
         <f>'Bug Metrics'!$B83</f>
@@ -10721,7 +10729,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="16"/>
     </row>
-    <row r="83" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9">
         <f>'Bug Metrics'!$B84</f>
@@ -10744,7 +10752,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="16"/>
     </row>
-    <row r="84" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="9">
         <f>'Bug Metrics'!$B85</f>
@@ -10767,7 +10775,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="9">
         <f>'Bug Metrics'!$B86</f>
@@ -10790,7 +10798,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="9">
         <f>'Bug Metrics'!$B87</f>
@@ -10813,7 +10821,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9">
         <f>'Bug Metrics'!$B88</f>
@@ -10836,7 +10844,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="9">
         <f>'Bug Metrics'!$B89</f>
@@ -10859,7 +10867,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="B89" s="9">
         <f>'Bug Metrics'!$B90</f>
@@ -10882,7 +10890,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9">
         <f>'Bug Metrics'!$B91</f>
@@ -10905,7 +10913,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="16"/>
     </row>
-    <row r="91" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="9">
         <f>'Bug Metrics'!$B92</f>
@@ -10928,7 +10936,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="9">
         <f>'Bug Metrics'!$B93</f>
@@ -10951,7 +10959,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="9">
         <f>'Bug Metrics'!$B94</f>
@@ -10974,7 +10982,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="9">
         <f>'Bug Metrics'!$B95</f>
@@ -10997,7 +11005,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="16"/>
     </row>
-    <row r="95" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="9">
         <f>'Bug Metrics'!$B96</f>
@@ -11020,7 +11028,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="16"/>
     </row>
-    <row r="96" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="9">
         <f>'Bug Metrics'!$B97</f>
@@ -11043,7 +11051,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="16"/>
     </row>
-    <row r="97" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="9">
         <f>'Bug Metrics'!$B98</f>
@@ -11066,7 +11074,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="16"/>
     </row>
-    <row r="98" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="B98" s="9">
         <f>'Bug Metrics'!$B99</f>
@@ -11089,7 +11097,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="16"/>
     </row>
-    <row r="99" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="9">
         <f>'Bug Metrics'!$B100</f>
@@ -11112,7 +11120,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="16"/>
     </row>
-    <row r="100" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="9">
         <f>'Bug Metrics'!$B101</f>
@@ -11135,7 +11143,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="16"/>
     </row>
-    <row r="101" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="9">
         <f>'Bug Metrics'!$B102</f>
@@ -11158,7 +11166,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="16"/>
     </row>
-    <row r="102" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="9">
         <f>'Bug Metrics'!$B103</f>
@@ -11181,7 +11189,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="9">
         <f>'Bug Metrics'!$B104</f>
@@ -11204,7 +11212,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="9">
         <f>'Bug Metrics'!$B105</f>
@@ -11227,7 +11235,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="9">
         <f>'Bug Metrics'!$B106</f>
@@ -11250,7 +11258,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
       <c r="B106" s="9">
         <f>'Bug Metrics'!$B107</f>
@@ -11273,7 +11281,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="9">
         <f>'Bug Metrics'!$B108</f>
@@ -11296,7 +11304,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="B108" s="9">
         <f>'Bug Metrics'!$B109</f>
@@ -11319,7 +11327,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="9">
         <f>'Bug Metrics'!$B110</f>
@@ -11342,7 +11350,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="B110" s="9">
         <f>'Bug Metrics'!$B111</f>
@@ -11365,7 +11373,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
       <c r="B111" s="9">
         <f>'Bug Metrics'!$B112</f>
@@ -11388,7 +11396,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="9">
         <f>'Bug Metrics'!$B113</f>
@@ -11411,7 +11419,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="16"/>
     </row>
-    <row r="113" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="B113" s="9">
         <f>'Bug Metrics'!$B114</f>
@@ -11434,7 +11442,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="16"/>
     </row>
-    <row r="114" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
       <c r="B114" s="9">
         <f>'Bug Metrics'!$B115</f>
@@ -11457,7 +11465,7 @@
       <c r="G114" s="14"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="9">
         <f>'Bug Metrics'!$B116</f>
@@ -11480,7 +11488,7 @@
       <c r="G115" s="14"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="9">
         <f>'Bug Metrics'!$B117</f>
@@ -11503,7 +11511,7 @@
       <c r="G116" s="14"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
       <c r="B117" s="9">
         <f>'Bug Metrics'!$B118</f>
@@ -11526,7 +11534,7 @@
       <c r="G117" s="14"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="9">
         <f>'Bug Metrics'!$B119</f>
@@ -11549,7 +11557,7 @@
       <c r="G118" s="14"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="9">
         <f>'Bug Metrics'!$B120</f>
@@ -11572,7 +11580,7 @@
       <c r="G119" s="14"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="B120" s="9">
         <f>'Bug Metrics'!$B121</f>
@@ -11595,7 +11603,7 @@
       <c r="G120" s="14"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="9">
         <f>'Bug Metrics'!$B122</f>
@@ -11618,7 +11626,7 @@
       <c r="G121" s="14"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="B122" s="9">
         <f>'Bug Metrics'!$B123</f>
@@ -11641,7 +11649,7 @@
       <c r="G122" s="14"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="9">
         <f>'Bug Metrics'!$B124</f>
@@ -11654,7 +11662,7 @@
       <c r="G123" s="14"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="9">
         <f>'Bug Metrics'!$B125</f>
@@ -11667,7 +11675,7 @@
       <c r="G124" s="14"/>
       <c r="H124" s="16"/>
     </row>
-    <row r="125" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="9">
         <f>'Bug Metrics'!$B126</f>
@@ -11680,7 +11688,7 @@
       <c r="G125" s="14"/>
       <c r="H125" s="16"/>
     </row>
-    <row r="126" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="9">
         <f>'Bug Metrics'!$B127</f>
@@ -11693,7 +11701,7 @@
       <c r="G126" s="14"/>
       <c r="H126" s="16"/>
     </row>
-    <row r="127" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="9">
         <f>'Bug Metrics'!$B128</f>
@@ -11706,7 +11714,7 @@
       <c r="G127" s="14"/>
       <c r="H127" s="16"/>
     </row>
-    <row r="128" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="9">
         <f>'Bug Metrics'!$B129</f>
@@ -11719,7 +11727,7 @@
       <c r="G128" s="14"/>
       <c r="H128" s="16"/>
     </row>
-    <row r="129" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="9">
         <f>'Bug Metrics'!$B130</f>
@@ -11732,7 +11740,7 @@
       <c r="G129" s="14"/>
       <c r="H129" s="16"/>
     </row>
-    <row r="130" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="9">
         <f>'Bug Metrics'!$B131</f>
@@ -11745,7 +11753,7 @@
       <c r="G130" s="14"/>
       <c r="H130" s="16"/>
     </row>
-    <row r="131" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="9">
         <f>'Bug Metrics'!$B132</f>
@@ -11758,7 +11766,7 @@
       <c r="G131" s="14"/>
       <c r="H131" s="16"/>
     </row>
-    <row r="132" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="9">
         <f>'Bug Metrics'!$B133</f>
@@ -11771,7 +11779,7 @@
       <c r="G132" s="14"/>
       <c r="H132" s="16"/>
     </row>
-    <row r="133" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="9">
         <f>'Bug Metrics'!$B134</f>
@@ -11784,7 +11792,7 @@
       <c r="G133" s="14"/>
       <c r="H133" s="16"/>
     </row>
-    <row r="134" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="9">
         <f>'Bug Metrics'!$B135</f>
@@ -11797,7 +11805,7 @@
       <c r="G134" s="14"/>
       <c r="H134" s="16"/>
     </row>
-    <row r="135" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="9">
         <f>'Bug Metrics'!$B136</f>
@@ -11810,7 +11818,7 @@
       <c r="G135" s="14"/>
       <c r="H135" s="16"/>
     </row>
-    <row r="136" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
       <c r="B136" s="9">
         <f>'Bug Metrics'!$B137</f>
@@ -11823,7 +11831,7 @@
       <c r="G136" s="14"/>
       <c r="H136" s="16"/>
     </row>
-    <row r="137" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
       <c r="B137" s="9">
         <f>'Bug Metrics'!$B138</f>
@@ -11836,7 +11844,7 @@
       <c r="G137" s="14"/>
       <c r="H137" s="16"/>
     </row>
-    <row r="138" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="B138" s="9">
         <f>'Bug Metrics'!$B139</f>
@@ -11849,7 +11857,7 @@
       <c r="G138" s="14"/>
       <c r="H138" s="16"/>
     </row>
-    <row r="139" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="9">
         <f>'Bug Metrics'!$B140</f>
@@ -11862,7 +11870,7 @@
       <c r="G139" s="14"/>
       <c r="H139" s="16"/>
     </row>
-    <row r="140" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="9">
         <f>'Bug Metrics'!$B141</f>
@@ -11875,7 +11883,7 @@
       <c r="G140" s="14"/>
       <c r="H140" s="16"/>
     </row>
-    <row r="141" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="B141" s="9">
         <f>'Bug Metrics'!$B142</f>
@@ -11888,7 +11896,7 @@
       <c r="G141" s="14"/>
       <c r="H141" s="16"/>
     </row>
-    <row r="142" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="B142" s="9">
         <f>'Bug Metrics'!$B143</f>
@@ -11901,7 +11909,7 @@
       <c r="G142" s="14"/>
       <c r="H142" s="16"/>
     </row>
-    <row r="143" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="9">
         <f>'Bug Metrics'!$B144</f>
@@ -11914,7 +11922,7 @@
       <c r="G143" s="14"/>
       <c r="H143" s="16"/>
     </row>
-    <row r="144" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
       <c r="B144" s="9">
         <f>'Bug Metrics'!$B145</f>
@@ -11927,7 +11935,7 @@
       <c r="G144" s="14"/>
       <c r="H144" s="16"/>
     </row>
-    <row r="145" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="B145" s="9">
         <f>'Bug Metrics'!$B146</f>
@@ -11940,7 +11948,7 @@
       <c r="G145" s="14"/>
       <c r="H145" s="16"/>
     </row>
-    <row r="146" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="9">
         <f>'Bug Metrics'!$B147</f>
@@ -11953,7 +11961,7 @@
       <c r="G146" s="14"/>
       <c r="H146" s="16"/>
     </row>
-    <row r="147" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
       <c r="B147" s="9">
         <f>'Bug Metrics'!$B148</f>
@@ -11966,7 +11974,7 @@
       <c r="G147" s="14"/>
       <c r="H147" s="16"/>
     </row>
-    <row r="148" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="B148" s="9">
         <f>'Bug Metrics'!$B149</f>
@@ -11979,7 +11987,7 @@
       <c r="G148" s="14"/>
       <c r="H148" s="16"/>
     </row>
-    <row r="149" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="B149" s="9">
         <f>'Bug Metrics'!$B150</f>
@@ -11992,7 +12000,7 @@
       <c r="G149" s="14"/>
       <c r="H149" s="16"/>
     </row>
-    <row r="150" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="B150" s="9">
         <f>'Bug Metrics'!$B151</f>
@@ -12005,7 +12013,7 @@
       <c r="G150" s="14"/>
       <c r="H150" s="16"/>
     </row>
-    <row r="151" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="9">
         <f>'Bug Metrics'!$B152</f>
@@ -12018,7 +12026,7 @@
       <c r="G151" s="14"/>
       <c r="H151" s="16"/>
     </row>
-    <row r="152" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
       <c r="B152" s="9">
         <f>'Bug Metrics'!$B153</f>
@@ -12031,7 +12039,7 @@
       <c r="G152" s="14"/>
       <c r="H152" s="16"/>
     </row>
-    <row r="153" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
       <c r="B153" s="9">
         <f>'Bug Metrics'!$B154</f>
@@ -12044,7 +12052,7 @@
       <c r="G153" s="14"/>
       <c r="H153" s="16"/>
     </row>
-    <row r="154" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="9">
         <f>'Bug Metrics'!$B155</f>
@@ -12057,7 +12065,7 @@
       <c r="G154" s="14"/>
       <c r="H154" s="16"/>
     </row>
-    <row r="155" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="9">
         <f>'Bug Metrics'!$B156</f>
@@ -12070,7 +12078,7 @@
       <c r="G155" s="14"/>
       <c r="H155" s="16"/>
     </row>
-    <row r="156" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="B156" s="9">
         <f>'Bug Metrics'!$B157</f>
@@ -12083,7 +12091,7 @@
       <c r="G156" s="14"/>
       <c r="H156" s="16"/>
     </row>
-    <row r="157" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="9">
         <f>'Bug Metrics'!$B158</f>
@@ -12096,7 +12104,7 @@
       <c r="G157" s="14"/>
       <c r="H157" s="16"/>
     </row>
-    <row r="158" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="9">
         <f>'Bug Metrics'!$B159</f>
@@ -12109,7 +12117,7 @@
       <c r="G158" s="14"/>
       <c r="H158" s="16"/>
     </row>
-    <row r="159" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="9">
         <f>'Bug Metrics'!$B160</f>
@@ -12122,7 +12130,7 @@
       <c r="G159" s="14"/>
       <c r="H159" s="16"/>
     </row>
-    <row r="160" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="B160" s="9">
         <f>'Bug Metrics'!$B161</f>
@@ -12135,7 +12143,7 @@
       <c r="G160" s="14"/>
       <c r="H160" s="16"/>
     </row>
-    <row r="161" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="B161" s="9">
         <f>'Bug Metrics'!$B162</f>
@@ -12148,7 +12156,7 @@
       <c r="G161" s="14"/>
       <c r="H161" s="16"/>
     </row>
-    <row r="162" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="9">
         <f>'Bug Metrics'!$B163</f>
@@ -12161,7 +12169,7 @@
       <c r="G162" s="14"/>
       <c r="H162" s="16"/>
     </row>
-    <row r="163" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="9">
         <f>'Bug Metrics'!$B164</f>
@@ -12174,7 +12182,7 @@
       <c r="G163" s="14"/>
       <c r="H163" s="16"/>
     </row>
-    <row r="164" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="9">
         <f>'Bug Metrics'!$B165</f>
@@ -12187,7 +12195,7 @@
       <c r="G164" s="14"/>
       <c r="H164" s="16"/>
     </row>
-    <row r="165" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="9">
         <f>'Bug Metrics'!$B166</f>
@@ -12200,7 +12208,7 @@
       <c r="G165" s="14"/>
       <c r="H165" s="16"/>
     </row>
-    <row r="166" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="9">
         <f>'Bug Metrics'!$B167</f>
@@ -12213,7 +12221,7 @@
       <c r="G166" s="14"/>
       <c r="H166" s="16"/>
     </row>
-    <row r="167" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="9">
         <f>'Bug Metrics'!$B168</f>
@@ -12226,7 +12234,7 @@
       <c r="G167" s="14"/>
       <c r="H167" s="16"/>
     </row>
-    <row r="168" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="9">
         <f>'Bug Metrics'!$B169</f>
@@ -12239,7 +12247,7 @@
       <c r="G168" s="14"/>
       <c r="H168" s="16"/>
     </row>
-    <row r="169" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="9">
         <f>'Bug Metrics'!$B170</f>
@@ -12252,7 +12260,7 @@
       <c r="G169" s="14"/>
       <c r="H169" s="16"/>
     </row>
-    <row r="170" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="9">
         <f>'Bug Metrics'!$B171</f>
@@ -12265,7 +12273,7 @@
       <c r="G170" s="14"/>
       <c r="H170" s="16"/>
     </row>
-    <row r="171" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="9">
         <f>'Bug Metrics'!$B172</f>
@@ -12278,7 +12286,7 @@
       <c r="G171" s="14"/>
       <c r="H171" s="16"/>
     </row>
-    <row r="172" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="9">
         <f>'Bug Metrics'!$B173</f>
@@ -12291,7 +12299,7 @@
       <c r="G172" s="14"/>
       <c r="H172" s="16"/>
     </row>
-    <row r="173" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
       <c r="B173" s="9">
         <f>'Bug Metrics'!$B174</f>
@@ -12304,7 +12312,7 @@
       <c r="G173" s="14"/>
       <c r="H173" s="16"/>
     </row>
-    <row r="174" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
       <c r="B174" s="9">
         <f>'Bug Metrics'!$B175</f>
@@ -12317,7 +12325,7 @@
       <c r="G174" s="14"/>
       <c r="H174" s="16"/>
     </row>
-    <row r="175" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="9">
         <f>'Bug Metrics'!$B176</f>
@@ -12330,7 +12338,7 @@
       <c r="G175" s="14"/>
       <c r="H175" s="16"/>
     </row>
-    <row r="176" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
       <c r="B176" s="9">
         <f>'Bug Metrics'!$B177</f>
@@ -12343,7 +12351,7 @@
       <c r="G176" s="14"/>
       <c r="H176" s="16"/>
     </row>
-    <row r="177" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
       <c r="B177" s="9">
         <f>'Bug Metrics'!$B178</f>
@@ -12356,7 +12364,7 @@
       <c r="G177" s="14"/>
       <c r="H177" s="16"/>
     </row>
-    <row r="178" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
       <c r="B178" s="9">
         <f>'Bug Metrics'!$B179</f>
@@ -12369,7 +12377,7 @@
       <c r="G178" s="14"/>
       <c r="H178" s="16"/>
     </row>
-    <row r="179" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
       <c r="B179" s="9">
         <f>'Bug Metrics'!$B180</f>
@@ -12382,7 +12390,7 @@
       <c r="G179" s="14"/>
       <c r="H179" s="16"/>
     </row>
-    <row r="180" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="B180" s="9">
         <f>'Bug Metrics'!$B181</f>
@@ -12395,7 +12403,7 @@
       <c r="G180" s="14"/>
       <c r="H180" s="16"/>
     </row>
-    <row r="181" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
       <c r="B181" s="9">
         <f>'Bug Metrics'!$B182</f>
@@ -12408,7 +12416,7 @@
       <c r="G181" s="14"/>
       <c r="H181" s="16"/>
     </row>
-    <row r="182" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="9"/>
       <c r="B182" s="9">
         <f>'Bug Metrics'!$B183</f>
@@ -12421,7 +12429,7 @@
       <c r="G182" s="14"/>
       <c r="H182" s="16"/>
     </row>
-    <row r="183" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="B183" s="9">
         <f>'Bug Metrics'!$B184</f>
@@ -12434,7 +12442,7 @@
       <c r="G183" s="14"/>
       <c r="H183" s="16"/>
     </row>
-    <row r="184" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
       <c r="B184" s="9">
         <f>'Bug Metrics'!$B185</f>
@@ -12447,7 +12455,7 @@
       <c r="G184" s="14"/>
       <c r="H184" s="16"/>
     </row>
-    <row r="185" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
       <c r="B185" s="9">
         <f>'Bug Metrics'!$B186</f>
@@ -12460,7 +12468,7 @@
       <c r="G185" s="14"/>
       <c r="H185" s="16"/>
     </row>
-    <row r="186" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
       <c r="B186" s="9">
         <f>'Bug Metrics'!$B187</f>
@@ -12473,7 +12481,7 @@
       <c r="G186" s="14"/>
       <c r="H186" s="16"/>
     </row>
-    <row r="187" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
       <c r="B187" s="9">
         <f>'Bug Metrics'!$B188</f>
@@ -12486,7 +12494,7 @@
       <c r="G187" s="14"/>
       <c r="H187" s="16"/>
     </row>
-    <row r="188" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
       <c r="B188" s="9">
         <f>'Bug Metrics'!$B189</f>
@@ -12499,7 +12507,7 @@
       <c r="G188" s="14"/>
       <c r="H188" s="16"/>
     </row>
-    <row r="189" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
       <c r="B189" s="9">
         <f>'Bug Metrics'!$B190</f>
@@ -12512,7 +12520,7 @@
       <c r="G189" s="14"/>
       <c r="H189" s="16"/>
     </row>
-    <row r="190" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
       <c r="B190" s="9">
         <f>'Bug Metrics'!$B191</f>
@@ -12525,7 +12533,7 @@
       <c r="G190" s="14"/>
       <c r="H190" s="16"/>
     </row>
-    <row r="191" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="9"/>
       <c r="B191" s="9">
         <f>'Bug Metrics'!$B192</f>
@@ -12538,7 +12546,7 @@
       <c r="G191" s="14"/>
       <c r="H191" s="16"/>
     </row>
-    <row r="192" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
       <c r="B192" s="9">
         <f>'Bug Metrics'!$B193</f>
@@ -12551,7 +12559,7 @@
       <c r="G192" s="14"/>
       <c r="H192" s="16"/>
     </row>
-    <row r="193" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
       <c r="B193" s="9">
         <f>'Bug Metrics'!$B194</f>
@@ -12564,7 +12572,7 @@
       <c r="G193" s="14"/>
       <c r="H193" s="16"/>
     </row>
-    <row r="194" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
       <c r="B194" s="9">
         <f>'Bug Metrics'!$B195</f>
@@ -12577,7 +12585,7 @@
       <c r="G194" s="14"/>
       <c r="H194" s="16"/>
     </row>
-    <row r="195" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
       <c r="B195" s="9">
         <f>'Bug Metrics'!$B196</f>
@@ -12590,7 +12598,7 @@
       <c r="G195" s="14"/>
       <c r="H195" s="16"/>
     </row>
-    <row r="196" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
       <c r="B196" s="9">
         <f>'Bug Metrics'!$B197</f>
@@ -12603,7 +12611,7 @@
       <c r="G196" s="14"/>
       <c r="H196" s="16"/>
     </row>
-    <row r="197" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
       <c r="B197" s="9">
         <f>'Bug Metrics'!$B198</f>
@@ -12616,7 +12624,7 @@
       <c r="G197" s="14"/>
       <c r="H197" s="16"/>
     </row>
-    <row r="198" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
       <c r="B198" s="9">
         <f>'Bug Metrics'!$B199</f>
@@ -12629,7 +12637,7 @@
       <c r="G198" s="14"/>
       <c r="H198" s="16"/>
     </row>
-    <row r="199" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
       <c r="B199" s="9">
         <f>'Bug Metrics'!$B200</f>
@@ -12642,7 +12650,7 @@
       <c r="G199" s="14"/>
       <c r="H199" s="16"/>
     </row>
-    <row r="200" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="9"/>
       <c r="B200" s="9">
         <f>'Bug Metrics'!$B201</f>
@@ -12655,7 +12663,7 @@
       <c r="G200" s="14"/>
       <c r="H200" s="16"/>
     </row>
-    <row r="201" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="9"/>
       <c r="C201" s="13"/>
@@ -12665,7 +12673,7 @@
       <c r="G201" s="14"/>
       <c r="H201" s="13"/>
     </row>
-    <row r="202" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="9"/>
       <c r="C202" s="13"/>
@@ -12675,7 +12683,7 @@
       <c r="G202" s="14"/>
       <c r="H202" s="13"/>
     </row>
-    <row r="203" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="9"/>
       <c r="C203" s="13"/>
@@ -20720,32 +20728,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="containsBlanks" dxfId="0" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89743C4-236C-49CE-92A7-9CB083BA7199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22160B8D-F0A9-4601-9311-080B3BC0F26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="234">
   <si>
     <t>Bug Log</t>
   </si>
@@ -729,6 +729,12 @@
   </si>
   <si>
     <t>ST &amp; SL</t>
+  </si>
+  <si>
+    <t>Unexpected 'else' in common.php</t>
+  </si>
+  <si>
+    <t>ST &amp; JM</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1103,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1115,30 +1136,15 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -1332,795 +1338,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC1E0E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDED4F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDED4F8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2546,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="72" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H32"/>
+    <sheetView topLeftCell="A160" zoomScale="72" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123:H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.6" x14ac:dyDescent="0.25"/>
@@ -2565,16 +1782,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -2621,11 +1838,11 @@
       <c r="F3" s="25">
         <v>5</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="39">
         <f>SUM(F3:F7)</f>
         <v>26</v>
       </c>
-      <c r="H3" s="42" t="str">
+      <c r="H3" s="47" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -2649,8 +1866,8 @@
       <c r="F4" s="25">
         <v>1</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="43"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
@@ -2671,8 +1888,8 @@
       <c r="F5" s="25">
         <v>5</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
@@ -2693,8 +1910,8 @@
       <c r="F6" s="25">
         <v>5</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="43"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
@@ -2715,8 +1932,8 @@
       <c r="F7" s="25">
         <v>10</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25">
@@ -2737,11 +1954,11 @@
       <c r="F8" s="25">
         <v>5</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="43">
         <f>SUM(F8:F32)</f>
         <v>156</v>
       </c>
-      <c r="H8" s="50" t="str">
+      <c r="H8" s="44" t="str">
         <f xml:space="preserve"> IF(G8&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -2765,8 +1982,8 @@
       <c r="F9" s="25">
         <v>5</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="51"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25">
@@ -2787,8 +2004,8 @@
       <c r="F10" s="25">
         <v>5</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="51"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25">
@@ -2809,8 +2026,8 @@
       <c r="F11" s="25">
         <v>10</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="51"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25">
@@ -2831,8 +2048,8 @@
       <c r="F12" s="25">
         <v>10</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="51"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25">
@@ -2853,8 +2070,8 @@
       <c r="F13" s="25">
         <v>10</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="51"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="25">
@@ -2875,8 +2092,8 @@
       <c r="F14" s="25">
         <v>10</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="51"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
@@ -2897,8 +2114,8 @@
       <c r="F15" s="25">
         <v>10</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="51"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29">
@@ -2919,8 +2136,8 @@
       <c r="F16" s="25">
         <v>5</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="51"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="30">
@@ -2941,8 +2158,8 @@
       <c r="F17" s="25">
         <v>1</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="51"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30">
@@ -2963,8 +2180,8 @@
       <c r="F18" s="25">
         <v>5</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="51"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="31">
@@ -2985,8 +2202,8 @@
       <c r="F19" s="25">
         <v>1</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="51"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
@@ -3008,8 +2225,8 @@
         <f t="shared" ref="F20:F187" si="0">IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="51"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
@@ -3031,8 +2248,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="51"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
@@ -3054,8 +2271,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="51"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
@@ -3077,8 +2294,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="51"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
@@ -3100,8 +2317,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="51"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
@@ -3123,8 +2340,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="51"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
@@ -3146,8 +2363,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="51"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
@@ -3169,8 +2386,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="51"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
@@ -3192,8 +2409,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="51"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
@@ -3215,8 +2432,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="51"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
@@ -3238,8 +2455,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="51"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
@@ -3261,8 +2478,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="51"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
@@ -3284,8 +2501,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="51"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -3307,11 +2524,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="41">
         <f>SUM(F33:F53)</f>
         <v>142</v>
       </c>
-      <c r="H33" s="40" t="str">
+      <c r="H33" s="42" t="str">
         <f xml:space="preserve"> IF(G33&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -3336,8 +2553,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
@@ -3359,8 +2576,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42"/>
     </row>
     <row r="36" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
@@ -3382,8 +2599,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
@@ -3405,8 +2622,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
@@ -3428,8 +2645,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
@@ -3451,8 +2668,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
@@ -3474,8 +2691,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
@@ -3497,8 +2714,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -3520,8 +2737,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -3543,8 +2760,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
@@ -3566,8 +2783,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
@@ -3589,8 +2806,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
@@ -3612,8 +2829,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -3635,8 +2852,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -3658,8 +2875,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -3681,8 +2898,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="40"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -3704,8 +2921,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -3727,8 +2944,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G51" s="39"/>
-      <c r="H51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -3750,8 +2967,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="40"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
     </row>
     <row r="53" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -3773,8 +2990,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="40"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
@@ -3796,11 +3013,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G54" s="39">
+      <c r="G54" s="41">
         <f>SUM(F54:F122)</f>
         <v>321</v>
       </c>
-      <c r="H54" s="40" t="str">
+      <c r="H54" s="42" t="str">
         <f xml:space="preserve"> IF(G54&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -3825,8 +3042,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
@@ -3848,8 +3065,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
     </row>
     <row r="57" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
@@ -3871,8 +3088,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
@@ -3894,8 +3111,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="40"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
@@ -3917,8 +3134,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="40"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
@@ -3940,8 +3157,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G60" s="39"/>
-      <c r="H60" s="40"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
@@ -3963,8 +3180,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G61" s="39"/>
-      <c r="H61" s="40"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
@@ -3986,8 +3203,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="40"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
@@ -4009,8 +3226,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G63" s="39"/>
-      <c r="H63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
@@ -4032,8 +3249,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G64" s="39"/>
-      <c r="H64" s="40"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
@@ -4055,8 +3272,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G65" s="39"/>
-      <c r="H65" s="40"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
@@ -4078,8 +3295,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G66" s="39"/>
-      <c r="H66" s="40"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
@@ -4101,8 +3318,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="40"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35">
@@ -4124,8 +3341,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="40"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
@@ -4147,8 +3364,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
@@ -4170,8 +3387,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G70" s="39"/>
-      <c r="H70" s="40"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="42"/>
     </row>
     <row r="71" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
@@ -4193,8 +3410,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G71" s="39"/>
-      <c r="H71" s="40"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="42"/>
     </row>
     <row r="72" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A72" s="35">
@@ -4216,8 +3433,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G72" s="39"/>
-      <c r="H72" s="40"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="42"/>
     </row>
     <row r="73" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
@@ -4239,8 +3456,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G73" s="39"/>
-      <c r="H73" s="40"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
     </row>
     <row r="74" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A74" s="35">
@@ -4262,8 +3479,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G74" s="39"/>
-      <c r="H74" s="40"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="42"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
@@ -4285,8 +3502,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="40"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A76" s="35">
@@ -4308,8 +3525,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G76" s="39"/>
-      <c r="H76" s="40"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
@@ -4331,8 +3548,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="40"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
@@ -4354,8 +3571,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G78" s="39"/>
-      <c r="H78" s="40"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="42"/>
     </row>
     <row r="79" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
@@ -4377,8 +3594,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G79" s="39"/>
-      <c r="H79" s="40"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="42"/>
     </row>
     <row r="80" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A80" s="35">
@@ -4400,8 +3617,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G80" s="39"/>
-      <c r="H80" s="40"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="42"/>
     </row>
     <row r="81" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
@@ -4423,8 +3640,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="40"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35">
@@ -4446,8 +3663,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G82" s="39"/>
-      <c r="H82" s="40"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
@@ -4469,8 +3686,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G83" s="39"/>
-      <c r="H83" s="40"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="42"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
@@ -4492,8 +3709,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="40"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
@@ -4515,8 +3732,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G85" s="39"/>
-      <c r="H85" s="40"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="42"/>
     </row>
     <row r="86" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A86" s="35">
@@ -4538,8 +3755,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="40"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
@@ -4561,8 +3778,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="40"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="42"/>
     </row>
     <row r="88" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A88" s="35">
@@ -4584,8 +3801,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="40"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="42"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
@@ -4607,8 +3824,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G89" s="39"/>
-      <c r="H89" s="40"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35">
@@ -4630,8 +3847,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="40"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="42"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
@@ -4653,8 +3870,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="40"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="42"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35">
@@ -4676,8 +3893,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="40"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="42"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
@@ -4699,8 +3916,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G93" s="39"/>
-      <c r="H93" s="40"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="42"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35">
@@ -4722,8 +3939,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="40"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="42"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
@@ -4745,8 +3962,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G95" s="39"/>
-      <c r="H95" s="40"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="42"/>
     </row>
     <row r="96" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A96" s="35">
@@ -4768,8 +3985,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G96" s="39"/>
-      <c r="H96" s="40"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="42"/>
     </row>
     <row r="97" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
@@ -4791,8 +4008,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G97" s="39"/>
-      <c r="H97" s="40"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="42"/>
     </row>
     <row r="98" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A98" s="35">
@@ -4814,8 +4031,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G98" s="39"/>
-      <c r="H98" s="40"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="42"/>
     </row>
     <row r="99" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
@@ -4837,8 +4054,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G99" s="39"/>
-      <c r="H99" s="40"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="42"/>
     </row>
     <row r="100" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A100" s="35">
@@ -4860,8 +4077,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G100" s="39"/>
-      <c r="H100" s="40"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="42"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
@@ -4883,8 +4100,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G101" s="39"/>
-      <c r="H101" s="40"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="42"/>
     </row>
     <row r="102" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A102" s="35">
@@ -4906,8 +4123,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G102" s="39"/>
-      <c r="H102" s="40"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="42"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35">
@@ -4929,8 +4146,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G103" s="39"/>
-      <c r="H103" s="40"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="42"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="35">
@@ -4952,8 +4169,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G104" s="39"/>
-      <c r="H104" s="40"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="42"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35">
@@ -4975,8 +4192,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="40"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="42"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35">
@@ -4998,8 +4215,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G106" s="39"/>
-      <c r="H106" s="40"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="42"/>
     </row>
     <row r="107" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
@@ -5021,8 +4238,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G107" s="39"/>
-      <c r="H107" s="40"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="42"/>
     </row>
     <row r="108" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A108" s="35">
@@ -5044,8 +4261,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G108" s="39"/>
-      <c r="H108" s="40"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="42"/>
     </row>
     <row r="109" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A109" s="35">
@@ -5067,8 +4284,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G109" s="39"/>
-      <c r="H109" s="40"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="42"/>
     </row>
     <row r="110" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A110" s="35">
@@ -5090,8 +4307,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G110" s="39"/>
-      <c r="H110" s="40"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="42"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35">
@@ -5113,8 +4330,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G111" s="39"/>
-      <c r="H111" s="40"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="42"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="35">
@@ -5136,8 +4353,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G112" s="39"/>
-      <c r="H112" s="40"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="42"/>
     </row>
     <row r="113" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A113" s="35">
@@ -5159,8 +4376,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G113" s="39"/>
-      <c r="H113" s="40"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="42"/>
     </row>
     <row r="114" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A114" s="35">
@@ -5182,8 +4399,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G114" s="39"/>
-      <c r="H114" s="40"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="42"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
@@ -5205,8 +4422,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G115" s="39"/>
-      <c r="H115" s="40"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="42"/>
     </row>
     <row r="116" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A116" s="35">
@@ -5228,8 +4445,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G116" s="39"/>
-      <c r="H116" s="40"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="42"/>
     </row>
     <row r="117" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A117" s="35">
@@ -5251,8 +4468,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G117" s="39"/>
-      <c r="H117" s="40"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="42"/>
     </row>
     <row r="118" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A118" s="35">
@@ -5274,8 +4491,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G118" s="39"/>
-      <c r="H118" s="40"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="42"/>
     </row>
     <row r="119" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A119" s="35">
@@ -5297,8 +4514,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G119" s="39"/>
-      <c r="H119" s="40"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="42"/>
     </row>
     <row r="120" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A120" s="35">
@@ -5320,8 +4537,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G120" s="39"/>
-      <c r="H120" s="40"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="42"/>
     </row>
     <row r="121" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A121" s="35">
@@ -5343,8 +4560,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G121" s="39"/>
-      <c r="H121" s="40"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="42"/>
     </row>
     <row r="122" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A122" s="35">
@@ -5366,8 +4583,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G122" s="39"/>
-      <c r="H122" s="40"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="42"/>
     </row>
     <row r="123" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
@@ -5389,11 +4606,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G123" s="39">
-        <f>SUM(F123:F176)</f>
-        <v>254</v>
-      </c>
-      <c r="H123" s="40" t="str">
+      <c r="G123" s="41">
+        <f>SUM(F123:F177)</f>
+        <v>264</v>
+      </c>
+      <c r="H123" s="42" t="str">
         <f xml:space="preserve"> IF(G123&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -5418,8 +4635,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G124" s="39"/>
-      <c r="H124" s="40"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="42"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35">
@@ -5441,8 +4658,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G125" s="39"/>
-      <c r="H125" s="40"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="42"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35">
@@ -5464,8 +4681,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G126" s="39"/>
-      <c r="H126" s="40"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="42"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35">
@@ -5487,8 +4704,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G127" s="39"/>
-      <c r="H127" s="40"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="42"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
@@ -5510,8 +4727,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G128" s="39"/>
-      <c r="H128" s="40"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="42"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
@@ -5533,8 +4750,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G129" s="39"/>
-      <c r="H129" s="40"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="42"/>
     </row>
     <row r="130" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
@@ -5556,8 +4773,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G130" s="39"/>
-      <c r="H130" s="40"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="42"/>
     </row>
     <row r="131" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
@@ -5579,8 +4796,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G131" s="39"/>
-      <c r="H131" s="40"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="42"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
@@ -5602,8 +4819,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G132" s="39"/>
-      <c r="H132" s="40"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="42"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
@@ -5625,8 +4842,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G133" s="39"/>
-      <c r="H133" s="40"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="42"/>
     </row>
     <row r="134" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
@@ -5648,8 +4865,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G134" s="39"/>
-      <c r="H134" s="40"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="42"/>
       <c r="I134" s="22"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5672,8 +4889,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G135" s="39"/>
-      <c r="H135" s="40"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="42"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
@@ -5695,8 +4912,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G136" s="39"/>
-      <c r="H136" s="40"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="42"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
@@ -5718,8 +4935,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G137" s="39"/>
-      <c r="H137" s="40"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="42"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
@@ -5741,8 +4958,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G138" s="39"/>
-      <c r="H138" s="40"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="42"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
@@ -5764,8 +4981,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G139" s="39"/>
-      <c r="H139" s="40"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="42"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
@@ -5787,8 +5004,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G140" s="39"/>
-      <c r="H140" s="40"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="42"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
@@ -5810,8 +5027,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G141" s="39"/>
-      <c r="H141" s="40"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="42"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
@@ -5833,8 +5050,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G142" s="39"/>
-      <c r="H142" s="40"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="42"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
@@ -5856,8 +5073,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G143" s="39"/>
-      <c r="H143" s="40"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="42"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
@@ -5879,8 +5096,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G144" s="39"/>
-      <c r="H144" s="40"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="42"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
@@ -5902,8 +5119,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G145" s="39"/>
-      <c r="H145" s="40"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="42"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
@@ -5925,8 +5142,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G146" s="39"/>
-      <c r="H146" s="40"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="42"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
@@ -5948,8 +5165,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G147" s="39"/>
-      <c r="H147" s="40"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="42"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
@@ -5971,8 +5188,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G148" s="39"/>
-      <c r="H148" s="40"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="42"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
@@ -5994,8 +5211,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G149" s="39"/>
-      <c r="H149" s="40"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="42"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
@@ -6017,8 +5234,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G150" s="39"/>
-      <c r="H150" s="40"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="42"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
@@ -6040,8 +5257,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G151" s="39"/>
-      <c r="H151" s="40"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="42"/>
     </row>
     <row r="152" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
@@ -6063,8 +5280,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G152" s="39"/>
-      <c r="H152" s="40"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="42"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
@@ -6086,8 +5303,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G153" s="39"/>
-      <c r="H153" s="40"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="42"/>
     </row>
     <row r="154" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
@@ -6109,8 +5326,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G154" s="39"/>
-      <c r="H154" s="40"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="42"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
@@ -6132,8 +5349,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G155" s="39"/>
-      <c r="H155" s="40"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="42"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
@@ -6155,8 +5372,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G156" s="39"/>
-      <c r="H156" s="40"/>
+      <c r="G156" s="41"/>
+      <c r="H156" s="42"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
@@ -6178,8 +5395,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G157" s="39"/>
-      <c r="H157" s="40"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="42"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
@@ -6201,8 +5418,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G158" s="39"/>
-      <c r="H158" s="40"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="42"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
@@ -6224,8 +5441,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G159" s="39"/>
-      <c r="H159" s="40"/>
+      <c r="G159" s="41"/>
+      <c r="H159" s="42"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
@@ -6247,8 +5464,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G160" s="39"/>
-      <c r="H160" s="40"/>
+      <c r="G160" s="41"/>
+      <c r="H160" s="42"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
@@ -6270,8 +5487,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G161" s="39"/>
-      <c r="H161" s="40"/>
+      <c r="G161" s="41"/>
+      <c r="H161" s="42"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
@@ -6293,8 +5510,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G162" s="39"/>
-      <c r="H162" s="40"/>
+      <c r="G162" s="41"/>
+      <c r="H162" s="42"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
@@ -6316,8 +5533,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G163" s="39"/>
-      <c r="H163" s="40"/>
+      <c r="G163" s="41"/>
+      <c r="H163" s="42"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
@@ -6339,8 +5556,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G164" s="39"/>
-      <c r="H164" s="40"/>
+      <c r="G164" s="41"/>
+      <c r="H164" s="42"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
@@ -6362,8 +5579,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G165" s="39"/>
-      <c r="H165" s="40"/>
+      <c r="G165" s="41"/>
+      <c r="H165" s="42"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
@@ -6385,8 +5602,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G166" s="39"/>
-      <c r="H166" s="40"/>
+      <c r="G166" s="41"/>
+      <c r="H166" s="42"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
@@ -6408,8 +5625,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G167" s="39"/>
-      <c r="H167" s="40"/>
+      <c r="G167" s="41"/>
+      <c r="H167" s="42"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
@@ -6431,8 +5648,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G168" s="39"/>
-      <c r="H168" s="40"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="42"/>
     </row>
     <row r="169" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
@@ -6454,8 +5671,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G169" s="39"/>
-      <c r="H169" s="40"/>
+      <c r="G169" s="41"/>
+      <c r="H169" s="42"/>
     </row>
     <row r="170" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
@@ -6477,8 +5694,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G170" s="39"/>
-      <c r="H170" s="40"/>
+      <c r="G170" s="41"/>
+      <c r="H170" s="42"/>
     </row>
     <row r="171" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
@@ -6500,8 +5717,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G171" s="39"/>
-      <c r="H171" s="40"/>
+      <c r="G171" s="41"/>
+      <c r="H171" s="42"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
@@ -6523,8 +5740,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G172" s="39"/>
-      <c r="H172" s="40"/>
+      <c r="G172" s="41"/>
+      <c r="H172" s="42"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
@@ -6546,8 +5763,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G173" s="39"/>
-      <c r="H173" s="40"/>
+      <c r="G173" s="41"/>
+      <c r="H173" s="42"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
@@ -6569,8 +5786,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G174" s="39"/>
-      <c r="H174" s="40"/>
+      <c r="G174" s="41"/>
+      <c r="H174" s="42"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
@@ -6592,8 +5809,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G175" s="39"/>
-      <c r="H175" s="40"/>
+      <c r="G175" s="41"/>
+      <c r="H175" s="42"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
@@ -6615,8 +5832,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G176" s="39"/>
-      <c r="H176" s="40"/>
+      <c r="G176" s="41"/>
+      <c r="H176" s="42"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
@@ -6625,11 +5842,20 @@
       <c r="B177" s="23">
         <v>5</v>
       </c>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18" t="str">
+      <c r="C177" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F177" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G177" s="41"/>
       <c r="H177" s="22"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -10104,8 +9330,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G123:G177"/>
     <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G123:G176"/>
     <mergeCell ref="H123:H176"/>
     <mergeCell ref="G8:G32"/>
     <mergeCell ref="H8:H32"/>
@@ -10113,8 +9341,6 @@
     <mergeCell ref="H33:H53"/>
     <mergeCell ref="G54:G122"/>
     <mergeCell ref="H54:H122"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H3:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H33 H54 C138 C144 C161 C167 C169 H192:H1048576 H123">
     <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Stop current Development">
@@ -10157,8 +9383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B134" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="B167" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -10175,16 +9401,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -13698,7 +12924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A128" s="9"/>
       <c r="B128" s="9">
         <f>'Bug Metrics'!$B133</f>
@@ -13725,7 +12951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A129" s="9"/>
       <c r="B129" s="9">
         <f>'Bug Metrics'!$B134</f>
@@ -13752,7 +12978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="9">
         <f>'Bug Metrics'!$B135</f>
@@ -13779,7 +13005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A131" s="9"/>
       <c r="B131" s="9">
         <f>'Bug Metrics'!$B136</f>
@@ -13833,7 +13059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A133" s="9"/>
       <c r="B133" s="9">
         <f>'Bug Metrics'!$B138</f>
@@ -13914,7 +13140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A136" s="9"/>
       <c r="B136" s="9">
         <f>'Bug Metrics'!$B141</f>
@@ -14130,7 +13356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A144" s="9"/>
       <c r="B144" s="9">
         <f>'Bug Metrics'!$B149</f>
@@ -14184,7 +13410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A146" s="9"/>
       <c r="B146" s="9">
         <f>'Bug Metrics'!$B151</f>
@@ -14319,7 +13545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A151" s="9"/>
       <c r="B151" s="9">
         <f>'Bug Metrics'!$B156</f>
@@ -14373,7 +13599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A153" s="9"/>
       <c r="B153" s="9">
         <f>'Bug Metrics'!$B158</f>
@@ -14778,7 +14004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="9">
         <f>'Bug Metrics'!$B173</f>
@@ -14805,7 +14031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A169" s="9"/>
       <c r="B169" s="9">
         <f>'Bug Metrics'!$B174</f>
@@ -14832,7 +14058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A170" s="9"/>
       <c r="B170" s="9">
         <f>'Bug Metrics'!$B175</f>
@@ -15000,12 +14226,26 @@
         <f>'Bug Metrics'!$B181</f>
         <v>5</v>
       </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="16"/>
+      <c r="C176" s="9" t="str">
+        <f>'Bug Metrics'!$C177</f>
+        <v>Login</v>
+      </c>
+      <c r="D176" s="10" t="str">
+        <f>'Bug Metrics'!$D177</f>
+        <v>Unexpected 'else' in common.php</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" s="14">
+        <v>43786</v>
+      </c>
+      <c r="G176" s="14">
+        <v>43786</v>
+      </c>
+      <c r="H176" s="16" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22160B8D-F0A9-4601-9311-080B3BC0F26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2167CA-DDB2-443C-8D91-1713EE09CD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="236">
   <si>
     <t>Bug Log</t>
   </si>
@@ -735,6 +735,12 @@
   </si>
   <si>
     <t>ST &amp; JM</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Information about round number, status and student edollar balance is repeated on home page</t>
   </si>
 </sst>
 </file>
@@ -991,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1103,14 +1109,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,22 +1142,13 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1763,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" zoomScale="72" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123:H176"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="72" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123:G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.6" x14ac:dyDescent="0.25"/>
@@ -1782,16 +1791,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -1838,11 +1847,11 @@
       <c r="F3" s="25">
         <v>5</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="44">
         <f>SUM(F3:F7)</f>
         <v>26</v>
       </c>
-      <c r="H3" s="47" t="str">
+      <c r="H3" s="40" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1866,8 +1875,8 @@
       <c r="F4" s="25">
         <v>1</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="48"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
@@ -1888,8 +1897,8 @@
       <c r="F5" s="25">
         <v>5</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
@@ -1910,8 +1919,8 @@
       <c r="F6" s="25">
         <v>5</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="48"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
@@ -1932,8 +1941,8 @@
       <c r="F7" s="25">
         <v>10</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="49"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25">
@@ -1954,11 +1963,11 @@
       <c r="F8" s="25">
         <v>5</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="47">
         <f>SUM(F8:F32)</f>
         <v>156</v>
       </c>
-      <c r="H8" s="44" t="str">
+      <c r="H8" s="48" t="str">
         <f xml:space="preserve"> IF(G8&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1982,8 +1991,8 @@
       <c r="F9" s="25">
         <v>5</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25">
@@ -2004,8 +2013,8 @@
       <c r="F10" s="25">
         <v>5</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25">
@@ -2026,8 +2035,8 @@
       <c r="F11" s="25">
         <v>10</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25">
@@ -2048,8 +2057,8 @@
       <c r="F12" s="25">
         <v>10</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="45"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25">
@@ -2070,8 +2079,8 @@
       <c r="F13" s="25">
         <v>10</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="45"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="25">
@@ -2092,8 +2101,8 @@
       <c r="F14" s="25">
         <v>10</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="45"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
@@ -2114,8 +2123,8 @@
       <c r="F15" s="25">
         <v>10</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29">
@@ -2136,8 +2145,8 @@
       <c r="F16" s="25">
         <v>5</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="30">
@@ -2158,8 +2167,8 @@
       <c r="F17" s="25">
         <v>1</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="45"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30">
@@ -2180,8 +2189,8 @@
       <c r="F18" s="25">
         <v>5</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="45"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="31">
@@ -2202,8 +2211,8 @@
       <c r="F19" s="25">
         <v>1</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="45"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
@@ -2225,8 +2234,8 @@
         <f t="shared" ref="F20:F187" si="0">IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
@@ -2248,8 +2257,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="45"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
@@ -2271,8 +2280,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="45"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
@@ -2294,8 +2303,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="45"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
@@ -2317,8 +2326,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="45"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
@@ -2340,8 +2349,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="45"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
@@ -2363,8 +2372,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="45"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
@@ -2386,8 +2395,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="45"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
@@ -2409,8 +2418,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="45"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
@@ -2432,8 +2441,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="45"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
@@ -2455,8 +2464,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="45"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
@@ -2478,8 +2487,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="45"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="49"/>
     </row>
     <row r="32" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
@@ -2501,8 +2510,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="45"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="49"/>
     </row>
     <row r="33" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -2524,11 +2533,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="43">
         <f>SUM(F33:F53)</f>
         <v>142</v>
       </c>
-      <c r="H33" s="42" t="str">
+      <c r="H33" s="46" t="str">
         <f xml:space="preserve"> IF(G33&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -2553,8 +2562,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
@@ -2576,8 +2585,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
@@ -2599,8 +2608,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
@@ -2622,8 +2631,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
@@ -2645,8 +2654,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
@@ -2668,8 +2677,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
@@ -2691,8 +2700,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
@@ -2714,8 +2723,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -2737,8 +2746,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -2760,8 +2769,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
@@ -2783,8 +2792,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
@@ -2806,8 +2815,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
@@ -2829,8 +2838,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -2852,8 +2861,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -2875,8 +2884,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -2898,8 +2907,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -2921,8 +2930,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -2944,8 +2953,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G51" s="41"/>
-      <c r="H51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -2967,8 +2976,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="42"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -2990,8 +2999,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
@@ -3013,11 +3022,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G54" s="41">
+      <c r="G54" s="43">
         <f>SUM(F54:F122)</f>
         <v>321</v>
       </c>
-      <c r="H54" s="42" t="str">
+      <c r="H54" s="46" t="str">
         <f xml:space="preserve"> IF(G54&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -3042,8 +3051,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="46"/>
     </row>
     <row r="56" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
@@ -3065,8 +3074,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="42"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="46"/>
     </row>
     <row r="57" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
@@ -3088,8 +3097,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
@@ -3111,8 +3120,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="46"/>
     </row>
     <row r="59" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
@@ -3134,8 +3143,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="42"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="46"/>
     </row>
     <row r="60" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
@@ -3157,8 +3166,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="42"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="46"/>
     </row>
     <row r="61" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
@@ -3180,8 +3189,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="42"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="46"/>
     </row>
     <row r="62" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
@@ -3203,8 +3212,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="42"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="46"/>
     </row>
     <row r="63" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
@@ -3226,8 +3235,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="46"/>
     </row>
     <row r="64" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
@@ -3249,8 +3258,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="42"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="46"/>
     </row>
     <row r="65" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
@@ -3272,8 +3281,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="42"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="46"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
@@ -3295,8 +3304,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
@@ -3318,8 +3327,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="42"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35">
@@ -3341,8 +3350,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="42"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="46"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
@@ -3364,8 +3373,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="46"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
@@ -3387,8 +3396,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G70" s="41"/>
-      <c r="H70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="46"/>
     </row>
     <row r="71" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
@@ -3410,8 +3419,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="42"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A72" s="35">
@@ -3433,8 +3442,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="42"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="46"/>
     </row>
     <row r="73" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
@@ -3456,8 +3465,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="42"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="46"/>
     </row>
     <row r="74" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A74" s="35">
@@ -3479,8 +3488,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G74" s="41"/>
-      <c r="H74" s="42"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
@@ -3502,8 +3511,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A76" s="35">
@@ -3525,8 +3534,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="42"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="46"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
@@ -3548,8 +3557,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G77" s="41"/>
-      <c r="H77" s="42"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="46"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
@@ -3571,8 +3580,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="42"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="46"/>
     </row>
     <row r="79" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
@@ -3594,8 +3603,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="42"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="46"/>
     </row>
     <row r="80" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A80" s="35">
@@ -3617,8 +3626,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G80" s="41"/>
-      <c r="H80" s="42"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="46"/>
     </row>
     <row r="81" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
@@ -3640,8 +3649,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G81" s="41"/>
-      <c r="H81" s="42"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="46"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35">
@@ -3663,8 +3672,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="42"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="46"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
@@ -3686,8 +3695,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="42"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="46"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
@@ -3709,8 +3718,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
@@ -3732,8 +3741,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="42"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="46"/>
     </row>
     <row r="86" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A86" s="35">
@@ -3755,8 +3764,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G86" s="41"/>
-      <c r="H86" s="42"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="46"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
@@ -3778,8 +3787,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="42"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="46"/>
     </row>
     <row r="88" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A88" s="35">
@@ -3801,8 +3810,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G88" s="41"/>
-      <c r="H88" s="42"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="46"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
@@ -3824,8 +3833,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="42"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="46"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35">
@@ -3847,8 +3856,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="42"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="46"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
@@ -3870,8 +3879,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G91" s="41"/>
-      <c r="H91" s="42"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="46"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35">
@@ -3893,8 +3902,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G92" s="41"/>
-      <c r="H92" s="42"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="46"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
@@ -3916,8 +3925,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35">
@@ -3939,8 +3948,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G94" s="41"/>
-      <c r="H94" s="42"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="46"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
@@ -3962,8 +3971,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="42"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="46"/>
     </row>
     <row r="96" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A96" s="35">
@@ -3985,8 +3994,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="42"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="46"/>
     </row>
     <row r="97" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
@@ -4008,8 +4017,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="42"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="46"/>
     </row>
     <row r="98" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A98" s="35">
@@ -4031,8 +4040,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="42"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="46"/>
     </row>
     <row r="99" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
@@ -4054,8 +4063,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="42"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="46"/>
     </row>
     <row r="100" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A100" s="35">
@@ -4077,8 +4086,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G100" s="41"/>
-      <c r="H100" s="42"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="46"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
@@ -4100,8 +4109,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G101" s="41"/>
-      <c r="H101" s="42"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="46"/>
     </row>
     <row r="102" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A102" s="35">
@@ -4123,8 +4132,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="46"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35">
@@ -4146,8 +4155,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="42"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="46"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="35">
@@ -4169,8 +4178,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G104" s="41"/>
-      <c r="H104" s="42"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="46"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35">
@@ -4192,8 +4201,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G105" s="41"/>
-      <c r="H105" s="42"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="46"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35">
@@ -4215,8 +4224,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G106" s="41"/>
-      <c r="H106" s="42"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="46"/>
     </row>
     <row r="107" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
@@ -4238,8 +4247,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="42"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="46"/>
     </row>
     <row r="108" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A108" s="35">
@@ -4261,8 +4270,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G108" s="41"/>
-      <c r="H108" s="42"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="46"/>
     </row>
     <row r="109" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A109" s="35">
@@ -4284,8 +4293,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G109" s="41"/>
-      <c r="H109" s="42"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="46"/>
     </row>
     <row r="110" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A110" s="35">
@@ -4307,8 +4316,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="42"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="46"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35">
@@ -4330,8 +4339,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="46"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="35">
@@ -4353,8 +4362,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G112" s="41"/>
-      <c r="H112" s="42"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="46"/>
     </row>
     <row r="113" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A113" s="35">
@@ -4376,8 +4385,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="42"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="46"/>
     </row>
     <row r="114" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A114" s="35">
@@ -4399,8 +4408,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G114" s="41"/>
-      <c r="H114" s="42"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="46"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
@@ -4422,8 +4431,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G115" s="41"/>
-      <c r="H115" s="42"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="46"/>
     </row>
     <row r="116" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A116" s="35">
@@ -4445,8 +4454,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="42"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="46"/>
     </row>
     <row r="117" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A117" s="35">
@@ -4468,8 +4477,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G117" s="41"/>
-      <c r="H117" s="42"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="46"/>
     </row>
     <row r="118" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A118" s="35">
@@ -4491,8 +4500,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="42"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="46"/>
     </row>
     <row r="119" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A119" s="35">
@@ -4514,8 +4523,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="42"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="46"/>
     </row>
     <row r="120" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A120" s="35">
@@ -4537,8 +4546,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="46"/>
     </row>
     <row r="121" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A121" s="35">
@@ -4560,8 +4569,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G121" s="41"/>
-      <c r="H121" s="42"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="46"/>
     </row>
     <row r="122" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A122" s="35">
@@ -4583,8 +4592,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="42"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="46"/>
     </row>
     <row r="123" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
@@ -4606,11 +4615,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G123" s="41">
-        <f>SUM(F123:F177)</f>
-        <v>264</v>
-      </c>
-      <c r="H123" s="42" t="str">
+      <c r="G123" s="43">
+        <f>SUM(F123:F178)</f>
+        <v>265</v>
+      </c>
+      <c r="H123" s="46" t="str">
         <f xml:space="preserve"> IF(G123&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -4635,8 +4644,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G124" s="41"/>
-      <c r="H124" s="42"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="46"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35">
@@ -4658,8 +4667,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G125" s="41"/>
-      <c r="H125" s="42"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="46"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35">
@@ -4681,8 +4690,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G126" s="41"/>
-      <c r="H126" s="42"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="46"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35">
@@ -4704,8 +4713,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G127" s="41"/>
-      <c r="H127" s="42"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="46"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
@@ -4727,8 +4736,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G128" s="41"/>
-      <c r="H128" s="42"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="46"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
@@ -4750,8 +4759,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G129" s="41"/>
-      <c r="H129" s="42"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="46"/>
     </row>
     <row r="130" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
@@ -4773,8 +4782,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G130" s="41"/>
-      <c r="H130" s="42"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="46"/>
     </row>
     <row r="131" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
@@ -4796,8 +4805,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G131" s="41"/>
-      <c r="H131" s="42"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="46"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
@@ -4819,8 +4828,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="42"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="46"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
@@ -4842,8 +4851,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G133" s="41"/>
-      <c r="H133" s="42"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="46"/>
     </row>
     <row r="134" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
@@ -4865,8 +4874,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G134" s="41"/>
-      <c r="H134" s="42"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="46"/>
       <c r="I134" s="22"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4889,8 +4898,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G135" s="41"/>
-      <c r="H135" s="42"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="46"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
@@ -4912,8 +4921,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G136" s="41"/>
-      <c r="H136" s="42"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="46"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
@@ -4935,8 +4944,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G137" s="41"/>
-      <c r="H137" s="42"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="46"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
@@ -4958,8 +4967,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G138" s="41"/>
-      <c r="H138" s="42"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="46"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
@@ -4981,8 +4990,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G139" s="41"/>
-      <c r="H139" s="42"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="46"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
@@ -5004,8 +5013,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G140" s="41"/>
-      <c r="H140" s="42"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="46"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
@@ -5027,8 +5036,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G141" s="41"/>
-      <c r="H141" s="42"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="46"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
@@ -5050,8 +5059,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G142" s="41"/>
-      <c r="H142" s="42"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="46"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
@@ -5073,8 +5082,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G143" s="41"/>
-      <c r="H143" s="42"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="46"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
@@ -5096,8 +5105,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G144" s="41"/>
-      <c r="H144" s="42"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="46"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
@@ -5119,8 +5128,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="42"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="46"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
@@ -5142,8 +5151,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G146" s="41"/>
-      <c r="H146" s="42"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="46"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
@@ -5165,8 +5174,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G147" s="41"/>
-      <c r="H147" s="42"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="46"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
@@ -5188,8 +5197,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G148" s="41"/>
-      <c r="H148" s="42"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="46"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
@@ -5211,8 +5220,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G149" s="41"/>
-      <c r="H149" s="42"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="46"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
@@ -5234,8 +5243,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G150" s="41"/>
-      <c r="H150" s="42"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="46"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
@@ -5257,8 +5266,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G151" s="41"/>
-      <c r="H151" s="42"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="46"/>
     </row>
     <row r="152" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
@@ -5280,8 +5289,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G152" s="41"/>
-      <c r="H152" s="42"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="46"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
@@ -5303,8 +5312,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G153" s="41"/>
-      <c r="H153" s="42"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="46"/>
     </row>
     <row r="154" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
@@ -5326,8 +5335,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G154" s="41"/>
-      <c r="H154" s="42"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="46"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
@@ -5349,8 +5358,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G155" s="41"/>
-      <c r="H155" s="42"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="46"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
@@ -5372,8 +5381,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G156" s="41"/>
-      <c r="H156" s="42"/>
+      <c r="G156" s="43"/>
+      <c r="H156" s="46"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
@@ -5395,8 +5404,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G157" s="41"/>
-      <c r="H157" s="42"/>
+      <c r="G157" s="43"/>
+      <c r="H157" s="46"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
@@ -5418,8 +5427,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G158" s="41"/>
-      <c r="H158" s="42"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="46"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
@@ -5441,8 +5450,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G159" s="41"/>
-      <c r="H159" s="42"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="46"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
@@ -5464,8 +5473,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G160" s="41"/>
-      <c r="H160" s="42"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="46"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
@@ -5487,8 +5496,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G161" s="41"/>
-      <c r="H161" s="42"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="46"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
@@ -5510,8 +5519,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G162" s="41"/>
-      <c r="H162" s="42"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="46"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
@@ -5533,8 +5542,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G163" s="41"/>
-      <c r="H163" s="42"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="46"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
@@ -5556,8 +5565,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G164" s="41"/>
-      <c r="H164" s="42"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="46"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
@@ -5579,8 +5588,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G165" s="41"/>
-      <c r="H165" s="42"/>
+      <c r="G165" s="43"/>
+      <c r="H165" s="46"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
@@ -5602,8 +5611,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G166" s="41"/>
-      <c r="H166" s="42"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="46"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
@@ -5625,8 +5634,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G167" s="41"/>
-      <c r="H167" s="42"/>
+      <c r="G167" s="43"/>
+      <c r="H167" s="46"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
@@ -5648,8 +5657,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G168" s="41"/>
-      <c r="H168" s="42"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="46"/>
     </row>
     <row r="169" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
@@ -5671,8 +5680,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G169" s="41"/>
-      <c r="H169" s="42"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="46"/>
     </row>
     <row r="170" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
@@ -5694,8 +5703,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G170" s="41"/>
-      <c r="H170" s="42"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="46"/>
     </row>
     <row r="171" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
@@ -5717,8 +5726,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G171" s="41"/>
-      <c r="H171" s="42"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="46"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
@@ -5740,8 +5749,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G172" s="41"/>
-      <c r="H172" s="42"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="46"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
@@ -5763,8 +5772,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G173" s="41"/>
-      <c r="H173" s="42"/>
+      <c r="G173" s="43"/>
+      <c r="H173" s="46"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
@@ -5786,8 +5795,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G174" s="41"/>
-      <c r="H174" s="42"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="46"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
@@ -5809,8 +5818,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G175" s="41"/>
-      <c r="H175" s="42"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="46"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
@@ -5832,8 +5841,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G176" s="41"/>
-      <c r="H176" s="42"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="46"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
@@ -5855,22 +5864,31 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G177" s="41"/>
-      <c r="H177" s="22"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G177" s="43"/>
+      <c r="H177" s="46"/>
+    </row>
+    <row r="178" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A178" s="38">
         <v>176</v>
       </c>
       <c r="B178" s="23">
         <v>5</v>
       </c>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18" t="str">
+      <c r="C178" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H178" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="G178" s="43"/>
+      <c r="H178" s="46"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
@@ -9332,15 +9350,15 @@
   <mergeCells count="11">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="G123:G177"/>
     <mergeCell ref="G3:G7"/>
-    <mergeCell ref="H123:H176"/>
     <mergeCell ref="G8:G32"/>
     <mergeCell ref="H8:H32"/>
     <mergeCell ref="G33:G53"/>
     <mergeCell ref="H33:H53"/>
     <mergeCell ref="G54:G122"/>
     <mergeCell ref="H54:H122"/>
+    <mergeCell ref="G123:G178"/>
+    <mergeCell ref="H123:H178"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H33 H54 C138 C144 C161 C167 C169 H192:H1048576 H123">
     <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Stop current Development">
@@ -9383,8 +9401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B167" workbookViewId="0">
-      <selection activeCell="H177" sqref="H177"/>
+    <sheetView topLeftCell="B167" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -14253,8 +14271,14 @@
         <f>'Bug Metrics'!$B182</f>
         <v>5</v>
       </c>
-      <c r="C177" s="9"/>
-      <c r="D177" s="10"/>
+      <c r="C177" s="9" t="str">
+        <f>'Bug Metrics'!$C178</f>
+        <v>Index</v>
+      </c>
+      <c r="D177" s="10" t="str">
+        <f>'Bug Metrics'!$D178</f>
+        <v>Information about round number, status and student edollar balance is repeated on home page</v>
+      </c>
       <c r="E177" s="11"/>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2167CA-DDB2-443C-8D91-1713EE09CD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCC0862-7D24-4E51-BA54-63CEEC655B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="237">
   <si>
     <t>Bug Log</t>
   </si>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t>Information about round number, status and student edollar balance is repeated on home page</t>
+  </si>
+  <si>
+    <t>Test case 185-dump - section-student is populated with ALL successful bids across round 1 and round 2, should only should previous round</t>
   </si>
 </sst>
 </file>
@@ -1109,6 +1112,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,16 +1127,10 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,18 +1142,42 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1186,27 +1210,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFABDFDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1772,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="72" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123:G178"/>
+    <sheetView topLeftCell="A172" zoomScale="72" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.6" x14ac:dyDescent="0.25"/>
@@ -1791,16 +1794,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -1851,7 +1854,7 @@
         <f>SUM(F3:F7)</f>
         <v>26</v>
       </c>
-      <c r="H3" s="40" t="str">
+      <c r="H3" s="41" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="45"/>
-      <c r="H4" s="41"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
@@ -1898,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="45"/>
-      <c r="H5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
@@ -1920,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="H6" s="41"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
@@ -1942,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="45"/>
-      <c r="H7" s="42"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25">
@@ -1963,11 +1966,11 @@
       <c r="F8" s="25">
         <v>5</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="46">
         <f>SUM(F8:F32)</f>
         <v>156</v>
       </c>
-      <c r="H8" s="48" t="str">
+      <c r="H8" s="47" t="str">
         <f xml:space="preserve"> IF(G8&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -1991,8 +1994,8 @@
       <c r="F9" s="25">
         <v>5</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="49"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25">
@@ -2013,8 +2016,8 @@
       <c r="F10" s="25">
         <v>5</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="49"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25">
@@ -2035,8 +2038,8 @@
       <c r="F11" s="25">
         <v>10</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="49"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25">
@@ -2057,8 +2060,8 @@
       <c r="F12" s="25">
         <v>10</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="49"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25">
@@ -2079,8 +2082,8 @@
       <c r="F13" s="25">
         <v>10</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="49"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="25">
@@ -2101,8 +2104,8 @@
       <c r="F14" s="25">
         <v>10</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="49"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
@@ -2123,8 +2126,8 @@
       <c r="F15" s="25">
         <v>10</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="49"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29">
@@ -2145,8 +2148,8 @@
       <c r="F16" s="25">
         <v>5</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="49"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="30">
@@ -2167,8 +2170,8 @@
       <c r="F17" s="25">
         <v>1</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="49"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30">
@@ -2189,8 +2192,8 @@
       <c r="F18" s="25">
         <v>5</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="49"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="31">
@@ -2211,8 +2214,8 @@
       <c r="F19" s="25">
         <v>1</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="49"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
@@ -2234,8 +2237,8 @@
         <f t="shared" ref="F20:F187" si="0">IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="49"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
@@ -2257,8 +2260,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="49"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
@@ -2280,8 +2283,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="49"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
@@ -2303,8 +2306,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="49"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
@@ -2326,8 +2329,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="49"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
@@ -2349,8 +2352,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="49"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
@@ -2372,8 +2375,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="49"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
@@ -2395,8 +2398,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="49"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
@@ -2418,8 +2421,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="49"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
@@ -2441,8 +2444,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="49"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
@@ -2464,8 +2467,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="49"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
@@ -2487,8 +2490,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
@@ -2510,8 +2513,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="49"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -2533,11 +2536,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="49">
         <f>SUM(F33:F53)</f>
         <v>142</v>
       </c>
-      <c r="H33" s="46" t="str">
+      <c r="H33" s="50" t="str">
         <f xml:space="preserve"> IF(G33&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -2562,8 +2565,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="46"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
@@ -2585,8 +2588,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="46"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
@@ -2608,8 +2611,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="46"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
     </row>
     <row r="37" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
@@ -2631,8 +2634,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="46"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
     </row>
     <row r="38" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
@@ -2654,8 +2657,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="46"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
@@ -2677,8 +2680,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="46"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
@@ -2700,8 +2703,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="46"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
@@ -2723,8 +2726,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="46"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -2746,8 +2749,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="46"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -2769,8 +2772,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="46"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
@@ -2792,8 +2795,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="46"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
@@ -2815,8 +2818,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="46"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
@@ -2838,8 +2841,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="46"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -2861,8 +2864,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="46"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -2884,8 +2887,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="46"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -2907,8 +2910,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="46"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -2930,8 +2933,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="46"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -2953,8 +2956,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="46"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
     </row>
     <row r="52" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -2976,8 +2979,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="46"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50"/>
     </row>
     <row r="53" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -2999,8 +3002,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="46"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
@@ -3022,11 +3025,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G54" s="43">
+      <c r="G54" s="49">
         <f>SUM(F54:F122)</f>
         <v>321</v>
       </c>
-      <c r="H54" s="46" t="str">
+      <c r="H54" s="50" t="str">
         <f xml:space="preserve"> IF(G54&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -3051,8 +3054,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="46"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
@@ -3074,8 +3077,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G56" s="43"/>
-      <c r="H56" s="46"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
@@ -3097,8 +3100,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="46"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
@@ -3120,8 +3123,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G58" s="43"/>
-      <c r="H58" s="46"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
@@ -3143,8 +3146,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G59" s="43"/>
-      <c r="H59" s="46"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
     </row>
     <row r="60" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
@@ -3166,8 +3169,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="46"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="50"/>
     </row>
     <row r="61" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
@@ -3189,8 +3192,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G61" s="43"/>
-      <c r="H61" s="46"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="50"/>
     </row>
     <row r="62" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
@@ -3212,8 +3215,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="46"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="50"/>
     </row>
     <row r="63" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
@@ -3235,8 +3238,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="46"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="50"/>
     </row>
     <row r="64" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
@@ -3258,8 +3261,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G64" s="43"/>
-      <c r="H64" s="46"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
@@ -3281,8 +3284,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="46"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
@@ -3304,8 +3307,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G66" s="43"/>
-      <c r="H66" s="46"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
@@ -3327,8 +3330,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G67" s="43"/>
-      <c r="H67" s="46"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35">
@@ -3350,8 +3353,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G68" s="43"/>
-      <c r="H68" s="46"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
@@ -3373,8 +3376,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G69" s="43"/>
-      <c r="H69" s="46"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
@@ -3396,8 +3399,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G70" s="43"/>
-      <c r="H70" s="46"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="50"/>
     </row>
     <row r="71" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
@@ -3419,8 +3422,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G71" s="43"/>
-      <c r="H71" s="46"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="50"/>
     </row>
     <row r="72" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A72" s="35">
@@ -3442,8 +3445,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G72" s="43"/>
-      <c r="H72" s="46"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="50"/>
     </row>
     <row r="73" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
@@ -3465,8 +3468,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G73" s="43"/>
-      <c r="H73" s="46"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="50"/>
     </row>
     <row r="74" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A74" s="35">
@@ -3488,8 +3491,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G74" s="43"/>
-      <c r="H74" s="46"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="50"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
@@ -3511,8 +3514,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G75" s="43"/>
-      <c r="H75" s="46"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A76" s="35">
@@ -3534,8 +3537,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="46"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
@@ -3557,8 +3560,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G77" s="43"/>
-      <c r="H77" s="46"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
@@ -3580,8 +3583,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G78" s="43"/>
-      <c r="H78" s="46"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="50"/>
     </row>
     <row r="79" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
@@ -3603,8 +3606,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="46"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="50"/>
     </row>
     <row r="80" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A80" s="35">
@@ -3626,8 +3629,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G80" s="43"/>
-      <c r="H80" s="46"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="50"/>
     </row>
     <row r="81" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
@@ -3649,8 +3652,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G81" s="43"/>
-      <c r="H81" s="46"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="50"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35">
@@ -3672,8 +3675,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G82" s="43"/>
-      <c r="H82" s="46"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="50"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
@@ -3695,8 +3698,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="46"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="50"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
@@ -3718,8 +3721,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="46"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
@@ -3741,8 +3744,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="46"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A86" s="35">
@@ -3764,8 +3767,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G86" s="43"/>
-      <c r="H86" s="46"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="50"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
@@ -3787,8 +3790,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="46"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="50"/>
     </row>
     <row r="88" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A88" s="35">
@@ -3810,8 +3813,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="46"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="50"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
@@ -3833,8 +3836,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G89" s="43"/>
-      <c r="H89" s="46"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="50"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35">
@@ -3856,8 +3859,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G90" s="43"/>
-      <c r="H90" s="46"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="50"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
@@ -3879,8 +3882,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G91" s="43"/>
-      <c r="H91" s="46"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="50"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35">
@@ -3902,8 +3905,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="46"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="50"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
@@ -3925,8 +3928,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G93" s="43"/>
-      <c r="H93" s="46"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="50"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35">
@@ -3948,8 +3951,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G94" s="43"/>
-      <c r="H94" s="46"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="50"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
@@ -3971,8 +3974,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G95" s="43"/>
-      <c r="H95" s="46"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="50"/>
     </row>
     <row r="96" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A96" s="35">
@@ -3994,8 +3997,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="46"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="50"/>
     </row>
     <row r="97" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
@@ -4017,8 +4020,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G97" s="43"/>
-      <c r="H97" s="46"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="50"/>
     </row>
     <row r="98" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A98" s="35">
@@ -4040,8 +4043,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G98" s="43"/>
-      <c r="H98" s="46"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="50"/>
     </row>
     <row r="99" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
@@ -4063,8 +4066,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G99" s="43"/>
-      <c r="H99" s="46"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="50"/>
     </row>
     <row r="100" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A100" s="35">
@@ -4086,8 +4089,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G100" s="43"/>
-      <c r="H100" s="46"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="50"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
@@ -4109,8 +4112,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G101" s="43"/>
-      <c r="H101" s="46"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="50"/>
     </row>
     <row r="102" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A102" s="35">
@@ -4132,8 +4135,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G102" s="43"/>
-      <c r="H102" s="46"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="50"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35">
@@ -4155,8 +4158,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G103" s="43"/>
-      <c r="H103" s="46"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="50"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="35">
@@ -4178,8 +4181,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G104" s="43"/>
-      <c r="H104" s="46"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="50"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35">
@@ -4201,8 +4204,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G105" s="43"/>
-      <c r="H105" s="46"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="50"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35">
@@ -4224,8 +4227,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G106" s="43"/>
-      <c r="H106" s="46"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="50"/>
     </row>
     <row r="107" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
@@ -4247,8 +4250,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G107" s="43"/>
-      <c r="H107" s="46"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="50"/>
     </row>
     <row r="108" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A108" s="35">
@@ -4270,8 +4273,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G108" s="43"/>
-      <c r="H108" s="46"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="50"/>
     </row>
     <row r="109" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A109" s="35">
@@ -4293,8 +4296,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G109" s="43"/>
-      <c r="H109" s="46"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="50"/>
     </row>
     <row r="110" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A110" s="35">
@@ -4316,8 +4319,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G110" s="43"/>
-      <c r="H110" s="46"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="50"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35">
@@ -4339,8 +4342,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G111" s="43"/>
-      <c r="H111" s="46"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="50"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="35">
@@ -4362,8 +4365,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G112" s="43"/>
-      <c r="H112" s="46"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="50"/>
     </row>
     <row r="113" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A113" s="35">
@@ -4385,8 +4388,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G113" s="43"/>
-      <c r="H113" s="46"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="50"/>
     </row>
     <row r="114" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A114" s="35">
@@ -4408,8 +4411,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G114" s="43"/>
-      <c r="H114" s="46"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="50"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
@@ -4431,8 +4434,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G115" s="43"/>
-      <c r="H115" s="46"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="50"/>
     </row>
     <row r="116" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A116" s="35">
@@ -4454,8 +4457,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="46"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="50"/>
     </row>
     <row r="117" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A117" s="35">
@@ -4477,8 +4480,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G117" s="43"/>
-      <c r="H117" s="46"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="50"/>
     </row>
     <row r="118" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A118" s="35">
@@ -4500,8 +4503,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G118" s="43"/>
-      <c r="H118" s="46"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="50"/>
     </row>
     <row r="119" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A119" s="35">
@@ -4523,8 +4526,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G119" s="43"/>
-      <c r="H119" s="46"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="50"/>
     </row>
     <row r="120" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A120" s="35">
@@ -4546,8 +4549,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G120" s="43"/>
-      <c r="H120" s="46"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="50"/>
     </row>
     <row r="121" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A121" s="35">
@@ -4569,8 +4572,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G121" s="43"/>
-      <c r="H121" s="46"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="50"/>
     </row>
     <row r="122" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A122" s="35">
@@ -4592,8 +4595,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G122" s="43"/>
-      <c r="H122" s="46"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="50"/>
     </row>
     <row r="123" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
@@ -4615,11 +4618,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G123" s="43">
+      <c r="G123" s="49">
         <f>SUM(F123:F178)</f>
         <v>265</v>
       </c>
-      <c r="H123" s="46" t="str">
+      <c r="H123" s="50" t="str">
         <f xml:space="preserve"> IF(G123&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -4644,8 +4647,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G124" s="43"/>
-      <c r="H124" s="46"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="50"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35">
@@ -4667,8 +4670,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G125" s="43"/>
-      <c r="H125" s="46"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="50"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35">
@@ -4690,8 +4693,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G126" s="43"/>
-      <c r="H126" s="46"/>
+      <c r="G126" s="49"/>
+      <c r="H126" s="50"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35">
@@ -4713,8 +4716,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G127" s="43"/>
-      <c r="H127" s="46"/>
+      <c r="G127" s="49"/>
+      <c r="H127" s="50"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
@@ -4736,8 +4739,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G128" s="43"/>
-      <c r="H128" s="46"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="50"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
@@ -4759,8 +4762,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G129" s="43"/>
-      <c r="H129" s="46"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="50"/>
     </row>
     <row r="130" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
@@ -4782,8 +4785,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G130" s="43"/>
-      <c r="H130" s="46"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="50"/>
     </row>
     <row r="131" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
@@ -4805,8 +4808,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G131" s="43"/>
-      <c r="H131" s="46"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="50"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
@@ -4828,8 +4831,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G132" s="43"/>
-      <c r="H132" s="46"/>
+      <c r="G132" s="49"/>
+      <c r="H132" s="50"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
@@ -4851,8 +4854,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G133" s="43"/>
-      <c r="H133" s="46"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="50"/>
     </row>
     <row r="134" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
@@ -4874,8 +4877,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G134" s="43"/>
-      <c r="H134" s="46"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="50"/>
       <c r="I134" s="22"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4898,8 +4901,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G135" s="43"/>
-      <c r="H135" s="46"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="50"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
@@ -4921,8 +4924,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G136" s="43"/>
-      <c r="H136" s="46"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="50"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
@@ -4944,8 +4947,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G137" s="43"/>
-      <c r="H137" s="46"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="50"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
@@ -4967,8 +4970,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G138" s="43"/>
-      <c r="H138" s="46"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="50"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
@@ -4990,8 +4993,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G139" s="43"/>
-      <c r="H139" s="46"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="50"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
@@ -5013,8 +5016,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G140" s="43"/>
-      <c r="H140" s="46"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="50"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
@@ -5036,8 +5039,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G141" s="43"/>
-      <c r="H141" s="46"/>
+      <c r="G141" s="49"/>
+      <c r="H141" s="50"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
@@ -5059,8 +5062,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G142" s="43"/>
-      <c r="H142" s="46"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="50"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
@@ -5082,8 +5085,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G143" s="43"/>
-      <c r="H143" s="46"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="50"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
@@ -5105,8 +5108,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G144" s="43"/>
-      <c r="H144" s="46"/>
+      <c r="G144" s="49"/>
+      <c r="H144" s="50"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
@@ -5128,8 +5131,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G145" s="43"/>
-      <c r="H145" s="46"/>
+      <c r="G145" s="49"/>
+      <c r="H145" s="50"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
@@ -5151,8 +5154,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G146" s="43"/>
-      <c r="H146" s="46"/>
+      <c r="G146" s="49"/>
+      <c r="H146" s="50"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
@@ -5174,8 +5177,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G147" s="43"/>
-      <c r="H147" s="46"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="50"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
@@ -5197,8 +5200,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G148" s="43"/>
-      <c r="H148" s="46"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="50"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
@@ -5220,8 +5223,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G149" s="43"/>
-      <c r="H149" s="46"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="50"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
@@ -5243,8 +5246,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G150" s="43"/>
-      <c r="H150" s="46"/>
+      <c r="G150" s="49"/>
+      <c r="H150" s="50"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
@@ -5266,8 +5269,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G151" s="43"/>
-      <c r="H151" s="46"/>
+      <c r="G151" s="49"/>
+      <c r="H151" s="50"/>
     </row>
     <row r="152" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
@@ -5289,8 +5292,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G152" s="43"/>
-      <c r="H152" s="46"/>
+      <c r="G152" s="49"/>
+      <c r="H152" s="50"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
@@ -5312,8 +5315,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G153" s="43"/>
-      <c r="H153" s="46"/>
+      <c r="G153" s="49"/>
+      <c r="H153" s="50"/>
     </row>
     <row r="154" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
@@ -5335,8 +5338,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G154" s="43"/>
-      <c r="H154" s="46"/>
+      <c r="G154" s="49"/>
+      <c r="H154" s="50"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
@@ -5358,8 +5361,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G155" s="43"/>
-      <c r="H155" s="46"/>
+      <c r="G155" s="49"/>
+      <c r="H155" s="50"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
@@ -5381,8 +5384,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G156" s="43"/>
-      <c r="H156" s="46"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="50"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
@@ -5404,8 +5407,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G157" s="43"/>
-      <c r="H157" s="46"/>
+      <c r="G157" s="49"/>
+      <c r="H157" s="50"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
@@ -5427,8 +5430,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G158" s="43"/>
-      <c r="H158" s="46"/>
+      <c r="G158" s="49"/>
+      <c r="H158" s="50"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
@@ -5450,8 +5453,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G159" s="43"/>
-      <c r="H159" s="46"/>
+      <c r="G159" s="49"/>
+      <c r="H159" s="50"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
@@ -5473,8 +5476,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G160" s="43"/>
-      <c r="H160" s="46"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="50"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
@@ -5496,8 +5499,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G161" s="43"/>
-      <c r="H161" s="46"/>
+      <c r="G161" s="49"/>
+      <c r="H161" s="50"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
@@ -5519,8 +5522,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G162" s="43"/>
-      <c r="H162" s="46"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="50"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
@@ -5542,8 +5545,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G163" s="43"/>
-      <c r="H163" s="46"/>
+      <c r="G163" s="49"/>
+      <c r="H163" s="50"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
@@ -5565,8 +5568,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G164" s="43"/>
-      <c r="H164" s="46"/>
+      <c r="G164" s="49"/>
+      <c r="H164" s="50"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
@@ -5588,8 +5591,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G165" s="43"/>
-      <c r="H165" s="46"/>
+      <c r="G165" s="49"/>
+      <c r="H165" s="50"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
@@ -5611,8 +5614,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G166" s="43"/>
-      <c r="H166" s="46"/>
+      <c r="G166" s="49"/>
+      <c r="H166" s="50"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
@@ -5634,8 +5637,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G167" s="43"/>
-      <c r="H167" s="46"/>
+      <c r="G167" s="49"/>
+      <c r="H167" s="50"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
@@ -5657,8 +5660,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G168" s="43"/>
-      <c r="H168" s="46"/>
+      <c r="G168" s="49"/>
+      <c r="H168" s="50"/>
     </row>
     <row r="169" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
@@ -5680,8 +5683,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G169" s="43"/>
-      <c r="H169" s="46"/>
+      <c r="G169" s="49"/>
+      <c r="H169" s="50"/>
     </row>
     <row r="170" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
@@ -5703,8 +5706,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G170" s="43"/>
-      <c r="H170" s="46"/>
+      <c r="G170" s="49"/>
+      <c r="H170" s="50"/>
     </row>
     <row r="171" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
@@ -5726,8 +5729,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G171" s="43"/>
-      <c r="H171" s="46"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="50"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
@@ -5749,8 +5752,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G172" s="43"/>
-      <c r="H172" s="46"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="50"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
@@ -5772,8 +5775,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G173" s="43"/>
-      <c r="H173" s="46"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="50"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
@@ -5795,8 +5798,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G174" s="43"/>
-      <c r="H174" s="46"/>
+      <c r="G174" s="49"/>
+      <c r="H174" s="50"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
@@ -5818,8 +5821,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G175" s="43"/>
-      <c r="H175" s="46"/>
+      <c r="G175" s="49"/>
+      <c r="H175" s="50"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
@@ -5841,8 +5844,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G176" s="43"/>
-      <c r="H176" s="46"/>
+      <c r="G176" s="49"/>
+      <c r="H176" s="50"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
@@ -5864,8 +5867,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G177" s="43"/>
-      <c r="H177" s="46"/>
+      <c r="G177" s="49"/>
+      <c r="H177" s="50"/>
     </row>
     <row r="178" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A178" s="38">
@@ -5874,7 +5877,7 @@
       <c r="B178" s="23">
         <v>5</v>
       </c>
-      <c r="C178" s="52" t="s">
+      <c r="C178" s="39" t="s">
         <v>234</v>
       </c>
       <c r="D178" s="10" t="s">
@@ -5887,20 +5890,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G178" s="43"/>
-      <c r="H178" s="46"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G178" s="49"/>
+      <c r="H178" s="50"/>
+    </row>
+    <row r="179" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
         <v>177</v>
       </c>
       <c r="B179" s="23">
         <v>5</v>
       </c>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18" t="str">
+      <c r="C179" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" s="18">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H179" s="22"/>
     </row>
@@ -9348,17 +9359,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G8:G32"/>
-    <mergeCell ref="H8:H32"/>
     <mergeCell ref="G33:G53"/>
     <mergeCell ref="H33:H53"/>
     <mergeCell ref="G54:G122"/>
     <mergeCell ref="H54:H122"/>
     <mergeCell ref="G123:G178"/>
     <mergeCell ref="H123:H178"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G32"/>
+    <mergeCell ref="H8:H32"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H33 H54 C138 C144 C161 C167 C169 H192:H1048576 H123">
     <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Stop current Development">
@@ -9401,8 +9412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B167" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176:D177"/>
+    <sheetView tabSelected="1" topLeftCell="B176" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176:H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -9419,16 +9430,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -14265,7 +14276,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="9">
         <f>'Bug Metrics'!$B182</f>
@@ -14279,23 +14290,45 @@
         <f>'Bug Metrics'!$D178</f>
         <v>Information about round number, status and student edollar balance is repeated on home page</v>
       </c>
-      <c r="E177" s="11"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="16"/>
-    </row>
-    <row r="178" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+      <c r="E177" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" s="14">
+        <v>43786</v>
+      </c>
+      <c r="G177" s="14">
+        <v>43786</v>
+      </c>
+      <c r="H177" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
       <c r="A178" s="9"/>
       <c r="B178" s="9">
         <f>'Bug Metrics'!$B183</f>
         <v>5</v>
       </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="16"/>
+      <c r="C178" s="9" t="str">
+        <f>'Bug Metrics'!$C179</f>
+        <v>Dump</v>
+      </c>
+      <c r="D178" s="10" t="str">
+        <f>'Bug Metrics'!$D179</f>
+        <v>Test case 185-dump - section-student is populated with ALL successful bids across round 1 and round 2, should only should previous round</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F178" s="14">
+        <v>43786</v>
+      </c>
+      <c r="G178" s="14">
+        <v>43786</v>
+      </c>
+      <c r="H178" s="16" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A179" s="9"/>
@@ -22648,49 +22681,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="containsBlanks" dxfId="8" priority="11">
+    <cfRule type="containsBlanks" dxfId="0" priority="11">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="containsBlanks" dxfId="5" priority="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="8">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCC0862-7D24-4E51-BA54-63CEEC655B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF860D6-2C5F-4811-B4E7-DE538660199B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1115,6 +1115,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,12 +1148,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,27 +1157,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1210,6 +1189,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFABDFDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1700,10 +1700,10 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="84.36328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,37 +1775,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="72" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" topLeftCell="B152" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123:G178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="74.54296875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="34.54296875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="74.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="33" customWidth="1"/>
     <col min="9" max="9" width="46" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="19"/>
+    <col min="10" max="16384" width="14.44140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -1850,16 +1850,16 @@
       <c r="F3" s="25">
         <v>5</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="46">
         <f>SUM(F3:F7)</f>
         <v>26</v>
       </c>
-      <c r="H3" s="41" t="str">
+      <c r="H3" s="43" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -1878,10 +1878,10 @@
       <c r="F4" s="25">
         <v>1</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="47"/>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -1900,10 +1900,10 @@
       <c r="F5" s="25">
         <v>5</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="47"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -1922,10 +1922,10 @@
       <c r="F6" s="25">
         <v>5</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="47"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -1944,10 +1944,10 @@
       <c r="F7" s="25">
         <v>10</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="47"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -1966,16 +1966,16 @@
       <c r="F8" s="25">
         <v>5</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="48">
         <f>SUM(F8:F32)</f>
         <v>156</v>
       </c>
-      <c r="H8" s="47" t="str">
+      <c r="H8" s="49" t="str">
         <f xml:space="preserve"> IF(G8&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -1994,10 +1994,10 @@
       <c r="F9" s="25">
         <v>5</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="48"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -2016,10 +2016,10 @@
       <c r="F10" s="25">
         <v>5</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11" spans="1:8" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="48"/>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25">
         <v>9</v>
       </c>
@@ -2038,10 +2038,10 @@
       <c r="F11" s="25">
         <v>10</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="48"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25">
         <v>10</v>
       </c>
@@ -2060,10 +2060,10 @@
       <c r="F12" s="25">
         <v>10</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="48"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25">
         <v>11</v>
       </c>
@@ -2082,10 +2082,10 @@
       <c r="F13" s="25">
         <v>10</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="48"/>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25">
         <v>12</v>
       </c>
@@ -2104,10 +2104,10 @@
       <c r="F14" s="25">
         <v>10</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="48"/>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25">
         <v>13</v>
       </c>
@@ -2126,10 +2126,10 @@
       <c r="F15" s="25">
         <v>10</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="48"/>
-    </row>
-    <row r="16" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G15" s="48"/>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>14</v>
       </c>
@@ -2148,10 +2148,10 @@
       <c r="F16" s="25">
         <v>5</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G16" s="48"/>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>15</v>
       </c>
@@ -2170,10 +2170,10 @@
       <c r="F17" s="25">
         <v>1</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="48"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>16</v>
       </c>
@@ -2192,10 +2192,10 @@
       <c r="F18" s="25">
         <v>5</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="48"/>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>17</v>
       </c>
@@ -2214,10 +2214,10 @@
       <c r="F19" s="25">
         <v>1</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="48"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G19" s="48"/>
+      <c r="H19" s="50"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -2237,10 +2237,10 @@
         <f t="shared" ref="F20:F187" si="0">IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G20" s="48"/>
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -2260,10 +2260,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="48"/>
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -2283,10 +2283,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G22" s="48"/>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -2306,10 +2306,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="48"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G23" s="48"/>
+      <c r="H23" s="50"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -2329,10 +2329,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="48"/>
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -2352,10 +2352,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="48"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G25" s="48"/>
+      <c r="H25" s="50"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -2375,10 +2375,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="48"/>
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -2398,10 +2398,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="48"/>
-    </row>
-    <row r="28" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="48"/>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -2421,10 +2421,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="48"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="48"/>
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -2444,10 +2444,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G29" s="48"/>
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -2467,10 +2467,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="48"/>
-    </row>
-    <row r="31" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="48"/>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -2490,10 +2490,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="48"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="48"/>
+      <c r="H31" s="50"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -2513,10 +2513,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="48"/>
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -2536,16 +2536,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="40">
         <f>SUM(F33:F53)</f>
         <v>142</v>
       </c>
-      <c r="H33" s="50" t="str">
+      <c r="H33" s="41" t="str">
         <f xml:space="preserve"> IF(G33&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -2565,10 +2565,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
-    </row>
-    <row r="35" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -2588,8 +2588,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
@@ -2611,8 +2611,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
@@ -2634,8 +2634,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
@@ -2657,10 +2657,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-    </row>
-    <row r="39" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
+    </row>
+    <row r="39" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -2680,10 +2680,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-    </row>
-    <row r="40" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+    </row>
+    <row r="40" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -2703,10 +2703,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -2726,10 +2726,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-    </row>
-    <row r="42" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
+    </row>
+    <row r="42" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -2749,10 +2749,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
-    </row>
-    <row r="43" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+    </row>
+    <row r="43" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -2772,10 +2772,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="50"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -2795,10 +2795,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-    </row>
-    <row r="45" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
+    </row>
+    <row r="45" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -2818,10 +2818,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50"/>
-    </row>
-    <row r="46" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+    </row>
+    <row r="46" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -2841,10 +2841,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-    </row>
-    <row r="47" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+    </row>
+    <row r="47" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -2864,10 +2864,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-    </row>
-    <row r="48" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+    </row>
+    <row r="48" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -2887,10 +2887,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -2910,10 +2910,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
-    </row>
-    <row r="50" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
+    </row>
+    <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -2933,10 +2933,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
-    </row>
-    <row r="51" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
+    </row>
+    <row r="51" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -2956,10 +2956,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="50"/>
-    </row>
-    <row r="52" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+    </row>
+    <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -2979,10 +2979,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="53" spans="1:8" ht="29.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
+    </row>
+    <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -3002,10 +3002,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="50"/>
-    </row>
-    <row r="54" spans="1:8" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="40"/>
+      <c r="H53" s="41"/>
+    </row>
+    <row r="54" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -3025,16 +3025,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G54" s="40">
         <f>SUM(F54:F122)</f>
         <v>321</v>
       </c>
-      <c r="H54" s="50" t="str">
+      <c r="H54" s="41" t="str">
         <f xml:space="preserve"> IF(G54&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -3054,8 +3054,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="50"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
@@ -3077,10 +3077,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="50"/>
-    </row>
-    <row r="57" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -3100,10 +3100,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50"/>
-    </row>
-    <row r="58" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="40"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -3123,10 +3123,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="50"/>
-    </row>
-    <row r="59" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="40"/>
+      <c r="H58" s="41"/>
+    </row>
+    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>57</v>
       </c>
@@ -3146,10 +3146,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="50"/>
-    </row>
-    <row r="60" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+    </row>
+    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>58</v>
       </c>
@@ -3169,10 +3169,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="50"/>
-    </row>
-    <row r="61" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="40"/>
+      <c r="H60" s="41"/>
+    </row>
+    <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -3192,10 +3192,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="50"/>
-    </row>
-    <row r="62" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G61" s="40"/>
+      <c r="H61" s="41"/>
+    </row>
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -3215,10 +3215,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="50"/>
-    </row>
-    <row r="63" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="40"/>
+      <c r="H62" s="41"/>
+    </row>
+    <row r="63" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -3238,10 +3238,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="50"/>
-    </row>
-    <row r="64" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
+    </row>
+    <row r="64" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -3261,10 +3261,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G64" s="49"/>
-      <c r="H64" s="50"/>
-    </row>
-    <row r="65" spans="1:8" ht="29.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="40"/>
+      <c r="H64" s="41"/>
+    </row>
+    <row r="65" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>63</v>
       </c>
@@ -3284,8 +3284,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="50"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
@@ -3307,10 +3307,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
-    </row>
-    <row r="67" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G66" s="40"/>
+      <c r="H66" s="41"/>
+    </row>
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>65</v>
       </c>
@@ -3330,8 +3330,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="50"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35">
@@ -3353,8 +3353,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="50"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
@@ -3376,8 +3376,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="50"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
@@ -3399,10 +3399,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G70" s="49"/>
-      <c r="H70" s="50"/>
-    </row>
-    <row r="71" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G70" s="40"/>
+      <c r="H70" s="41"/>
+    </row>
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>69</v>
       </c>
@@ -3422,10 +3422,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="50"/>
-    </row>
-    <row r="72" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G71" s="40"/>
+      <c r="H71" s="41"/>
+    </row>
+    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A72" s="35">
         <v>70</v>
       </c>
@@ -3445,10 +3445,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="50"/>
-    </row>
-    <row r="73" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G72" s="40"/>
+      <c r="H72" s="41"/>
+    </row>
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>71</v>
       </c>
@@ -3468,10 +3468,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G73" s="49"/>
-      <c r="H73" s="50"/>
-    </row>
-    <row r="74" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G73" s="40"/>
+      <c r="H73" s="41"/>
+    </row>
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A74" s="35">
         <v>72</v>
       </c>
@@ -3491,8 +3491,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="50"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="41"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
@@ -3514,10 +3514,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="50"/>
-    </row>
-    <row r="76" spans="1:8" ht="43.8" x14ac:dyDescent="0.25">
+      <c r="G75" s="40"/>
+      <c r="H75" s="41"/>
+    </row>
+    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A76" s="35">
         <v>74</v>
       </c>
@@ -3537,8 +3537,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G76" s="49"/>
-      <c r="H76" s="50"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="41"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
@@ -3560,8 +3560,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="50"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="41"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
@@ -3583,10 +3583,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G78" s="49"/>
-      <c r="H78" s="50"/>
-    </row>
-    <row r="79" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G78" s="40"/>
+      <c r="H78" s="41"/>
+    </row>
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>77</v>
       </c>
@@ -3606,10 +3606,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G79" s="49"/>
-      <c r="H79" s="50"/>
-    </row>
-    <row r="80" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G79" s="40"/>
+      <c r="H79" s="41"/>
+    </row>
+    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="35">
         <v>78</v>
       </c>
@@ -3629,10 +3629,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="50"/>
-    </row>
-    <row r="81" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G80" s="40"/>
+      <c r="H80" s="41"/>
+    </row>
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>79</v>
       </c>
@@ -3652,8 +3652,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G81" s="49"/>
-      <c r="H81" s="50"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="41"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35">
@@ -3675,8 +3675,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G82" s="49"/>
-      <c r="H82" s="50"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="41"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
@@ -3698,8 +3698,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G83" s="49"/>
-      <c r="H83" s="50"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="41"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
@@ -3721,8 +3721,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G84" s="49"/>
-      <c r="H84" s="50"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="41"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
@@ -3744,10 +3744,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G85" s="49"/>
-      <c r="H85" s="50"/>
-    </row>
-    <row r="86" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G85" s="40"/>
+      <c r="H85" s="41"/>
+    </row>
+    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A86" s="35">
         <v>84</v>
       </c>
@@ -3767,8 +3767,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G86" s="49"/>
-      <c r="H86" s="50"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="41"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
@@ -3790,10 +3790,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G87" s="49"/>
-      <c r="H87" s="50"/>
-    </row>
-    <row r="88" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G87" s="40"/>
+      <c r="H87" s="41"/>
+    </row>
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="35">
         <v>86</v>
       </c>
@@ -3813,8 +3813,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G88" s="49"/>
-      <c r="H88" s="50"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="41"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
@@ -3836,8 +3836,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G89" s="49"/>
-      <c r="H89" s="50"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="41"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35">
@@ -3859,8 +3859,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G90" s="49"/>
-      <c r="H90" s="50"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="41"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
@@ -3882,8 +3882,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G91" s="49"/>
-      <c r="H91" s="50"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="41"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35">
@@ -3905,8 +3905,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G92" s="49"/>
-      <c r="H92" s="50"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="41"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
@@ -3928,8 +3928,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G93" s="49"/>
-      <c r="H93" s="50"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="41"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35">
@@ -3951,8 +3951,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G94" s="49"/>
-      <c r="H94" s="50"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="41"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
@@ -3974,10 +3974,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G95" s="49"/>
-      <c r="H95" s="50"/>
-    </row>
-    <row r="96" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G95" s="40"/>
+      <c r="H95" s="41"/>
+    </row>
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A96" s="35">
         <v>94</v>
       </c>
@@ -3997,10 +3997,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G96" s="49"/>
-      <c r="H96" s="50"/>
-    </row>
-    <row r="97" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G96" s="40"/>
+      <c r="H96" s="41"/>
+    </row>
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <v>95</v>
       </c>
@@ -4020,10 +4020,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G97" s="49"/>
-      <c r="H97" s="50"/>
-    </row>
-    <row r="98" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G97" s="40"/>
+      <c r="H97" s="41"/>
+    </row>
+    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A98" s="35">
         <v>96</v>
       </c>
@@ -4043,10 +4043,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G98" s="49"/>
-      <c r="H98" s="50"/>
-    </row>
-    <row r="99" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G98" s="40"/>
+      <c r="H98" s="41"/>
+    </row>
+    <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>97</v>
       </c>
@@ -4066,10 +4066,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G99" s="49"/>
-      <c r="H99" s="50"/>
-    </row>
-    <row r="100" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G99" s="40"/>
+      <c r="H99" s="41"/>
+    </row>
+    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A100" s="35">
         <v>98</v>
       </c>
@@ -4089,8 +4089,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G100" s="49"/>
-      <c r="H100" s="50"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="41"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
@@ -4112,10 +4112,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="50"/>
-    </row>
-    <row r="102" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G101" s="40"/>
+      <c r="H101" s="41"/>
+    </row>
+    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A102" s="35">
         <v>100</v>
       </c>
@@ -4135,8 +4135,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G102" s="49"/>
-      <c r="H102" s="50"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="41"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35">
@@ -4158,8 +4158,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G103" s="49"/>
-      <c r="H103" s="50"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="41"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="35">
@@ -4181,8 +4181,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G104" s="49"/>
-      <c r="H104" s="50"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="41"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35">
@@ -4204,8 +4204,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G105" s="49"/>
-      <c r="H105" s="50"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="41"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35">
@@ -4227,10 +4227,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G106" s="49"/>
-      <c r="H106" s="50"/>
-    </row>
-    <row r="107" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G106" s="40"/>
+      <c r="H106" s="41"/>
+    </row>
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
         <v>105</v>
       </c>
@@ -4250,10 +4250,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G107" s="49"/>
-      <c r="H107" s="50"/>
-    </row>
-    <row r="108" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G107" s="40"/>
+      <c r="H107" s="41"/>
+    </row>
+    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A108" s="35">
         <v>106</v>
       </c>
@@ -4273,10 +4273,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G108" s="49"/>
-      <c r="H108" s="50"/>
-    </row>
-    <row r="109" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G108" s="40"/>
+      <c r="H108" s="41"/>
+    </row>
+    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A109" s="35">
         <v>107</v>
       </c>
@@ -4296,10 +4296,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G109" s="49"/>
-      <c r="H109" s="50"/>
-    </row>
-    <row r="110" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G109" s="40"/>
+      <c r="H109" s="41"/>
+    </row>
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A110" s="35">
         <v>108</v>
       </c>
@@ -4319,8 +4319,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G110" s="49"/>
-      <c r="H110" s="50"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="41"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35">
@@ -4342,8 +4342,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G111" s="49"/>
-      <c r="H111" s="50"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="41"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="35">
@@ -4365,10 +4365,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G112" s="49"/>
-      <c r="H112" s="50"/>
-    </row>
-    <row r="113" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G112" s="40"/>
+      <c r="H112" s="41"/>
+    </row>
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A113" s="35">
         <v>111</v>
       </c>
@@ -4388,10 +4388,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G113" s="49"/>
-      <c r="H113" s="50"/>
-    </row>
-    <row r="114" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G113" s="40"/>
+      <c r="H113" s="41"/>
+    </row>
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A114" s="35">
         <v>112</v>
       </c>
@@ -4411,8 +4411,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G114" s="49"/>
-      <c r="H114" s="50"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="41"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
@@ -4434,10 +4434,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G115" s="49"/>
-      <c r="H115" s="50"/>
-    </row>
-    <row r="116" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G115" s="40"/>
+      <c r="H115" s="41"/>
+    </row>
+    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A116" s="35">
         <v>114</v>
       </c>
@@ -4457,10 +4457,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G116" s="49"/>
-      <c r="H116" s="50"/>
-    </row>
-    <row r="117" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G116" s="40"/>
+      <c r="H116" s="41"/>
+    </row>
+    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A117" s="35">
         <v>115</v>
       </c>
@@ -4480,10 +4480,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G117" s="49"/>
-      <c r="H117" s="50"/>
-    </row>
-    <row r="118" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G117" s="40"/>
+      <c r="H117" s="41"/>
+    </row>
+    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A118" s="35">
         <v>116</v>
       </c>
@@ -4503,10 +4503,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G118" s="49"/>
-      <c r="H118" s="50"/>
-    </row>
-    <row r="119" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G118" s="40"/>
+      <c r="H118" s="41"/>
+    </row>
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A119" s="35">
         <v>117</v>
       </c>
@@ -4526,10 +4526,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G119" s="49"/>
-      <c r="H119" s="50"/>
-    </row>
-    <row r="120" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G119" s="40"/>
+      <c r="H119" s="41"/>
+    </row>
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A120" s="35">
         <v>118</v>
       </c>
@@ -4549,10 +4549,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G120" s="49"/>
-      <c r="H120" s="50"/>
-    </row>
-    <row r="121" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G120" s="40"/>
+      <c r="H120" s="41"/>
+    </row>
+    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A121" s="35">
         <v>119</v>
       </c>
@@ -4572,10 +4572,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G121" s="49"/>
-      <c r="H121" s="50"/>
-    </row>
-    <row r="122" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G121" s="40"/>
+      <c r="H121" s="41"/>
+    </row>
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A122" s="35">
         <v>120</v>
       </c>
@@ -4595,8 +4595,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G122" s="49"/>
-      <c r="H122" s="50"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="41"/>
     </row>
     <row r="123" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
@@ -4618,11 +4618,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G123" s="49">
-        <f>SUM(F123:F178)</f>
-        <v>265</v>
-      </c>
-      <c r="H123" s="50" t="str">
+      <c r="G123" s="40">
+        <f>SUM(F123:F179)</f>
+        <v>270</v>
+      </c>
+      <c r="H123" s="41" t="str">
         <f xml:space="preserve"> IF(G123&lt;10,Instructions!$B$7,Instructions!$B$8)</f>
         <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
@@ -4647,8 +4647,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G124" s="49"/>
-      <c r="H124" s="50"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="41"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35">
@@ -4670,8 +4670,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G125" s="49"/>
-      <c r="H125" s="50"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="41"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35">
@@ -4693,8 +4693,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G126" s="49"/>
-      <c r="H126" s="50"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="41"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35">
@@ -4716,8 +4716,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G127" s="49"/>
-      <c r="H127" s="50"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="41"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
@@ -4739,8 +4739,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G128" s="49"/>
-      <c r="H128" s="50"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="41"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
@@ -4762,10 +4762,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G129" s="49"/>
-      <c r="H129" s="50"/>
-    </row>
-    <row r="130" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G129" s="40"/>
+      <c r="H129" s="41"/>
+    </row>
+    <row r="130" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
         <v>128</v>
       </c>
@@ -4785,10 +4785,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G130" s="49"/>
-      <c r="H130" s="50"/>
-    </row>
-    <row r="131" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G130" s="40"/>
+      <c r="H130" s="41"/>
+    </row>
+    <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>129</v>
       </c>
@@ -4808,8 +4808,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G131" s="49"/>
-      <c r="H131" s="50"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="41"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
@@ -4831,8 +4831,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G132" s="49"/>
-      <c r="H132" s="50"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="41"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
@@ -4854,10 +4854,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G133" s="49"/>
-      <c r="H133" s="50"/>
-    </row>
-    <row r="134" spans="1:9" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G133" s="40"/>
+      <c r="H133" s="41"/>
+    </row>
+    <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>132</v>
       </c>
@@ -4877,8 +4877,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G134" s="49"/>
-      <c r="H134" s="50"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="41"/>
       <c r="I134" s="22"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4901,8 +4901,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G135" s="49"/>
-      <c r="H135" s="50"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="41"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
@@ -4924,8 +4924,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G136" s="49"/>
-      <c r="H136" s="50"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="41"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
@@ -4947,8 +4947,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G137" s="49"/>
-      <c r="H137" s="50"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="41"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
@@ -4970,8 +4970,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G138" s="49"/>
-      <c r="H138" s="50"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="41"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
@@ -4993,8 +4993,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G139" s="49"/>
-      <c r="H139" s="50"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="41"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
@@ -5016,8 +5016,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G140" s="49"/>
-      <c r="H140" s="50"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="41"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
@@ -5039,8 +5039,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G141" s="49"/>
-      <c r="H141" s="50"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="41"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
@@ -5062,8 +5062,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G142" s="49"/>
-      <c r="H142" s="50"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="41"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
@@ -5085,8 +5085,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G143" s="49"/>
-      <c r="H143" s="50"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="41"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
@@ -5108,8 +5108,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G144" s="49"/>
-      <c r="H144" s="50"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="41"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
@@ -5131,8 +5131,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G145" s="49"/>
-      <c r="H145" s="50"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="41"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
@@ -5154,8 +5154,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G146" s="49"/>
-      <c r="H146" s="50"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="41"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
@@ -5177,8 +5177,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G147" s="49"/>
-      <c r="H147" s="50"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="41"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
@@ -5200,8 +5200,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G148" s="49"/>
-      <c r="H148" s="50"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="41"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
@@ -5223,8 +5223,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G149" s="49"/>
-      <c r="H149" s="50"/>
+      <c r="G149" s="40"/>
+      <c r="H149" s="41"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
@@ -5246,8 +5246,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G150" s="49"/>
-      <c r="H150" s="50"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="41"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
@@ -5269,10 +5269,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G151" s="49"/>
-      <c r="H151" s="50"/>
-    </row>
-    <row r="152" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G151" s="40"/>
+      <c r="H151" s="41"/>
+    </row>
+    <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
         <v>150</v>
       </c>
@@ -5292,8 +5292,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G152" s="49"/>
-      <c r="H152" s="50"/>
+      <c r="G152" s="40"/>
+      <c r="H152" s="41"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
@@ -5315,10 +5315,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G153" s="49"/>
-      <c r="H153" s="50"/>
-    </row>
-    <row r="154" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G153" s="40"/>
+      <c r="H153" s="41"/>
+    </row>
+    <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
         <v>152</v>
       </c>
@@ -5338,8 +5338,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G154" s="49"/>
-      <c r="H154" s="50"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="41"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
@@ -5361,8 +5361,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G155" s="49"/>
-      <c r="H155" s="50"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="41"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
@@ -5384,8 +5384,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G156" s="49"/>
-      <c r="H156" s="50"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="41"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
@@ -5407,8 +5407,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G157" s="49"/>
-      <c r="H157" s="50"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="41"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
@@ -5430,8 +5430,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G158" s="49"/>
-      <c r="H158" s="50"/>
+      <c r="G158" s="40"/>
+      <c r="H158" s="41"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
@@ -5453,8 +5453,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G159" s="49"/>
-      <c r="H159" s="50"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="41"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
@@ -5476,8 +5476,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G160" s="49"/>
-      <c r="H160" s="50"/>
+      <c r="G160" s="40"/>
+      <c r="H160" s="41"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
@@ -5499,8 +5499,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G161" s="49"/>
-      <c r="H161" s="50"/>
+      <c r="G161" s="40"/>
+      <c r="H161" s="41"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
@@ -5522,8 +5522,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G162" s="49"/>
-      <c r="H162" s="50"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="41"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
@@ -5545,8 +5545,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G163" s="49"/>
-      <c r="H163" s="50"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="41"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
@@ -5568,8 +5568,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G164" s="49"/>
-      <c r="H164" s="50"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="41"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
@@ -5591,8 +5591,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G165" s="49"/>
-      <c r="H165" s="50"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="41"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
@@ -5614,8 +5614,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G166" s="49"/>
-      <c r="H166" s="50"/>
+      <c r="G166" s="40"/>
+      <c r="H166" s="41"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
@@ -5637,8 +5637,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G167" s="49"/>
-      <c r="H167" s="50"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="41"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
@@ -5660,10 +5660,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G168" s="49"/>
-      <c r="H168" s="50"/>
-    </row>
-    <row r="169" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G168" s="40"/>
+      <c r="H168" s="41"/>
+    </row>
+    <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
         <v>167</v>
       </c>
@@ -5683,10 +5683,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G169" s="49"/>
-      <c r="H169" s="50"/>
-    </row>
-    <row r="170" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G169" s="40"/>
+      <c r="H169" s="41"/>
+    </row>
+    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>168</v>
       </c>
@@ -5706,10 +5706,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G170" s="49"/>
-      <c r="H170" s="50"/>
-    </row>
-    <row r="171" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G170" s="40"/>
+      <c r="H170" s="41"/>
+    </row>
+    <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
         <v>169</v>
       </c>
@@ -5729,8 +5729,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G171" s="49"/>
-      <c r="H171" s="50"/>
+      <c r="G171" s="40"/>
+      <c r="H171" s="41"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
@@ -5752,8 +5752,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G172" s="49"/>
-      <c r="H172" s="50"/>
+      <c r="G172" s="40"/>
+      <c r="H172" s="41"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
@@ -5775,8 +5775,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G173" s="49"/>
-      <c r="H173" s="50"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="41"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
@@ -5798,8 +5798,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G174" s="49"/>
-      <c r="H174" s="50"/>
+      <c r="G174" s="40"/>
+      <c r="H174" s="41"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
@@ -5821,8 +5821,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G175" s="49"/>
-      <c r="H175" s="50"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="41"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
@@ -5844,8 +5844,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G176" s="49"/>
-      <c r="H176" s="50"/>
+      <c r="G176" s="40"/>
+      <c r="H176" s="41"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
@@ -5867,10 +5867,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G177" s="49"/>
-      <c r="H177" s="50"/>
-    </row>
-    <row r="178" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+      <c r="G177" s="40"/>
+      <c r="H177" s="41"/>
+    </row>
+    <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="38">
         <v>176</v>
       </c>
@@ -5890,10 +5890,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G178" s="49"/>
-      <c r="H178" s="50"/>
-    </row>
-    <row r="179" spans="1:8" ht="29.2" x14ac:dyDescent="0.25">
+      <c r="G178" s="40"/>
+      <c r="H178" s="41"/>
+    </row>
+    <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
         <v>177</v>
       </c>
@@ -9359,17 +9359,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G32"/>
+    <mergeCell ref="H8:H32"/>
     <mergeCell ref="G33:G53"/>
     <mergeCell ref="H33:H53"/>
     <mergeCell ref="G54:G122"/>
     <mergeCell ref="H54:H122"/>
     <mergeCell ref="G123:G178"/>
     <mergeCell ref="H123:H178"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G8:G32"/>
-    <mergeCell ref="H8:H32"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H33 H54 C138 C144 C161 C167 C169 H192:H1048576 H123">
     <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Stop current Development">
@@ -9412,24 +9412,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B176" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176:H178"/>
+    <sheetView topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="18" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="5"/>
+    <col min="9" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <f>'Bug Metrics'!$A3</f>
         <v>1</v>
@@ -9497,7 +9497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>'Bug Metrics'!$A4</f>
         <v>2</v>
@@ -9527,7 +9527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f>'Bug Metrics'!$A5</f>
         <v>3</v>
@@ -9557,7 +9557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f>'Bug Metrics'!$A6</f>
         <v>4</v>
@@ -9585,7 +9585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>'Bug Metrics'!$A7</f>
         <v>5</v>
@@ -9615,7 +9615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f>'Bug Metrics'!$A8</f>
         <v>6</v>
@@ -9645,7 +9645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f>'Bug Metrics'!$A9</f>
         <v>7</v>
@@ -9675,7 +9675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f>'Bug Metrics'!$A10</f>
         <v>8</v>
@@ -9705,7 +9705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f>'Bug Metrics'!$A11</f>
         <v>9</v>
@@ -9735,7 +9735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f>'Bug Metrics'!$A12</f>
         <v>10</v>
@@ -9765,7 +9765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <f>'Bug Metrics'!$A13</f>
         <v>11</v>
@@ -9795,7 +9795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <f>'Bug Metrics'!$A14</f>
         <v>12</v>
@@ -9825,7 +9825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f>'Bug Metrics'!$A15</f>
         <v>13</v>
@@ -9855,7 +9855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f>'Bug Metrics'!$A16</f>
         <v>14</v>
@@ -9885,7 +9885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f>'Bug Metrics'!$A17</f>
         <v>15</v>
@@ -9915,7 +9915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f>'Bug Metrics'!$A18</f>
         <v>16</v>
@@ -9945,7 +9945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f>'Bug Metrics'!$A19</f>
         <v>17</v>
@@ -9975,7 +9975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f>'Bug Metrics'!$A20</f>
         <v>18</v>
@@ -10005,7 +10005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f>'Bug Metrics'!$A21</f>
         <v>19</v>
@@ -10035,7 +10035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f>'Bug Metrics'!$A22</f>
         <v>20</v>
@@ -10065,7 +10065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f>'Bug Metrics'!$A23</f>
         <v>21</v>
@@ -10095,7 +10095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f>'Bug Metrics'!$A24</f>
         <v>22</v>
@@ -10125,7 +10125,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f>'Bug Metrics'!$A25</f>
         <v>23</v>
@@ -10155,7 +10155,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <f>'Bug Metrics'!$A26</f>
         <v>24</v>
@@ -10185,7 +10185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f>'Bug Metrics'!$A27</f>
         <v>25</v>
@@ -10215,7 +10215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <f>'Bug Metrics'!$A28</f>
         <v>26</v>
@@ -10245,7 +10245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <f>'Bug Metrics'!$A29</f>
         <v>27</v>
@@ -10275,7 +10275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <f>'Bug Metrics'!$A30</f>
         <v>28</v>
@@ -10305,7 +10305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <f>'Bug Metrics'!$A31</f>
         <v>29</v>
@@ -10335,7 +10335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <f>'Bug Metrics'!$A32</f>
         <v>30</v>
@@ -10365,7 +10365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <f>'Bug Metrics'!$A33</f>
         <v>31</v>
@@ -10395,7 +10395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <f>'Bug Metrics'!$A34</f>
         <v>32</v>
@@ -10425,7 +10425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <f>'Bug Metrics'!$A35</f>
         <v>33</v>
@@ -10455,7 +10455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <f>'Bug Metrics'!$A36</f>
         <v>34</v>
@@ -10485,7 +10485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <f>'Bug Metrics'!$A37</f>
         <v>35</v>
@@ -10515,7 +10515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <f>'Bug Metrics'!$A38</f>
         <v>36</v>
@@ -10545,7 +10545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <f>'Bug Metrics'!$A39</f>
         <v>37</v>
@@ -10575,7 +10575,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <f>'Bug Metrics'!$A40</f>
         <v>38</v>
@@ -10605,7 +10605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9">
         <f>'Bug Metrics'!$B42</f>
@@ -10632,7 +10632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9">
         <f>'Bug Metrics'!$B43</f>
@@ -10659,7 +10659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9">
         <f>'Bug Metrics'!$B44</f>
@@ -10686,7 +10686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9">
         <f>'Bug Metrics'!$B45</f>
@@ -10713,7 +10713,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9">
         <f>'Bug Metrics'!$B46</f>
@@ -10740,7 +10740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9">
         <f>'Bug Metrics'!$B47</f>
@@ -10767,7 +10767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9">
         <f>'Bug Metrics'!$B48</f>
@@ -10794,7 +10794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9">
         <f>'Bug Metrics'!$B49</f>
@@ -10821,7 +10821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9">
         <f>'Bug Metrics'!$B50</f>
@@ -10848,7 +10848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9">
         <f>'Bug Metrics'!$B51</f>
@@ -10875,7 +10875,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9">
         <f>'Bug Metrics'!$B52</f>
@@ -10902,7 +10902,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9">
         <f>'Bug Metrics'!$B53</f>
@@ -10929,7 +10929,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9">
         <f>'Bug Metrics'!$B55</f>
@@ -10982,7 +10982,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9">
         <f>'Bug Metrics'!$B56</f>
@@ -11009,7 +11009,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9">
         <f>'Bug Metrics'!$B57</f>
@@ -11036,7 +11036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9">
         <f>'Bug Metrics'!$B58</f>
@@ -11063,7 +11063,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9">
         <f>'Bug Metrics'!$B59</f>
@@ -11090,7 +11090,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9">
         <f>'Bug Metrics'!$B60</f>
@@ -11117,7 +11117,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9">
         <f>'Bug Metrics'!$B61</f>
@@ -11144,7 +11144,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9">
         <f>'Bug Metrics'!$B62</f>
@@ -11171,7 +11171,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9">
         <f>'Bug Metrics'!$B63</f>
@@ -11198,7 +11198,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9">
         <f>'Bug Metrics'!$B64</f>
@@ -11225,7 +11225,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9">
         <f>'Bug Metrics'!$B65</f>
@@ -11252,7 +11252,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9">
         <f>'Bug Metrics'!$B66</f>
@@ -11279,7 +11279,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9">
         <f>'Bug Metrics'!$B67</f>
@@ -11306,7 +11306,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9">
         <f>'Bug Metrics'!$B68</f>
@@ -11333,7 +11333,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9">
         <f>'Bug Metrics'!$B69</f>
@@ -11360,7 +11360,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9">
         <f>'Bug Metrics'!$B70</f>
@@ -11387,7 +11387,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9">
         <f>'Bug Metrics'!$B71</f>
@@ -11414,7 +11414,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9">
         <f>'Bug Metrics'!$B72</f>
@@ -11441,7 +11441,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9">
         <f>'Bug Metrics'!$B73</f>
@@ -11468,7 +11468,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9">
         <f>'Bug Metrics'!$B74</f>
@@ -11495,7 +11495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9">
         <f>'Bug Metrics'!$B75</f>
@@ -11522,7 +11522,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9">
         <f>'Bug Metrics'!$B76</f>
@@ -11549,7 +11549,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="43.8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9">
         <f>'Bug Metrics'!$B77</f>
@@ -11576,7 +11576,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9">
         <f>'Bug Metrics'!$B78</f>
@@ -11603,7 +11603,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9">
         <f>'Bug Metrics'!$B79</f>
@@ -11630,7 +11630,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="43.8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9">
         <f>'Bug Metrics'!$B80</f>
@@ -11657,7 +11657,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="9">
         <f>'Bug Metrics'!$B81</f>
@@ -11684,7 +11684,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="9">
         <f>'Bug Metrics'!$B82</f>
@@ -11711,7 +11711,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="9">
         <f>'Bug Metrics'!$B83</f>
@@ -11738,7 +11738,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9">
         <f>'Bug Metrics'!$B84</f>
@@ -11765,7 +11765,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="9">
         <f>'Bug Metrics'!$B85</f>
@@ -11792,7 +11792,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="9">
         <f>'Bug Metrics'!$B86</f>
@@ -11819,7 +11819,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="9">
         <f>'Bug Metrics'!$B87</f>
@@ -11846,7 +11846,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9">
         <f>'Bug Metrics'!$B88</f>
@@ -11873,7 +11873,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="9">
         <f>'Bug Metrics'!$B89</f>
@@ -11900,7 +11900,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="B89" s="9">
         <f>'Bug Metrics'!$B90</f>
@@ -11927,7 +11927,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9">
         <f>'Bug Metrics'!$B91</f>
@@ -11954,7 +11954,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="9">
         <f>'Bug Metrics'!$B92</f>
@@ -11981,7 +11981,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="9">
         <f>'Bug Metrics'!$B93</f>
@@ -12008,7 +12008,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="9">
         <f>'Bug Metrics'!$B94</f>
@@ -12035,7 +12035,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="9">
         <f>'Bug Metrics'!$B95</f>
@@ -12062,7 +12062,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="9">
         <f>'Bug Metrics'!$B96</f>
@@ -12089,7 +12089,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="9">
         <f>'Bug Metrics'!$B97</f>
@@ -12116,7 +12116,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="9">
         <f>'Bug Metrics'!$B98</f>
@@ -12143,7 +12143,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="B98" s="9">
         <f>'Bug Metrics'!$B99</f>
@@ -12170,7 +12170,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="9">
         <f>'Bug Metrics'!$B100</f>
@@ -12197,7 +12197,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="9">
         <f>'Bug Metrics'!$B101</f>
@@ -12224,7 +12224,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="9">
         <f>'Bug Metrics'!$B102</f>
@@ -12251,7 +12251,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="9">
         <f>'Bug Metrics'!$B103</f>
@@ -12278,7 +12278,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="9">
         <f>'Bug Metrics'!$B104</f>
@@ -12305,7 +12305,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="9">
         <f>'Bug Metrics'!$B105</f>
@@ -12332,7 +12332,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="9">
         <f>'Bug Metrics'!$B106</f>
@@ -12359,7 +12359,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
       <c r="B106" s="9">
         <f>'Bug Metrics'!$B107</f>
@@ -12386,7 +12386,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="9">
         <f>'Bug Metrics'!$B108</f>
@@ -12413,7 +12413,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="B108" s="9">
         <f>'Bug Metrics'!$B109</f>
@@ -12440,7 +12440,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="9">
         <f>'Bug Metrics'!$B110</f>
@@ -12467,7 +12467,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="B110" s="9">
         <f>'Bug Metrics'!$B111</f>
@@ -12494,7 +12494,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
       <c r="B111" s="9">
         <f>'Bug Metrics'!$B112</f>
@@ -12521,7 +12521,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="9">
         <f>'Bug Metrics'!$B113</f>
@@ -12548,7 +12548,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="B113" s="9">
         <f>'Bug Metrics'!$B114</f>
@@ -12575,7 +12575,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
       <c r="B114" s="9">
         <f>'Bug Metrics'!$B115</f>
@@ -12602,7 +12602,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="9">
         <f>'Bug Metrics'!$B116</f>
@@ -12629,7 +12629,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="9">
         <f>'Bug Metrics'!$B117</f>
@@ -12656,7 +12656,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
       <c r="B117" s="9">
         <f>'Bug Metrics'!$B118</f>
@@ -12683,7 +12683,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="9">
         <f>'Bug Metrics'!$B119</f>
@@ -12710,7 +12710,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="9">
         <f>'Bug Metrics'!$B120</f>
@@ -12737,7 +12737,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="B120" s="9">
         <f>'Bug Metrics'!$B121</f>
@@ -12764,7 +12764,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="9">
         <f>'Bug Metrics'!$B122</f>
@@ -12791,7 +12791,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="B122" s="9">
         <f>'Bug Metrics'!$B123</f>
@@ -12818,7 +12818,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="9">
         <f>'Bug Metrics'!$B124</f>
@@ -12845,7 +12845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="9">
         <f>'Bug Metrics'!$B125</f>
@@ -12872,7 +12872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="9">
         <f>'Bug Metrics'!$B126</f>
@@ -12899,7 +12899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="9">
         <f>'Bug Metrics'!$B127</f>
@@ -12926,7 +12926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="9">
         <f>'Bug Metrics'!$B132</f>
@@ -12953,7 +12953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="9">
         <f>'Bug Metrics'!$B133</f>
@@ -12980,7 +12980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="9">
         <f>'Bug Metrics'!$B134</f>
@@ -13007,7 +13007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="9">
         <f>'Bug Metrics'!$B135</f>
@@ -13034,7 +13034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="9">
         <f>'Bug Metrics'!$B136</f>
@@ -13061,7 +13061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="9">
         <f>'Bug Metrics'!$B137</f>
@@ -13088,7 +13088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="9">
         <f>'Bug Metrics'!$B138</f>
@@ -13115,7 +13115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="9">
         <f>'Bug Metrics'!$B139</f>
@@ -13142,7 +13142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="9">
         <f>'Bug Metrics'!$B140</f>
@@ -13169,7 +13169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
       <c r="B136" s="9">
         <f>'Bug Metrics'!$B141</f>
@@ -13196,7 +13196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
       <c r="B137" s="9">
         <f>'Bug Metrics'!$B142</f>
@@ -13223,7 +13223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="B138" s="9">
         <f>'Bug Metrics'!$B143</f>
@@ -13250,7 +13250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="9">
         <f>'Bug Metrics'!$B144</f>
@@ -13277,7 +13277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="9">
         <f>'Bug Metrics'!$B145</f>
@@ -13304,7 +13304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="B141" s="9">
         <f>'Bug Metrics'!$B146</f>
@@ -13331,7 +13331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="B142" s="9">
         <f>'Bug Metrics'!$B147</f>
@@ -13358,7 +13358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="9">
         <f>'Bug Metrics'!$B148</f>
@@ -13385,7 +13385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
       <c r="B144" s="9">
         <f>'Bug Metrics'!$B149</f>
@@ -13412,7 +13412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="B145" s="9">
         <f>'Bug Metrics'!$B150</f>
@@ -13439,7 +13439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="9">
         <f>'Bug Metrics'!$B151</f>
@@ -13466,7 +13466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
       <c r="B147" s="9">
         <f>'Bug Metrics'!$B152</f>
@@ -13493,7 +13493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="B148" s="9">
         <f>'Bug Metrics'!$B153</f>
@@ -13520,7 +13520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="B149" s="9">
         <f>'Bug Metrics'!$B154</f>
@@ -13547,7 +13547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="B150" s="9">
         <f>'Bug Metrics'!$B155</f>
@@ -13574,7 +13574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="9">
         <f>'Bug Metrics'!$B156</f>
@@ -13601,7 +13601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
       <c r="B152" s="9">
         <f>'Bug Metrics'!$B157</f>
@@ -13628,7 +13628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
       <c r="B153" s="9">
         <f>'Bug Metrics'!$B158</f>
@@ -13655,7 +13655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="9">
         <f>'Bug Metrics'!$B159</f>
@@ -13682,7 +13682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="9">
         <f>'Bug Metrics'!$B160</f>
@@ -13709,7 +13709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="B156" s="9">
         <f>'Bug Metrics'!$B161</f>
@@ -13736,7 +13736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="9">
         <f>'Bug Metrics'!$B162</f>
@@ -13763,7 +13763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="9">
         <f>'Bug Metrics'!$B163</f>
@@ -13790,7 +13790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="9">
         <f>'Bug Metrics'!$B164</f>
@@ -13817,7 +13817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="B160" s="9">
         <f>'Bug Metrics'!$B165</f>
@@ -13844,7 +13844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="B161" s="9">
         <f>'Bug Metrics'!$B166</f>
@@ -13871,7 +13871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="9">
         <f>'Bug Metrics'!$B167</f>
@@ -13898,7 +13898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="9">
         <f>'Bug Metrics'!$B168</f>
@@ -13925,7 +13925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="9">
         <f>'Bug Metrics'!$B169</f>
@@ -13952,7 +13952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="9">
         <f>'Bug Metrics'!$B170</f>
@@ -13979,7 +13979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="9">
         <f>'Bug Metrics'!$B171</f>
@@ -14006,7 +14006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="9">
         <f>'Bug Metrics'!$B172</f>
@@ -14033,7 +14033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="9">
         <f>'Bug Metrics'!$B173</f>
@@ -14060,7 +14060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="9">
         <f>'Bug Metrics'!$B174</f>
@@ -14087,7 +14087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="9">
         <f>'Bug Metrics'!$B175</f>
@@ -14114,7 +14114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="9">
         <f>'Bug Metrics'!$B176</f>
@@ -14141,7 +14141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="9">
         <f>'Bug Metrics'!$B177</f>
@@ -14168,7 +14168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
       <c r="B173" s="9">
         <f>'Bug Metrics'!$B178</f>
@@ -14195,7 +14195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
       <c r="B174" s="9">
         <f>'Bug Metrics'!$B179</f>
@@ -14222,7 +14222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="9">
         <f>'Bug Metrics'!$B180</f>
@@ -14249,7 +14249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
       <c r="B176" s="9">
         <f>'Bug Metrics'!$B181</f>
@@ -14276,7 +14276,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
       <c r="B177" s="9">
         <f>'Bug Metrics'!$B182</f>
@@ -14303,7 +14303,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="29.2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
       <c r="B178" s="9">
         <f>'Bug Metrics'!$B183</f>
@@ -14330,7 +14330,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
       <c r="B179" s="9">
         <f>'Bug Metrics'!$B184</f>
@@ -14343,7 +14343,7 @@
       <c r="G179" s="14"/>
       <c r="H179" s="16"/>
     </row>
-    <row r="180" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="B180" s="9">
         <f>'Bug Metrics'!$B185</f>
@@ -14356,7 +14356,7 @@
       <c r="G180" s="14"/>
       <c r="H180" s="16"/>
     </row>
-    <row r="181" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
       <c r="B181" s="9">
         <f>'Bug Metrics'!$B186</f>
@@ -14369,7 +14369,7 @@
       <c r="G181" s="14"/>
       <c r="H181" s="16"/>
     </row>
-    <row r="182" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="9"/>
       <c r="B182" s="9">
         <f>'Bug Metrics'!$B187</f>
@@ -14382,7 +14382,7 @@
       <c r="G182" s="14"/>
       <c r="H182" s="16"/>
     </row>
-    <row r="183" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="B183" s="9">
         <f>'Bug Metrics'!$B188</f>
@@ -14395,7 +14395,7 @@
       <c r="G183" s="14"/>
       <c r="H183" s="16"/>
     </row>
-    <row r="184" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
       <c r="B184" s="9">
         <f>'Bug Metrics'!$B189</f>
@@ -14408,7 +14408,7 @@
       <c r="G184" s="14"/>
       <c r="H184" s="16"/>
     </row>
-    <row r="185" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
       <c r="B185" s="9">
         <f>'Bug Metrics'!$B190</f>
@@ -14421,7 +14421,7 @@
       <c r="G185" s="14"/>
       <c r="H185" s="16"/>
     </row>
-    <row r="186" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
       <c r="B186" s="9">
         <f>'Bug Metrics'!$B191</f>
@@ -14434,7 +14434,7 @@
       <c r="G186" s="14"/>
       <c r="H186" s="16"/>
     </row>
-    <row r="187" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
       <c r="B187" s="9">
         <f>'Bug Metrics'!$B192</f>
@@ -14447,7 +14447,7 @@
       <c r="G187" s="14"/>
       <c r="H187" s="16"/>
     </row>
-    <row r="188" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
       <c r="B188" s="9">
         <f>'Bug Metrics'!$B193</f>
@@ -14460,7 +14460,7 @@
       <c r="G188" s="14"/>
       <c r="H188" s="16"/>
     </row>
-    <row r="189" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
       <c r="B189" s="9">
         <f>'Bug Metrics'!$B194</f>
@@ -14473,7 +14473,7 @@
       <c r="G189" s="14"/>
       <c r="H189" s="16"/>
     </row>
-    <row r="190" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
       <c r="B190" s="9">
         <f>'Bug Metrics'!$B195</f>
@@ -14486,7 +14486,7 @@
       <c r="G190" s="14"/>
       <c r="H190" s="16"/>
     </row>
-    <row r="191" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="9"/>
       <c r="B191" s="9">
         <f>'Bug Metrics'!$B196</f>
@@ -14499,7 +14499,7 @@
       <c r="G191" s="14"/>
       <c r="H191" s="16"/>
     </row>
-    <row r="192" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
       <c r="B192" s="9">
         <f>'Bug Metrics'!$B197</f>
@@ -14512,7 +14512,7 @@
       <c r="G192" s="14"/>
       <c r="H192" s="16"/>
     </row>
-    <row r="193" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
       <c r="B193" s="9">
         <f>'Bug Metrics'!$B198</f>
@@ -14525,7 +14525,7 @@
       <c r="G193" s="14"/>
       <c r="H193" s="16"/>
     </row>
-    <row r="194" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
       <c r="B194" s="9">
         <f>'Bug Metrics'!$B199</f>
@@ -14538,7 +14538,7 @@
       <c r="G194" s="14"/>
       <c r="H194" s="16"/>
     </row>
-    <row r="195" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
       <c r="B195" s="9">
         <f>'Bug Metrics'!$B200</f>
@@ -14551,7 +14551,7 @@
       <c r="G195" s="14"/>
       <c r="H195" s="16"/>
     </row>
-    <row r="196" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
       <c r="B196" s="9">
         <f>'Bug Metrics'!$B201</f>
@@ -14564,7 +14564,7 @@
       <c r="G196" s="14"/>
       <c r="H196" s="16"/>
     </row>
-    <row r="197" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
       <c r="B197" s="9">
         <f>'Bug Metrics'!$B202</f>
@@ -14577,7 +14577,7 @@
       <c r="G197" s="14"/>
       <c r="H197" s="16"/>
     </row>
-    <row r="198" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
       <c r="B198" s="9">
         <f>'Bug Metrics'!$B203</f>
@@ -14590,7 +14590,7 @@
       <c r="G198" s="14"/>
       <c r="H198" s="16"/>
     </row>
-    <row r="199" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
       <c r="B199" s="9">
         <f>'Bug Metrics'!$B204</f>
@@ -14603,7 +14603,7 @@
       <c r="G199" s="14"/>
       <c r="H199" s="16"/>
     </row>
-    <row r="200" spans="1:8" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="9"/>
       <c r="B200" s="9">
         <f>'Bug Metrics'!$B205</f>
@@ -14616,7 +14616,7 @@
       <c r="G200" s="14"/>
       <c r="H200" s="16"/>
     </row>
-    <row r="201" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="9"/>
       <c r="C201" s="13"/>
@@ -14626,7 +14626,7 @@
       <c r="G201" s="14"/>
       <c r="H201" s="13"/>
     </row>
-    <row r="202" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="9"/>
       <c r="C202" s="13"/>
@@ -14636,7 +14636,7 @@
       <c r="G202" s="14"/>
       <c r="H202" s="13"/>
     </row>
-    <row r="203" spans="1:8" ht="14.6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="9"/>
       <c r="C203" s="13"/>
@@ -22681,49 +22681,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E32 E34:E200">
-    <cfRule type="containsBlanks" dxfId="0" priority="11">
+    <cfRule type="containsBlanks" dxfId="8" priority="11">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
+    <cfRule type="containsBlanks" dxfId="5" priority="8">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
